--- a/room_data.xlsx
+++ b/room_data.xlsx
@@ -53,7 +53,7 @@
     <t>Current Due</t>
   </si>
   <si>
-    <t>Code</t>
+    <t>OTP</t>
   </si>
   <si>
     <t>Room No.1 GF</t>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:AA994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1047619047619" defaultRowHeight="15" customHeight="1"/>

--- a/room_data.xlsx
+++ b/room_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet17" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Room No.</t>
   </si>
@@ -139,6 +139,75 @@
   <si>
     <t>Room No. 41</t>
   </si>
+  <si>
+    <t>Room No 10</t>
+  </si>
+  <si>
+    <t>Room No 11</t>
+  </si>
+  <si>
+    <t>Room No 12</t>
+  </si>
+  <si>
+    <t>Room No 13</t>
+  </si>
+  <si>
+    <t>Room No 14</t>
+  </si>
+  <si>
+    <t>Room No 15</t>
+  </si>
+  <si>
+    <t>Room No 16</t>
+  </si>
+  <si>
+    <t>Room No 17</t>
+  </si>
+  <si>
+    <t>Room No 18</t>
+  </si>
+  <si>
+    <t>Room No 19</t>
+  </si>
+  <si>
+    <t>Room No 20</t>
+  </si>
+  <si>
+    <t>Room No 21</t>
+  </si>
+  <si>
+    <t>Room No 22</t>
+  </si>
+  <si>
+    <t>Room No 23</t>
+  </si>
+  <si>
+    <t>Room No 24</t>
+  </si>
+  <si>
+    <t>Room No 25</t>
+  </si>
+  <si>
+    <t>Room No 26</t>
+  </si>
+  <si>
+    <t>Room No 35</t>
+  </si>
+  <si>
+    <t>Room No 36</t>
+  </si>
+  <si>
+    <t>Room No 37</t>
+  </si>
+  <si>
+    <t>Room No 38</t>
+  </si>
+  <si>
+    <t>Room No 39</t>
+  </si>
+  <si>
+    <t>Room No 40</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +220,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mmmd"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,6 +242,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -540,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -565,6 +640,19 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -575,6 +663,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,31 +791,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,119 +821,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,16 +967,27 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,7 +1322,7 @@
   <dimension ref="A1:AA994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1047619047619" defaultRowHeight="15" customHeight="1"/>
@@ -1239,10 +1362,10 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="6" t="s">
@@ -1272,10 +1395,10 @@
         <f>F2+G2</f>
         <v>34125</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="21">
         <v>7234</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -1305,10 +1428,10 @@
         <f t="shared" ref="H3:H29" si="2">F3+G3</f>
         <v>9000</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="21">
         <v>5190</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="9" t="s">
@@ -1338,10 +1461,10 @@
         <f t="shared" si="2"/>
         <v>30910</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="21">
         <v>8865</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="9" t="s">
@@ -1371,10 +1494,10 @@
         <f t="shared" si="2"/>
         <v>10250</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="21">
         <v>2713</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="9" t="s">
@@ -1404,10 +1527,10 @@
         <f t="shared" si="2"/>
         <v>10350</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="21">
         <v>6498</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="9" t="s">
@@ -1436,10 +1559,10 @@
         <f t="shared" si="2"/>
         <v>6750</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="21">
         <v>9357</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="9" t="s">
@@ -1468,10 +1591,10 @@
         <f t="shared" si="2"/>
         <v>23800</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="21">
         <v>1026</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="6" t="s">
@@ -1500,10 +1623,10 @@
         <f t="shared" si="2"/>
         <v>15250</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="21">
         <v>3689</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="8" t="s">
@@ -1532,10 +1655,10 @@
         <f t="shared" si="2"/>
         <v>7950</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="21">
         <v>4572</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="9" t="s">
@@ -1564,10 +1687,10 @@
         <f t="shared" si="2"/>
         <v>8400</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="21">
         <v>7841</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="6" t="s">
@@ -1596,10 +1719,10 @@
         <f t="shared" si="2"/>
         <v>7950</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="21">
         <v>5936</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="9" t="s">
@@ -1628,10 +1751,10 @@
         <f t="shared" si="2"/>
         <v>7050</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="21">
         <v>8074</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="6" t="s">
@@ -1660,10 +1783,10 @@
         <f t="shared" si="2"/>
         <v>7050</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="21">
         <v>2158</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="8" t="s">
@@ -1692,10 +1815,10 @@
         <f t="shared" si="2"/>
         <v>11300</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="21">
         <v>6327</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="8" t="s">
@@ -1724,27 +1847,27 @@
         <f t="shared" si="2"/>
         <v>12300</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="23">
         <v>9760</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="8" t="s">
@@ -1773,10 +1896,10 @@
         <f t="shared" si="2"/>
         <v>14300</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="21">
         <v>1483</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="8" t="s">
@@ -1805,10 +1928,10 @@
         <f t="shared" si="2"/>
         <v>7100</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="21">
         <v>3519</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="13" t="s">
@@ -1837,10 +1960,10 @@
         <f t="shared" si="2"/>
         <v>22250</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="21">
         <v>4675</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="13" t="s">
@@ -1869,10 +1992,10 @@
         <f t="shared" si="2"/>
         <v>11500</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="21">
         <v>7102</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="8" t="s">
@@ -1901,10 +2024,10 @@
         <f t="shared" si="2"/>
         <v>13700</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="21">
         <v>5287</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="8" t="s">
@@ -1933,10 +2056,10 @@
         <f t="shared" si="2"/>
         <v>11550</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="21">
         <v>8946</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="9" t="s">
@@ -1965,10 +2088,10 @@
         <f t="shared" si="2"/>
         <v>7100</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="21">
         <v>2031</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="9" t="s">
@@ -1997,10 +2120,10 @@
         <f t="shared" si="2"/>
         <v>11600</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="21">
         <v>6754</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="8" t="s">
@@ -2029,10 +2152,10 @@
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="21">
         <v>9817</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="9" t="s">
@@ -2061,10 +2184,10 @@
         <f t="shared" si="2"/>
         <v>29550</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="21">
         <v>1390</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="8" t="s">
@@ -2093,10 +2216,10 @@
         <f t="shared" si="2"/>
         <v>11500</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="21">
         <v>3428</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="8" t="s">
@@ -2125,10 +2248,10 @@
         <f t="shared" si="2"/>
         <v>24200</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="21">
         <v>4561</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" ht="12.75" spans="1:10">
       <c r="A29" s="9" t="s">
@@ -2157,3842 +2280,4464 @@
         <f t="shared" si="2"/>
         <v>11500</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="21">
         <v>7089</v>
       </c>
-      <c r="J29" s="16"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" ht="12.75" spans="2:10">
       <c r="B30" s="14"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="16">
+      <c r="I30" s="21">
         <v>5632</v>
       </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" ht="12.75" spans="8:8">
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" ht="12.75" spans="2:8">
-      <c r="B32" s="14"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" ht="12.75" spans="2:8">
-      <c r="B33" s="14"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" ht="12.75" spans="2:8">
-      <c r="B34" s="14"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" ht="12.75" spans="2:8">
-      <c r="B35" s="14"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" ht="12.75" spans="2:8">
-      <c r="B36" s="14"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" ht="12.75" spans="2:8">
-      <c r="B37" s="14"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" ht="12.75" spans="2:8">
-      <c r="B38" s="14"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" ht="12.75" spans="2:8">
-      <c r="B39" s="14"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" ht="12.75" spans="2:8">
-      <c r="B40" s="14"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" ht="12.75" spans="2:8">
-      <c r="B41" s="14"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" ht="12.75" spans="2:8">
-      <c r="B42" s="14"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" ht="12.75" spans="2:8">
-      <c r="B43" s="14"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" ht="12.75" spans="2:8">
-      <c r="B44" s="14"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" ht="12.75" spans="2:8">
-      <c r="B45" s="14"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" ht="12.75" spans="2:8">
-      <c r="B46" s="14"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" ht="12.75" spans="2:8">
-      <c r="B47" s="14"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" ht="12.75" spans="2:8">
-      <c r="B48" s="14"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" ht="12.75" spans="2:8">
-      <c r="B49" s="14"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" ht="12.75" spans="2:8">
-      <c r="B50" s="14"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" ht="12.75" spans="2:8">
-      <c r="B51" s="14"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" ht="12.75" spans="2:8">
-      <c r="B52" s="14"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" ht="12.75" spans="2:8">
-      <c r="B53" s="14"/>
-      <c r="H53" s="16"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" ht="12.75" spans="1:9">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6700</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>450</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" ref="F31:F53" si="3">C31+D31+E31</f>
+        <v>7150</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" ref="H31:H53" si="4">F31+G31</f>
+        <v>7150</v>
+      </c>
+      <c r="I31" s="21">
+        <v>9053</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" spans="1:9">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C32" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D32" s="16">
+        <v>800</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" si="3"/>
+        <v>13100</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="19">
+        <f t="shared" si="4"/>
+        <v>13100</v>
+      </c>
+      <c r="I32" s="21">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" spans="1:9">
+      <c r="A33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>700</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="3"/>
+        <v>7400</v>
+      </c>
+      <c r="G33" s="17">
+        <v>23000</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="4"/>
+        <v>30400</v>
+      </c>
+      <c r="I33" s="21">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" spans="1:9">
+      <c r="A34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D34" s="16">
+        <v>800</v>
+      </c>
+      <c r="E34" s="17">
+        <v>400</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" si="3"/>
+        <v>7900</v>
+      </c>
+      <c r="G34" s="17">
+        <v>7900</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="4"/>
+        <v>15800</v>
+      </c>
+      <c r="I34" s="21">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" spans="1:9">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C35" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>450</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="3"/>
+        <v>7150</v>
+      </c>
+      <c r="G35" s="17">
+        <v>42600</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="4"/>
+        <v>49750</v>
+      </c>
+      <c r="I35" s="21">
+        <v>8302</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" spans="1:9">
+      <c r="A36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D36" s="16">
+        <v>800</v>
+      </c>
+      <c r="E36" s="17">
+        <v>300</v>
+      </c>
+      <c r="F36" s="18">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="4"/>
+        <v>7800</v>
+      </c>
+      <c r="I36" s="21">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" spans="1:9">
+      <c r="A37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1100</v>
+      </c>
+      <c r="F37" s="18">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+      <c r="G37" s="17">
+        <v>600</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="4"/>
+        <v>8400</v>
+      </c>
+      <c r="I37" s="21">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" spans="1:9">
+      <c r="A38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C38" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
+        <v>500</v>
+      </c>
+      <c r="F38" s="18">
+        <f t="shared" si="3"/>
+        <v>7200</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1699</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="4"/>
+        <v>8899</v>
+      </c>
+      <c r="I38" s="21">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" spans="1:9">
+      <c r="A39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C39" s="8">
+        <v>11000</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
+        <v>300</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="3"/>
+        <v>11300</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="4"/>
+        <v>11300</v>
+      </c>
+      <c r="I39" s="21">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" spans="1:9">
+      <c r="A40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C40" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <v>2100</v>
+      </c>
+      <c r="F40" s="18">
+        <f t="shared" si="3"/>
+        <v>13100</v>
+      </c>
+      <c r="G40" s="17">
+        <v>24450</v>
+      </c>
+      <c r="H40" s="19">
+        <f t="shared" si="4"/>
+        <v>37550</v>
+      </c>
+      <c r="I40" s="21">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" spans="1:9">
+      <c r="A41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C41" s="8">
+        <v>6700</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
+        <v>800</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+      <c r="G41" s="17">
+        <v>44950</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="4"/>
+        <v>52450</v>
+      </c>
+      <c r="I41" s="21">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" spans="1:9">
+      <c r="A42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C42" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1700</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" si="3"/>
+        <v>8400</v>
+      </c>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" si="4"/>
+        <v>8400</v>
+      </c>
+      <c r="I42" s="21">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" spans="1:9">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C43" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17">
+        <v>250</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="3"/>
+        <v>6950</v>
+      </c>
+      <c r="G43" s="17">
+        <v>3400</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="4"/>
+        <v>10350</v>
+      </c>
+      <c r="I43" s="21">
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75" spans="1:9">
+      <c r="A44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C44" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="I44" s="21">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" spans="1:9">
+      <c r="A45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C45" s="8">
+        <v>6700</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <v>400</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="3"/>
+        <v>7100</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" si="4"/>
+        <v>7100</v>
+      </c>
+      <c r="I45" s="23">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" spans="1:9">
+      <c r="A46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C46" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D46" s="16">
+        <v>800</v>
+      </c>
+      <c r="E46" s="17">
+        <v>600</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="3"/>
+        <v>12400</v>
+      </c>
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="4"/>
+        <v>12400</v>
+      </c>
+      <c r="I46" s="21">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75" spans="1:9">
+      <c r="A47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C47" s="9">
+        <v>6700</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <f t="shared" si="3"/>
+        <v>6700</v>
+      </c>
+      <c r="G47" s="17">
+        <v>700</v>
+      </c>
+      <c r="H47" s="19">
+        <f t="shared" si="4"/>
+        <v>7400</v>
+      </c>
+      <c r="I47" s="21">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75" spans="1:9">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C48" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D48" s="16">
+        <v>800</v>
+      </c>
+      <c r="E48" s="17">
+        <v>400</v>
+      </c>
+      <c r="F48" s="18">
+        <f t="shared" si="3"/>
+        <v>12200</v>
+      </c>
+      <c r="G48" s="17">
+        <v>0</v>
+      </c>
+      <c r="H48" s="19">
+        <f t="shared" si="4"/>
+        <v>12200</v>
+      </c>
+      <c r="I48" s="21">
+        <v>6795</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75" spans="1:9">
+      <c r="A49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C49" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>450</v>
+      </c>
+      <c r="F49" s="18">
+        <f t="shared" si="3"/>
+        <v>11450</v>
+      </c>
+      <c r="G49" s="17">
+        <v>4950</v>
+      </c>
+      <c r="H49" s="19">
+        <f t="shared" si="4"/>
+        <v>16400</v>
+      </c>
+      <c r="I49" s="21">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75" spans="1:9">
+      <c r="A50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C50" s="8">
+        <v>6700</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="17">
+        <v>300</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="G50" s="17">
+        <v>8220</v>
+      </c>
+      <c r="H50" s="19">
+        <f t="shared" si="4"/>
+        <v>15220</v>
+      </c>
+      <c r="I50" s="21">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75" spans="1:9">
+      <c r="A51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C51" s="8">
+        <v>11000</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="17">
+        <v>700</v>
+      </c>
+      <c r="F51" s="18">
+        <f t="shared" si="3"/>
+        <v>11700</v>
+      </c>
+      <c r="G51" s="17">
+        <v>0</v>
+      </c>
+      <c r="H51" s="19">
+        <f t="shared" si="4"/>
+        <v>11700</v>
+      </c>
+      <c r="I51" s="21">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" spans="1:9">
+      <c r="A52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C52" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>800</v>
+      </c>
+      <c r="F52" s="18">
+        <f t="shared" si="3"/>
+        <v>11800</v>
+      </c>
+      <c r="G52" s="17">
+        <v>1750</v>
+      </c>
+      <c r="H52" s="19">
+        <f t="shared" si="4"/>
+        <v>13550</v>
+      </c>
+      <c r="I52" s="21">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" spans="1:9">
+      <c r="A53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="7">
+        <v>45589</v>
+      </c>
+      <c r="C53" s="9">
+        <v>11000</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
+        <v>450</v>
+      </c>
+      <c r="F53" s="18">
+        <f t="shared" si="3"/>
+        <v>11450</v>
+      </c>
+      <c r="G53" s="17">
+        <v>5200</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" si="4"/>
+        <v>16650</v>
+      </c>
+      <c r="I53" s="21">
+        <v>5028</v>
+      </c>
     </row>
     <row r="54" ht="12.75" spans="2:8">
       <c r="B54" s="14"/>
-      <c r="H54" s="16"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" ht="12.75" spans="2:8">
       <c r="B55" s="14"/>
-      <c r="H55" s="16"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" ht="12.75" spans="2:8">
       <c r="B56" s="14"/>
-      <c r="H56" s="16"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" ht="12.75" spans="2:8">
       <c r="B57" s="14"/>
-      <c r="H57" s="16"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" ht="12.75" spans="2:8">
       <c r="B58" s="14"/>
-      <c r="H58" s="16"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" ht="12.75" spans="2:8">
       <c r="B59" s="14"/>
-      <c r="H59" s="16"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" ht="12.75" spans="2:8">
       <c r="B60" s="14"/>
-      <c r="H60" s="16"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" ht="12.75" spans="2:8">
       <c r="B61" s="14"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" ht="12.75" spans="2:8">
       <c r="B62" s="14"/>
-      <c r="H62" s="16"/>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" ht="12.75" spans="2:8">
       <c r="B63" s="14"/>
-      <c r="H63" s="16"/>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" ht="12.75" spans="2:8">
       <c r="B64" s="14"/>
-      <c r="H64" s="16"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" ht="12.75" spans="2:8">
       <c r="B65" s="14"/>
-      <c r="H65" s="16"/>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" ht="12.75" spans="2:8">
       <c r="B66" s="14"/>
-      <c r="H66" s="16"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" ht="12.75" spans="2:8">
       <c r="B67" s="14"/>
-      <c r="H67" s="16"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" ht="12.75" spans="2:8">
       <c r="B68" s="14"/>
-      <c r="H68" s="16"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" ht="12.75" spans="2:8">
       <c r="B69" s="14"/>
-      <c r="H69" s="16"/>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" ht="12.75" spans="2:8">
       <c r="B70" s="14"/>
-      <c r="H70" s="16"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" ht="12.75" spans="2:8">
       <c r="B71" s="14"/>
-      <c r="H71" s="16"/>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" ht="12.75" spans="2:8">
       <c r="B72" s="14"/>
-      <c r="H72" s="16"/>
+      <c r="H72" s="21"/>
     </row>
     <row r="73" ht="12.75" spans="2:8">
       <c r="B73" s="14"/>
-      <c r="H73" s="16"/>
+      <c r="H73" s="21"/>
     </row>
     <row r="74" ht="12.75" spans="2:8">
       <c r="B74" s="14"/>
-      <c r="H74" s="16"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" ht="12.75" spans="2:8">
       <c r="B75" s="14"/>
-      <c r="H75" s="16"/>
+      <c r="H75" s="21"/>
     </row>
     <row r="76" ht="12.75" spans="2:8">
       <c r="B76" s="14"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" ht="12.75" spans="2:8">
       <c r="B77" s="14"/>
-      <c r="H77" s="16"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" ht="12.75" spans="2:8">
       <c r="B78" s="14"/>
-      <c r="H78" s="16"/>
+      <c r="H78" s="21"/>
     </row>
     <row r="79" ht="12.75" spans="2:8">
       <c r="B79" s="14"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" ht="12.75" spans="2:8">
       <c r="B80" s="14"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" ht="12.75" spans="2:8">
       <c r="B81" s="14"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" ht="12.75" spans="2:8">
       <c r="B82" s="14"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" ht="12.75" spans="2:8">
       <c r="B83" s="14"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="21"/>
     </row>
     <row r="84" ht="12.75" spans="2:8">
       <c r="B84" s="14"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="21"/>
     </row>
     <row r="85" ht="12.75" spans="2:8">
       <c r="B85" s="14"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="21"/>
     </row>
     <row r="86" ht="12.75" spans="2:8">
       <c r="B86" s="14"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="21"/>
     </row>
     <row r="87" ht="12.75" spans="2:8">
       <c r="B87" s="14"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="21"/>
     </row>
     <row r="88" ht="12.75" spans="2:8">
       <c r="B88" s="14"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="21"/>
     </row>
     <row r="89" ht="12.75" spans="2:8">
       <c r="B89" s="14"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="21"/>
     </row>
     <row r="90" ht="12.75" spans="2:8">
       <c r="B90" s="14"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="21"/>
     </row>
     <row r="91" ht="12.75" spans="2:8">
       <c r="B91" s="14"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="21"/>
     </row>
     <row r="92" ht="12.75" spans="2:8">
       <c r="B92" s="14"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="21"/>
     </row>
     <row r="93" ht="12.75" spans="2:8">
       <c r="B93" s="14"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="21"/>
     </row>
     <row r="94" ht="12.75" spans="2:8">
       <c r="B94" s="14"/>
-      <c r="H94" s="16"/>
+      <c r="H94" s="21"/>
     </row>
     <row r="95" ht="12.75" spans="2:8">
       <c r="B95" s="14"/>
-      <c r="H95" s="16"/>
+      <c r="H95" s="21"/>
     </row>
     <row r="96" ht="12.75" spans="2:8">
       <c r="B96" s="14"/>
-      <c r="H96" s="16"/>
+      <c r="H96" s="21"/>
     </row>
     <row r="97" ht="12.75" spans="2:8">
       <c r="B97" s="14"/>
-      <c r="H97" s="16"/>
+      <c r="H97" s="21"/>
     </row>
     <row r="98" ht="12.75" spans="2:8">
       <c r="B98" s="14"/>
-      <c r="H98" s="16"/>
+      <c r="H98" s="21"/>
     </row>
     <row r="99" ht="12.75" spans="2:8">
       <c r="B99" s="14"/>
-      <c r="H99" s="16"/>
+      <c r="H99" s="21"/>
     </row>
     <row r="100" ht="12.75" spans="2:8">
       <c r="B100" s="14"/>
-      <c r="H100" s="16"/>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" ht="12.75" spans="2:8">
       <c r="B101" s="14"/>
-      <c r="H101" s="16"/>
+      <c r="H101" s="21"/>
     </row>
     <row r="102" ht="12.75" spans="2:8">
       <c r="B102" s="14"/>
-      <c r="H102" s="16"/>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" ht="12.75" spans="2:8">
       <c r="B103" s="14"/>
-      <c r="H103" s="16"/>
+      <c r="H103" s="21"/>
     </row>
     <row r="104" ht="12.75" spans="2:8">
       <c r="B104" s="14"/>
-      <c r="H104" s="16"/>
+      <c r="H104" s="21"/>
     </row>
     <row r="105" ht="12.75" spans="2:8">
       <c r="B105" s="14"/>
-      <c r="H105" s="16"/>
+      <c r="H105" s="21"/>
     </row>
     <row r="106" ht="12.75" spans="2:8">
       <c r="B106" s="14"/>
-      <c r="H106" s="16"/>
+      <c r="H106" s="21"/>
     </row>
     <row r="107" ht="12.75" spans="2:8">
       <c r="B107" s="14"/>
-      <c r="H107" s="16"/>
+      <c r="H107" s="21"/>
     </row>
     <row r="108" ht="12.75" spans="2:8">
       <c r="B108" s="14"/>
-      <c r="H108" s="16"/>
+      <c r="H108" s="21"/>
     </row>
     <row r="109" ht="12.75" spans="2:8">
       <c r="B109" s="14"/>
-      <c r="H109" s="16"/>
+      <c r="H109" s="21"/>
     </row>
     <row r="110" ht="12.75" spans="2:8">
       <c r="B110" s="14"/>
-      <c r="H110" s="16"/>
+      <c r="H110" s="21"/>
     </row>
     <row r="111" ht="12.75" spans="2:8">
       <c r="B111" s="14"/>
-      <c r="H111" s="16"/>
+      <c r="H111" s="21"/>
     </row>
     <row r="112" ht="12.75" spans="2:8">
       <c r="B112" s="14"/>
-      <c r="H112" s="16"/>
+      <c r="H112" s="21"/>
     </row>
     <row r="113" ht="12.75" spans="2:8">
       <c r="B113" s="14"/>
-      <c r="H113" s="16"/>
+      <c r="H113" s="21"/>
     </row>
     <row r="114" ht="12.75" spans="2:8">
       <c r="B114" s="14"/>
-      <c r="H114" s="16"/>
+      <c r="H114" s="21"/>
     </row>
     <row r="115" ht="12.75" spans="2:8">
       <c r="B115" s="14"/>
-      <c r="H115" s="16"/>
+      <c r="H115" s="21"/>
     </row>
     <row r="116" ht="12.75" spans="2:8">
       <c r="B116" s="14"/>
-      <c r="H116" s="16"/>
+      <c r="H116" s="21"/>
     </row>
     <row r="117" ht="12.75" spans="2:8">
       <c r="B117" s="14"/>
-      <c r="H117" s="16"/>
+      <c r="H117" s="21"/>
     </row>
     <row r="118" ht="12.75" spans="2:8">
       <c r="B118" s="14"/>
-      <c r="H118" s="16"/>
+      <c r="H118" s="21"/>
     </row>
     <row r="119" ht="12.75" spans="2:8">
       <c r="B119" s="14"/>
-      <c r="H119" s="16"/>
+      <c r="H119" s="21"/>
     </row>
     <row r="120" ht="12.75" spans="2:8">
       <c r="B120" s="14"/>
-      <c r="H120" s="16"/>
+      <c r="H120" s="21"/>
     </row>
     <row r="121" ht="12.75" spans="2:8">
       <c r="B121" s="14"/>
-      <c r="H121" s="16"/>
+      <c r="H121" s="21"/>
     </row>
     <row r="122" ht="12.75" spans="2:8">
       <c r="B122" s="14"/>
-      <c r="H122" s="16"/>
+      <c r="H122" s="21"/>
     </row>
     <row r="123" ht="12.75" spans="2:8">
       <c r="B123" s="14"/>
-      <c r="H123" s="16"/>
+      <c r="H123" s="21"/>
     </row>
     <row r="124" ht="12.75" spans="2:8">
       <c r="B124" s="14"/>
-      <c r="H124" s="16"/>
+      <c r="H124" s="21"/>
     </row>
     <row r="125" ht="12.75" spans="2:8">
       <c r="B125" s="14"/>
-      <c r="H125" s="16"/>
+      <c r="H125" s="21"/>
     </row>
     <row r="126" ht="12.75" spans="2:8">
       <c r="B126" s="14"/>
-      <c r="H126" s="16"/>
+      <c r="H126" s="21"/>
     </row>
     <row r="127" ht="12.75" spans="2:8">
       <c r="B127" s="14"/>
-      <c r="H127" s="16"/>
+      <c r="H127" s="21"/>
     </row>
     <row r="128" ht="12.75" spans="2:8">
       <c r="B128" s="14"/>
-      <c r="H128" s="16"/>
+      <c r="H128" s="21"/>
     </row>
     <row r="129" ht="12.75" spans="2:8">
       <c r="B129" s="14"/>
-      <c r="H129" s="16"/>
+      <c r="H129" s="21"/>
     </row>
     <row r="130" ht="12.75" spans="2:8">
       <c r="B130" s="14"/>
-      <c r="H130" s="16"/>
+      <c r="H130" s="21"/>
     </row>
     <row r="131" ht="12.75" spans="2:8">
       <c r="B131" s="14"/>
-      <c r="H131" s="16"/>
+      <c r="H131" s="21"/>
     </row>
     <row r="132" ht="12.75" spans="2:8">
       <c r="B132" s="14"/>
-      <c r="H132" s="16"/>
+      <c r="H132" s="21"/>
     </row>
     <row r="133" ht="12.75" spans="2:8">
       <c r="B133" s="14"/>
-      <c r="H133" s="16"/>
+      <c r="H133" s="21"/>
     </row>
     <row r="134" ht="12.75" spans="2:8">
       <c r="B134" s="14"/>
-      <c r="H134" s="16"/>
+      <c r="H134" s="21"/>
     </row>
     <row r="135" ht="12.75" spans="2:8">
       <c r="B135" s="14"/>
-      <c r="H135" s="16"/>
+      <c r="H135" s="21"/>
     </row>
     <row r="136" ht="12.75" spans="2:8">
       <c r="B136" s="14"/>
-      <c r="H136" s="16"/>
+      <c r="H136" s="21"/>
     </row>
     <row r="137" ht="12.75" spans="2:8">
       <c r="B137" s="14"/>
-      <c r="H137" s="16"/>
+      <c r="H137" s="21"/>
     </row>
     <row r="138" ht="12.75" spans="2:8">
       <c r="B138" s="14"/>
-      <c r="H138" s="16"/>
+      <c r="H138" s="21"/>
     </row>
     <row r="139" ht="12.75" spans="2:8">
       <c r="B139" s="14"/>
-      <c r="H139" s="16"/>
+      <c r="H139" s="21"/>
     </row>
     <row r="140" ht="12.75" spans="2:8">
       <c r="B140" s="14"/>
-      <c r="H140" s="16"/>
+      <c r="H140" s="21"/>
     </row>
     <row r="141" ht="12.75" spans="2:8">
       <c r="B141" s="14"/>
-      <c r="H141" s="16"/>
+      <c r="H141" s="21"/>
     </row>
     <row r="142" ht="12.75" spans="2:8">
       <c r="B142" s="14"/>
-      <c r="H142" s="16"/>
+      <c r="H142" s="21"/>
     </row>
     <row r="143" ht="12.75" spans="2:8">
       <c r="B143" s="14"/>
-      <c r="H143" s="16"/>
+      <c r="H143" s="21"/>
     </row>
     <row r="144" ht="12.75" spans="2:8">
       <c r="B144" s="14"/>
-      <c r="H144" s="16"/>
+      <c r="H144" s="21"/>
     </row>
     <row r="145" ht="12.75" spans="2:8">
       <c r="B145" s="14"/>
-      <c r="H145" s="16"/>
+      <c r="H145" s="21"/>
     </row>
     <row r="146" ht="12.75" spans="2:8">
       <c r="B146" s="14"/>
-      <c r="H146" s="16"/>
+      <c r="H146" s="21"/>
     </row>
     <row r="147" ht="12.75" spans="2:8">
       <c r="B147" s="14"/>
-      <c r="H147" s="16"/>
+      <c r="H147" s="21"/>
     </row>
     <row r="148" ht="12.75" spans="2:8">
       <c r="B148" s="14"/>
-      <c r="H148" s="16"/>
+      <c r="H148" s="21"/>
     </row>
     <row r="149" ht="12.75" spans="2:8">
       <c r="B149" s="14"/>
-      <c r="H149" s="16"/>
+      <c r="H149" s="21"/>
     </row>
     <row r="150" ht="12.75" spans="2:8">
       <c r="B150" s="14"/>
-      <c r="H150" s="16"/>
+      <c r="H150" s="21"/>
     </row>
     <row r="151" ht="12.75" spans="2:8">
       <c r="B151" s="14"/>
-      <c r="H151" s="16"/>
+      <c r="H151" s="21"/>
     </row>
     <row r="152" ht="12.75" spans="2:8">
       <c r="B152" s="14"/>
-      <c r="H152" s="16"/>
+      <c r="H152" s="21"/>
     </row>
     <row r="153" ht="12.75" spans="2:8">
       <c r="B153" s="14"/>
-      <c r="H153" s="16"/>
+      <c r="H153" s="21"/>
     </row>
     <row r="154" ht="12.75" spans="2:8">
       <c r="B154" s="14"/>
-      <c r="H154" s="16"/>
+      <c r="H154" s="21"/>
     </row>
     <row r="155" ht="12.75" spans="2:8">
       <c r="B155" s="14"/>
-      <c r="H155" s="16"/>
+      <c r="H155" s="21"/>
     </row>
     <row r="156" ht="12.75" spans="2:8">
       <c r="B156" s="14"/>
-      <c r="H156" s="16"/>
+      <c r="H156" s="21"/>
     </row>
     <row r="157" ht="12.75" spans="2:8">
       <c r="B157" s="14"/>
-      <c r="H157" s="16"/>
+      <c r="H157" s="21"/>
     </row>
     <row r="158" ht="12.75" spans="2:8">
       <c r="B158" s="14"/>
-      <c r="H158" s="16"/>
+      <c r="H158" s="21"/>
     </row>
     <row r="159" ht="12.75" spans="2:8">
       <c r="B159" s="14"/>
-      <c r="H159" s="16"/>
+      <c r="H159" s="21"/>
     </row>
     <row r="160" ht="12.75" spans="2:8">
       <c r="B160" s="14"/>
-      <c r="H160" s="16"/>
+      <c r="H160" s="21"/>
     </row>
     <row r="161" ht="12.75" spans="2:8">
       <c r="B161" s="14"/>
-      <c r="H161" s="16"/>
+      <c r="H161" s="21"/>
     </row>
     <row r="162" ht="12.75" spans="2:8">
       <c r="B162" s="14"/>
-      <c r="H162" s="16"/>
+      <c r="H162" s="21"/>
     </row>
     <row r="163" ht="12.75" spans="2:8">
       <c r="B163" s="14"/>
-      <c r="H163" s="16"/>
+      <c r="H163" s="21"/>
     </row>
     <row r="164" ht="12.75" spans="2:8">
       <c r="B164" s="14"/>
-      <c r="H164" s="16"/>
+      <c r="H164" s="21"/>
     </row>
     <row r="165" ht="12.75" spans="2:8">
       <c r="B165" s="14"/>
-      <c r="H165" s="16"/>
+      <c r="H165" s="21"/>
     </row>
     <row r="166" ht="12.75" spans="2:8">
       <c r="B166" s="14"/>
-      <c r="H166" s="16"/>
+      <c r="H166" s="21"/>
     </row>
     <row r="167" ht="12.75" spans="2:8">
       <c r="B167" s="14"/>
-      <c r="H167" s="16"/>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" ht="12.75" spans="2:8">
       <c r="B168" s="14"/>
-      <c r="H168" s="16"/>
+      <c r="H168" s="21"/>
     </row>
     <row r="169" ht="12.75" spans="2:8">
       <c r="B169" s="14"/>
-      <c r="H169" s="16"/>
+      <c r="H169" s="21"/>
     </row>
     <row r="170" ht="12.75" spans="2:8">
       <c r="B170" s="14"/>
-      <c r="H170" s="16"/>
+      <c r="H170" s="21"/>
     </row>
     <row r="171" ht="12.75" spans="2:8">
       <c r="B171" s="14"/>
-      <c r="H171" s="16"/>
+      <c r="H171" s="21"/>
     </row>
     <row r="172" ht="12.75" spans="2:8">
       <c r="B172" s="14"/>
-      <c r="H172" s="16"/>
+      <c r="H172" s="21"/>
     </row>
     <row r="173" ht="12.75" spans="2:8">
       <c r="B173" s="14"/>
-      <c r="H173" s="16"/>
+      <c r="H173" s="21"/>
     </row>
     <row r="174" ht="12.75" spans="2:8">
       <c r="B174" s="14"/>
-      <c r="H174" s="16"/>
+      <c r="H174" s="21"/>
     </row>
     <row r="175" ht="12.75" spans="2:8">
       <c r="B175" s="14"/>
-      <c r="H175" s="16"/>
+      <c r="H175" s="21"/>
     </row>
     <row r="176" ht="12.75" spans="2:8">
       <c r="B176" s="14"/>
-      <c r="H176" s="16"/>
+      <c r="H176" s="21"/>
     </row>
     <row r="177" ht="12.75" spans="2:8">
       <c r="B177" s="14"/>
-      <c r="H177" s="16"/>
+      <c r="H177" s="21"/>
     </row>
     <row r="178" ht="12.75" spans="2:8">
       <c r="B178" s="14"/>
-      <c r="H178" s="16"/>
+      <c r="H178" s="21"/>
     </row>
     <row r="179" ht="12.75" spans="2:8">
       <c r="B179" s="14"/>
-      <c r="H179" s="16"/>
+      <c r="H179" s="21"/>
     </row>
     <row r="180" ht="12.75" spans="2:8">
       <c r="B180" s="14"/>
-      <c r="H180" s="16"/>
+      <c r="H180" s="21"/>
     </row>
     <row r="181" ht="12.75" spans="2:8">
       <c r="B181" s="14"/>
-      <c r="H181" s="16"/>
+      <c r="H181" s="21"/>
     </row>
     <row r="182" ht="12.75" spans="2:8">
       <c r="B182" s="14"/>
-      <c r="H182" s="16"/>
+      <c r="H182" s="21"/>
     </row>
     <row r="183" ht="12.75" spans="2:8">
       <c r="B183" s="14"/>
-      <c r="H183" s="16"/>
+      <c r="H183" s="21"/>
     </row>
     <row r="184" ht="12.75" spans="2:8">
       <c r="B184" s="14"/>
-      <c r="H184" s="16"/>
+      <c r="H184" s="21"/>
     </row>
     <row r="185" ht="12.75" spans="2:8">
       <c r="B185" s="14"/>
-      <c r="H185" s="16"/>
+      <c r="H185" s="21"/>
     </row>
     <row r="186" ht="12.75" spans="2:8">
       <c r="B186" s="14"/>
-      <c r="H186" s="16"/>
+      <c r="H186" s="21"/>
     </row>
     <row r="187" ht="12.75" spans="2:8">
       <c r="B187" s="14"/>
-      <c r="H187" s="16"/>
+      <c r="H187" s="21"/>
     </row>
     <row r="188" ht="12.75" spans="2:8">
       <c r="B188" s="14"/>
-      <c r="H188" s="16"/>
+      <c r="H188" s="21"/>
     </row>
     <row r="189" ht="12.75" spans="2:8">
       <c r="B189" s="14"/>
-      <c r="H189" s="16"/>
+      <c r="H189" s="21"/>
     </row>
     <row r="190" ht="12.75" spans="2:8">
       <c r="B190" s="14"/>
-      <c r="H190" s="16"/>
+      <c r="H190" s="21"/>
     </row>
     <row r="191" ht="12.75" spans="2:8">
       <c r="B191" s="14"/>
-      <c r="H191" s="16"/>
+      <c r="H191" s="21"/>
     </row>
     <row r="192" ht="12.75" spans="2:8">
       <c r="B192" s="14"/>
-      <c r="H192" s="16"/>
+      <c r="H192" s="21"/>
     </row>
     <row r="193" ht="12.75" spans="2:8">
       <c r="B193" s="14"/>
-      <c r="H193" s="16"/>
+      <c r="H193" s="21"/>
     </row>
     <row r="194" ht="12.75" spans="2:8">
       <c r="B194" s="14"/>
-      <c r="H194" s="16"/>
+      <c r="H194" s="21"/>
     </row>
     <row r="195" ht="12.75" spans="2:8">
       <c r="B195" s="14"/>
-      <c r="H195" s="16"/>
+      <c r="H195" s="21"/>
     </row>
     <row r="196" ht="12.75" spans="2:8">
       <c r="B196" s="14"/>
-      <c r="H196" s="16"/>
+      <c r="H196" s="21"/>
     </row>
     <row r="197" ht="12.75" spans="2:8">
       <c r="B197" s="14"/>
-      <c r="H197" s="16"/>
+      <c r="H197" s="21"/>
     </row>
     <row r="198" ht="12.75" spans="2:8">
       <c r="B198" s="14"/>
-      <c r="H198" s="16"/>
+      <c r="H198" s="21"/>
     </row>
     <row r="199" ht="12.75" spans="2:8">
       <c r="B199" s="14"/>
-      <c r="H199" s="16"/>
+      <c r="H199" s="21"/>
     </row>
     <row r="200" ht="12.75" spans="2:8">
       <c r="B200" s="14"/>
-      <c r="H200" s="16"/>
+      <c r="H200" s="21"/>
     </row>
     <row r="201" ht="12.75" spans="2:8">
       <c r="B201" s="14"/>
-      <c r="H201" s="16"/>
+      <c r="H201" s="21"/>
     </row>
     <row r="202" ht="12.75" spans="2:8">
       <c r="B202" s="14"/>
-      <c r="H202" s="16"/>
+      <c r="H202" s="21"/>
     </row>
     <row r="203" ht="12.75" spans="2:8">
       <c r="B203" s="14"/>
-      <c r="H203" s="16"/>
+      <c r="H203" s="21"/>
     </row>
     <row r="204" ht="12.75" spans="2:8">
       <c r="B204" s="14"/>
-      <c r="H204" s="16"/>
+      <c r="H204" s="21"/>
     </row>
     <row r="205" ht="12.75" spans="2:8">
       <c r="B205" s="14"/>
-      <c r="H205" s="16"/>
+      <c r="H205" s="21"/>
     </row>
     <row r="206" ht="12.75" spans="2:8">
       <c r="B206" s="14"/>
-      <c r="H206" s="16"/>
+      <c r="H206" s="21"/>
     </row>
     <row r="207" ht="12.75" spans="2:8">
       <c r="B207" s="14"/>
-      <c r="H207" s="16"/>
+      <c r="H207" s="21"/>
     </row>
     <row r="208" ht="12.75" spans="2:8">
       <c r="B208" s="14"/>
-      <c r="H208" s="16"/>
+      <c r="H208" s="21"/>
     </row>
     <row r="209" ht="12.75" spans="2:8">
       <c r="B209" s="14"/>
-      <c r="H209" s="16"/>
+      <c r="H209" s="21"/>
     </row>
     <row r="210" ht="12.75" spans="2:8">
       <c r="B210" s="14"/>
-      <c r="H210" s="16"/>
+      <c r="H210" s="21"/>
     </row>
     <row r="211" ht="12.75" spans="2:8">
       <c r="B211" s="14"/>
-      <c r="H211" s="16"/>
+      <c r="H211" s="21"/>
     </row>
     <row r="212" ht="12.75" spans="2:8">
       <c r="B212" s="14"/>
-      <c r="H212" s="16"/>
+      <c r="H212" s="21"/>
     </row>
     <row r="213" ht="12.75" spans="2:8">
       <c r="B213" s="14"/>
-      <c r="H213" s="16"/>
+      <c r="H213" s="21"/>
     </row>
     <row r="214" ht="12.75" spans="2:8">
       <c r="B214" s="14"/>
-      <c r="H214" s="16"/>
+      <c r="H214" s="21"/>
     </row>
     <row r="215" ht="12.75" spans="2:8">
       <c r="B215" s="14"/>
-      <c r="H215" s="16"/>
+      <c r="H215" s="21"/>
     </row>
     <row r="216" ht="12.75" spans="2:8">
       <c r="B216" s="14"/>
-      <c r="H216" s="16"/>
+      <c r="H216" s="21"/>
     </row>
     <row r="217" ht="12.75" spans="2:8">
       <c r="B217" s="14"/>
-      <c r="H217" s="16"/>
+      <c r="H217" s="21"/>
     </row>
     <row r="218" ht="12.75" spans="2:8">
       <c r="B218" s="14"/>
-      <c r="H218" s="16"/>
+      <c r="H218" s="21"/>
     </row>
     <row r="219" ht="12.75" spans="2:8">
       <c r="B219" s="14"/>
-      <c r="H219" s="16"/>
+      <c r="H219" s="21"/>
     </row>
     <row r="220" ht="12.75" spans="2:8">
       <c r="B220" s="14"/>
-      <c r="H220" s="16"/>
+      <c r="H220" s="21"/>
     </row>
     <row r="221" ht="12.75" spans="2:8">
       <c r="B221" s="14"/>
-      <c r="H221" s="16"/>
+      <c r="H221" s="21"/>
     </row>
     <row r="222" ht="12.75" spans="2:8">
       <c r="B222" s="14"/>
-      <c r="H222" s="16"/>
+      <c r="H222" s="21"/>
     </row>
     <row r="223" ht="12.75" spans="2:8">
       <c r="B223" s="14"/>
-      <c r="H223" s="16"/>
+      <c r="H223" s="21"/>
     </row>
     <row r="224" ht="12.75" spans="2:8">
       <c r="B224" s="14"/>
-      <c r="H224" s="16"/>
+      <c r="H224" s="21"/>
     </row>
     <row r="225" ht="12.75" spans="2:8">
       <c r="B225" s="14"/>
-      <c r="H225" s="16"/>
+      <c r="H225" s="21"/>
     </row>
     <row r="226" ht="12.75" spans="2:8">
       <c r="B226" s="14"/>
-      <c r="H226" s="16"/>
+      <c r="H226" s="21"/>
     </row>
     <row r="227" ht="12.75" spans="2:8">
       <c r="B227" s="14"/>
-      <c r="H227" s="16"/>
+      <c r="H227" s="21"/>
     </row>
     <row r="228" ht="12.75" spans="2:8">
       <c r="B228" s="14"/>
-      <c r="H228" s="16"/>
+      <c r="H228" s="21"/>
     </row>
     <row r="229" ht="12.75" spans="2:8">
       <c r="B229" s="14"/>
-      <c r="H229" s="16"/>
+      <c r="H229" s="21"/>
     </row>
     <row r="230" ht="12.75" spans="2:8">
       <c r="B230" s="14"/>
-      <c r="H230" s="16"/>
+      <c r="H230" s="21"/>
     </row>
     <row r="231" ht="12.75" spans="2:8">
       <c r="B231" s="14"/>
-      <c r="H231" s="16"/>
+      <c r="H231" s="21"/>
     </row>
     <row r="232" ht="12.75" spans="2:8">
       <c r="B232" s="14"/>
-      <c r="H232" s="16"/>
+      <c r="H232" s="21"/>
     </row>
     <row r="233" ht="12.75" spans="2:8">
       <c r="B233" s="14"/>
-      <c r="H233" s="16"/>
+      <c r="H233" s="21"/>
     </row>
     <row r="234" ht="12.75" spans="2:8">
       <c r="B234" s="14"/>
-      <c r="H234" s="16"/>
+      <c r="H234" s="21"/>
     </row>
     <row r="235" ht="12.75" spans="2:8">
       <c r="B235" s="14"/>
-      <c r="H235" s="16"/>
+      <c r="H235" s="21"/>
     </row>
     <row r="236" ht="12.75" spans="2:8">
       <c r="B236" s="14"/>
-      <c r="H236" s="16"/>
+      <c r="H236" s="21"/>
     </row>
     <row r="237" ht="12.75" spans="2:8">
       <c r="B237" s="14"/>
-      <c r="H237" s="16"/>
+      <c r="H237" s="21"/>
     </row>
     <row r="238" ht="12.75" spans="2:8">
       <c r="B238" s="14"/>
-      <c r="H238" s="16"/>
+      <c r="H238" s="21"/>
     </row>
     <row r="239" ht="12.75" spans="2:8">
       <c r="B239" s="14"/>
-      <c r="H239" s="16"/>
+      <c r="H239" s="21"/>
     </row>
     <row r="240" ht="12.75" spans="2:8">
       <c r="B240" s="14"/>
-      <c r="H240" s="16"/>
+      <c r="H240" s="21"/>
     </row>
     <row r="241" ht="12.75" spans="2:8">
       <c r="B241" s="14"/>
-      <c r="H241" s="16"/>
+      <c r="H241" s="21"/>
     </row>
     <row r="242" ht="12.75" spans="2:8">
       <c r="B242" s="14"/>
-      <c r="H242" s="16"/>
+      <c r="H242" s="21"/>
     </row>
     <row r="243" ht="12.75" spans="2:8">
       <c r="B243" s="14"/>
-      <c r="H243" s="16"/>
+      <c r="H243" s="21"/>
     </row>
     <row r="244" ht="12.75" spans="2:8">
       <c r="B244" s="14"/>
-      <c r="H244" s="16"/>
+      <c r="H244" s="21"/>
     </row>
     <row r="245" ht="12.75" spans="2:8">
       <c r="B245" s="14"/>
-      <c r="H245" s="16"/>
+      <c r="H245" s="21"/>
     </row>
     <row r="246" ht="12.75" spans="2:8">
       <c r="B246" s="14"/>
-      <c r="H246" s="16"/>
+      <c r="H246" s="21"/>
     </row>
     <row r="247" ht="12.75" spans="2:8">
       <c r="B247" s="14"/>
-      <c r="H247" s="16"/>
+      <c r="H247" s="21"/>
     </row>
     <row r="248" ht="12.75" spans="2:8">
       <c r="B248" s="14"/>
-      <c r="H248" s="16"/>
+      <c r="H248" s="21"/>
     </row>
     <row r="249" ht="12.75" spans="2:8">
       <c r="B249" s="14"/>
-      <c r="H249" s="16"/>
+      <c r="H249" s="21"/>
     </row>
     <row r="250" ht="12.75" spans="2:8">
       <c r="B250" s="14"/>
-      <c r="H250" s="16"/>
+      <c r="H250" s="21"/>
     </row>
     <row r="251" ht="12.75" spans="2:8">
       <c r="B251" s="14"/>
-      <c r="H251" s="16"/>
+      <c r="H251" s="21"/>
     </row>
     <row r="252" ht="12.75" spans="2:8">
       <c r="B252" s="14"/>
-      <c r="H252" s="16"/>
+      <c r="H252" s="21"/>
     </row>
     <row r="253" ht="12.75" spans="2:8">
       <c r="B253" s="14"/>
-      <c r="H253" s="16"/>
+      <c r="H253" s="21"/>
     </row>
     <row r="254" ht="12.75" spans="2:8">
       <c r="B254" s="14"/>
-      <c r="H254" s="16"/>
+      <c r="H254" s="21"/>
     </row>
     <row r="255" ht="12.75" spans="2:8">
       <c r="B255" s="14"/>
-      <c r="H255" s="16"/>
+      <c r="H255" s="21"/>
     </row>
     <row r="256" ht="12.75" spans="2:8">
       <c r="B256" s="14"/>
-      <c r="H256" s="16"/>
+      <c r="H256" s="21"/>
     </row>
     <row r="257" ht="12.75" spans="2:8">
       <c r="B257" s="14"/>
-      <c r="H257" s="16"/>
+      <c r="H257" s="21"/>
     </row>
     <row r="258" ht="12.75" spans="2:8">
       <c r="B258" s="14"/>
-      <c r="H258" s="16"/>
+      <c r="H258" s="21"/>
     </row>
     <row r="259" ht="12.75" spans="2:8">
       <c r="B259" s="14"/>
-      <c r="H259" s="16"/>
+      <c r="H259" s="21"/>
     </row>
     <row r="260" ht="12.75" spans="2:8">
       <c r="B260" s="14"/>
-      <c r="H260" s="16"/>
+      <c r="H260" s="21"/>
     </row>
     <row r="261" ht="12.75" spans="2:8">
       <c r="B261" s="14"/>
-      <c r="H261" s="16"/>
+      <c r="H261" s="21"/>
     </row>
     <row r="262" ht="12.75" spans="2:8">
       <c r="B262" s="14"/>
-      <c r="H262" s="16"/>
+      <c r="H262" s="21"/>
     </row>
     <row r="263" ht="12.75" spans="2:8">
       <c r="B263" s="14"/>
-      <c r="H263" s="16"/>
+      <c r="H263" s="21"/>
     </row>
     <row r="264" ht="12.75" spans="2:8">
       <c r="B264" s="14"/>
-      <c r="H264" s="16"/>
+      <c r="H264" s="21"/>
     </row>
     <row r="265" ht="12.75" spans="2:8">
       <c r="B265" s="14"/>
-      <c r="H265" s="16"/>
+      <c r="H265" s="21"/>
     </row>
     <row r="266" ht="12.75" spans="2:8">
       <c r="B266" s="14"/>
-      <c r="H266" s="16"/>
+      <c r="H266" s="21"/>
     </row>
     <row r="267" ht="12.75" spans="2:8">
       <c r="B267" s="14"/>
-      <c r="H267" s="16"/>
+      <c r="H267" s="21"/>
     </row>
     <row r="268" ht="12.75" spans="2:8">
       <c r="B268" s="14"/>
-      <c r="H268" s="16"/>
+      <c r="H268" s="21"/>
     </row>
     <row r="269" ht="12.75" spans="2:8">
       <c r="B269" s="14"/>
-      <c r="H269" s="16"/>
+      <c r="H269" s="21"/>
     </row>
     <row r="270" ht="12.75" spans="2:8">
       <c r="B270" s="14"/>
-      <c r="H270" s="16"/>
+      <c r="H270" s="21"/>
     </row>
     <row r="271" ht="12.75" spans="2:8">
       <c r="B271" s="14"/>
-      <c r="H271" s="16"/>
+      <c r="H271" s="21"/>
     </row>
     <row r="272" ht="12.75" spans="2:8">
       <c r="B272" s="14"/>
-      <c r="H272" s="16"/>
+      <c r="H272" s="21"/>
     </row>
     <row r="273" ht="12.75" spans="2:8">
       <c r="B273" s="14"/>
-      <c r="H273" s="16"/>
+      <c r="H273" s="21"/>
     </row>
     <row r="274" ht="12.75" spans="2:8">
       <c r="B274" s="14"/>
-      <c r="H274" s="16"/>
+      <c r="H274" s="21"/>
     </row>
     <row r="275" ht="12.75" spans="2:8">
       <c r="B275" s="14"/>
-      <c r="H275" s="16"/>
+      <c r="H275" s="21"/>
     </row>
     <row r="276" ht="12.75" spans="2:8">
       <c r="B276" s="14"/>
-      <c r="H276" s="16"/>
+      <c r="H276" s="21"/>
     </row>
     <row r="277" ht="12.75" spans="2:8">
       <c r="B277" s="14"/>
-      <c r="H277" s="16"/>
+      <c r="H277" s="21"/>
     </row>
     <row r="278" ht="12.75" spans="2:8">
       <c r="B278" s="14"/>
-      <c r="H278" s="16"/>
+      <c r="H278" s="21"/>
     </row>
     <row r="279" ht="12.75" spans="2:8">
       <c r="B279" s="14"/>
-      <c r="H279" s="16"/>
+      <c r="H279" s="21"/>
     </row>
     <row r="280" ht="12.75" spans="2:8">
       <c r="B280" s="14"/>
-      <c r="H280" s="16"/>
+      <c r="H280" s="21"/>
     </row>
     <row r="281" ht="12.75" spans="2:8">
       <c r="B281" s="14"/>
-      <c r="H281" s="16"/>
+      <c r="H281" s="21"/>
     </row>
     <row r="282" ht="12.75" spans="2:8">
       <c r="B282" s="14"/>
-      <c r="H282" s="16"/>
+      <c r="H282" s="21"/>
     </row>
     <row r="283" ht="12.75" spans="2:8">
       <c r="B283" s="14"/>
-      <c r="H283" s="16"/>
+      <c r="H283" s="21"/>
     </row>
     <row r="284" ht="12.75" spans="2:8">
       <c r="B284" s="14"/>
-      <c r="H284" s="16"/>
+      <c r="H284" s="21"/>
     </row>
     <row r="285" ht="12.75" spans="2:8">
       <c r="B285" s="14"/>
-      <c r="H285" s="16"/>
+      <c r="H285" s="21"/>
     </row>
     <row r="286" ht="12.75" spans="2:8">
       <c r="B286" s="14"/>
-      <c r="H286" s="16"/>
+      <c r="H286" s="21"/>
     </row>
     <row r="287" ht="12.75" spans="2:8">
       <c r="B287" s="14"/>
-      <c r="H287" s="16"/>
+      <c r="H287" s="21"/>
     </row>
     <row r="288" ht="12.75" spans="2:8">
       <c r="B288" s="14"/>
-      <c r="H288" s="16"/>
+      <c r="H288" s="21"/>
     </row>
     <row r="289" ht="12.75" spans="2:8">
       <c r="B289" s="14"/>
-      <c r="H289" s="16"/>
+      <c r="H289" s="21"/>
     </row>
     <row r="290" ht="12.75" spans="2:8">
       <c r="B290" s="14"/>
-      <c r="H290" s="16"/>
+      <c r="H290" s="21"/>
     </row>
     <row r="291" ht="12.75" spans="2:8">
       <c r="B291" s="14"/>
-      <c r="H291" s="16"/>
+      <c r="H291" s="21"/>
     </row>
     <row r="292" ht="12.75" spans="2:8">
       <c r="B292" s="14"/>
-      <c r="H292" s="16"/>
+      <c r="H292" s="21"/>
     </row>
     <row r="293" ht="12.75" spans="2:8">
       <c r="B293" s="14"/>
-      <c r="H293" s="16"/>
+      <c r="H293" s="21"/>
     </row>
     <row r="294" ht="12.75" spans="2:8">
       <c r="B294" s="14"/>
-      <c r="H294" s="16"/>
+      <c r="H294" s="21"/>
     </row>
     <row r="295" ht="12.75" spans="2:8">
       <c r="B295" s="14"/>
-      <c r="H295" s="16"/>
+      <c r="H295" s="21"/>
     </row>
     <row r="296" ht="12.75" spans="2:8">
       <c r="B296" s="14"/>
-      <c r="H296" s="16"/>
+      <c r="H296" s="21"/>
     </row>
     <row r="297" ht="12.75" spans="2:8">
       <c r="B297" s="14"/>
-      <c r="H297" s="16"/>
+      <c r="H297" s="21"/>
     </row>
     <row r="298" ht="12.75" spans="2:8">
       <c r="B298" s="14"/>
-      <c r="H298" s="16"/>
+      <c r="H298" s="21"/>
     </row>
     <row r="299" ht="12.75" spans="2:8">
       <c r="B299" s="14"/>
-      <c r="H299" s="16"/>
+      <c r="H299" s="21"/>
     </row>
     <row r="300" ht="12.75" spans="2:8">
       <c r="B300" s="14"/>
-      <c r="H300" s="16"/>
+      <c r="H300" s="21"/>
     </row>
     <row r="301" ht="12.75" spans="2:8">
       <c r="B301" s="14"/>
-      <c r="H301" s="16"/>
+      <c r="H301" s="21"/>
     </row>
     <row r="302" ht="12.75" spans="2:8">
       <c r="B302" s="14"/>
-      <c r="H302" s="16"/>
+      <c r="H302" s="21"/>
     </row>
     <row r="303" ht="12.75" spans="2:8">
       <c r="B303" s="14"/>
-      <c r="H303" s="16"/>
+      <c r="H303" s="21"/>
     </row>
     <row r="304" ht="12.75" spans="2:8">
       <c r="B304" s="14"/>
-      <c r="H304" s="16"/>
+      <c r="H304" s="21"/>
     </row>
     <row r="305" ht="12.75" spans="2:8">
       <c r="B305" s="14"/>
-      <c r="H305" s="16"/>
+      <c r="H305" s="21"/>
     </row>
     <row r="306" ht="12.75" spans="2:8">
       <c r="B306" s="14"/>
-      <c r="H306" s="16"/>
+      <c r="H306" s="21"/>
     </row>
     <row r="307" ht="12.75" spans="2:8">
       <c r="B307" s="14"/>
-      <c r="H307" s="16"/>
+      <c r="H307" s="21"/>
     </row>
     <row r="308" ht="12.75" spans="2:8">
       <c r="B308" s="14"/>
-      <c r="H308" s="16"/>
+      <c r="H308" s="21"/>
     </row>
     <row r="309" ht="12.75" spans="2:8">
       <c r="B309" s="14"/>
-      <c r="H309" s="16"/>
+      <c r="H309" s="21"/>
     </row>
     <row r="310" ht="12.75" spans="2:8">
       <c r="B310" s="14"/>
-      <c r="H310" s="16"/>
+      <c r="H310" s="21"/>
     </row>
     <row r="311" ht="12.75" spans="2:8">
       <c r="B311" s="14"/>
-      <c r="H311" s="16"/>
+      <c r="H311" s="21"/>
     </row>
     <row r="312" ht="12.75" spans="2:8">
       <c r="B312" s="14"/>
-      <c r="H312" s="16"/>
+      <c r="H312" s="21"/>
     </row>
     <row r="313" ht="12.75" spans="2:8">
       <c r="B313" s="14"/>
-      <c r="H313" s="16"/>
+      <c r="H313" s="21"/>
     </row>
     <row r="314" ht="12.75" spans="2:8">
       <c r="B314" s="14"/>
-      <c r="H314" s="16"/>
+      <c r="H314" s="21"/>
     </row>
     <row r="315" ht="12.75" spans="2:8">
       <c r="B315" s="14"/>
-      <c r="H315" s="16"/>
+      <c r="H315" s="21"/>
     </row>
     <row r="316" ht="12.75" spans="2:8">
       <c r="B316" s="14"/>
-      <c r="H316" s="16"/>
+      <c r="H316" s="21"/>
     </row>
     <row r="317" ht="12.75" spans="2:8">
       <c r="B317" s="14"/>
-      <c r="H317" s="16"/>
+      <c r="H317" s="21"/>
     </row>
     <row r="318" ht="12.75" spans="2:8">
       <c r="B318" s="14"/>
-      <c r="H318" s="16"/>
+      <c r="H318" s="21"/>
     </row>
     <row r="319" ht="12.75" spans="2:8">
       <c r="B319" s="14"/>
-      <c r="H319" s="16"/>
+      <c r="H319" s="21"/>
     </row>
     <row r="320" ht="12.75" spans="2:8">
       <c r="B320" s="14"/>
-      <c r="H320" s="16"/>
+      <c r="H320" s="21"/>
     </row>
     <row r="321" ht="12.75" spans="2:8">
       <c r="B321" s="14"/>
-      <c r="H321" s="16"/>
+      <c r="H321" s="21"/>
     </row>
     <row r="322" ht="12.75" spans="2:8">
       <c r="B322" s="14"/>
-      <c r="H322" s="16"/>
+      <c r="H322" s="21"/>
     </row>
     <row r="323" ht="12.75" spans="2:8">
       <c r="B323" s="14"/>
-      <c r="H323" s="16"/>
+      <c r="H323" s="21"/>
     </row>
     <row r="324" ht="12.75" spans="2:8">
       <c r="B324" s="14"/>
-      <c r="H324" s="16"/>
+      <c r="H324" s="21"/>
     </row>
     <row r="325" ht="12.75" spans="2:8">
       <c r="B325" s="14"/>
-      <c r="H325" s="16"/>
+      <c r="H325" s="21"/>
     </row>
     <row r="326" ht="12.75" spans="2:8">
       <c r="B326" s="14"/>
-      <c r="H326" s="16"/>
+      <c r="H326" s="21"/>
     </row>
     <row r="327" ht="12.75" spans="2:8">
       <c r="B327" s="14"/>
-      <c r="H327" s="16"/>
+      <c r="H327" s="21"/>
     </row>
     <row r="328" ht="12.75" spans="2:8">
       <c r="B328" s="14"/>
-      <c r="H328" s="16"/>
+      <c r="H328" s="21"/>
     </row>
     <row r="329" ht="12.75" spans="2:8">
       <c r="B329" s="14"/>
-      <c r="H329" s="16"/>
+      <c r="H329" s="21"/>
     </row>
     <row r="330" ht="12.75" spans="2:8">
       <c r="B330" s="14"/>
-      <c r="H330" s="16"/>
+      <c r="H330" s="21"/>
     </row>
     <row r="331" ht="12.75" spans="2:8">
       <c r="B331" s="14"/>
-      <c r="H331" s="16"/>
+      <c r="H331" s="21"/>
     </row>
     <row r="332" ht="12.75" spans="2:8">
       <c r="B332" s="14"/>
-      <c r="H332" s="16"/>
+      <c r="H332" s="21"/>
     </row>
     <row r="333" ht="12.75" spans="2:8">
       <c r="B333" s="14"/>
-      <c r="H333" s="16"/>
+      <c r="H333" s="21"/>
     </row>
     <row r="334" ht="12.75" spans="2:8">
       <c r="B334" s="14"/>
-      <c r="H334" s="16"/>
+      <c r="H334" s="21"/>
     </row>
     <row r="335" ht="12.75" spans="2:8">
       <c r="B335" s="14"/>
-      <c r="H335" s="16"/>
+      <c r="H335" s="21"/>
     </row>
     <row r="336" ht="12.75" spans="2:8">
       <c r="B336" s="14"/>
-      <c r="H336" s="16"/>
+      <c r="H336" s="21"/>
     </row>
     <row r="337" ht="12.75" spans="2:8">
       <c r="B337" s="14"/>
-      <c r="H337" s="16"/>
+      <c r="H337" s="21"/>
     </row>
     <row r="338" ht="12.75" spans="2:8">
       <c r="B338" s="14"/>
-      <c r="H338" s="16"/>
+      <c r="H338" s="21"/>
     </row>
     <row r="339" ht="12.75" spans="2:8">
       <c r="B339" s="14"/>
-      <c r="H339" s="16"/>
+      <c r="H339" s="21"/>
     </row>
     <row r="340" ht="12.75" spans="2:8">
       <c r="B340" s="14"/>
-      <c r="H340" s="16"/>
+      <c r="H340" s="21"/>
     </row>
     <row r="341" ht="12.75" spans="2:8">
       <c r="B341" s="14"/>
-      <c r="H341" s="16"/>
+      <c r="H341" s="21"/>
     </row>
     <row r="342" ht="12.75" spans="2:8">
       <c r="B342" s="14"/>
-      <c r="H342" s="16"/>
+      <c r="H342" s="21"/>
     </row>
     <row r="343" ht="12.75" spans="2:8">
       <c r="B343" s="14"/>
-      <c r="H343" s="16"/>
+      <c r="H343" s="21"/>
     </row>
     <row r="344" ht="12.75" spans="2:8">
       <c r="B344" s="14"/>
-      <c r="H344" s="16"/>
+      <c r="H344" s="21"/>
     </row>
     <row r="345" ht="12.75" spans="2:8">
       <c r="B345" s="14"/>
-      <c r="H345" s="16"/>
+      <c r="H345" s="21"/>
     </row>
     <row r="346" ht="12.75" spans="2:8">
       <c r="B346" s="14"/>
-      <c r="H346" s="16"/>
+      <c r="H346" s="21"/>
     </row>
     <row r="347" ht="12.75" spans="2:8">
       <c r="B347" s="14"/>
-      <c r="H347" s="16"/>
+      <c r="H347" s="21"/>
     </row>
     <row r="348" ht="12.75" spans="2:8">
       <c r="B348" s="14"/>
-      <c r="H348" s="16"/>
+      <c r="H348" s="21"/>
     </row>
     <row r="349" ht="12.75" spans="2:8">
       <c r="B349" s="14"/>
-      <c r="H349" s="16"/>
+      <c r="H349" s="21"/>
     </row>
     <row r="350" ht="12.75" spans="2:8">
       <c r="B350" s="14"/>
-      <c r="H350" s="16"/>
+      <c r="H350" s="21"/>
     </row>
     <row r="351" ht="12.75" spans="2:8">
       <c r="B351" s="14"/>
-      <c r="H351" s="16"/>
+      <c r="H351" s="21"/>
     </row>
     <row r="352" ht="12.75" spans="2:8">
       <c r="B352" s="14"/>
-      <c r="H352" s="16"/>
+      <c r="H352" s="21"/>
     </row>
     <row r="353" ht="12.75" spans="2:8">
       <c r="B353" s="14"/>
-      <c r="H353" s="16"/>
+      <c r="H353" s="21"/>
     </row>
     <row r="354" ht="12.75" spans="2:8">
       <c r="B354" s="14"/>
-      <c r="H354" s="16"/>
+      <c r="H354" s="21"/>
     </row>
     <row r="355" ht="12.75" spans="2:8">
       <c r="B355" s="14"/>
-      <c r="H355" s="16"/>
+      <c r="H355" s="21"/>
     </row>
     <row r="356" ht="12.75" spans="2:8">
       <c r="B356" s="14"/>
-      <c r="H356" s="16"/>
+      <c r="H356" s="21"/>
     </row>
     <row r="357" ht="12.75" spans="2:8">
       <c r="B357" s="14"/>
-      <c r="H357" s="16"/>
+      <c r="H357" s="21"/>
     </row>
     <row r="358" ht="12.75" spans="2:8">
       <c r="B358" s="14"/>
-      <c r="H358" s="16"/>
+      <c r="H358" s="21"/>
     </row>
     <row r="359" ht="12.75" spans="2:8">
       <c r="B359" s="14"/>
-      <c r="H359" s="16"/>
+      <c r="H359" s="21"/>
     </row>
     <row r="360" ht="12.75" spans="2:8">
       <c r="B360" s="14"/>
-      <c r="H360" s="16"/>
+      <c r="H360" s="21"/>
     </row>
     <row r="361" ht="12.75" spans="2:8">
       <c r="B361" s="14"/>
-      <c r="H361" s="16"/>
+      <c r="H361" s="21"/>
     </row>
     <row r="362" ht="12.75" spans="2:8">
       <c r="B362" s="14"/>
-      <c r="H362" s="16"/>
+      <c r="H362" s="21"/>
     </row>
     <row r="363" ht="12.75" spans="2:8">
       <c r="B363" s="14"/>
-      <c r="H363" s="16"/>
+      <c r="H363" s="21"/>
     </row>
     <row r="364" ht="12.75" spans="2:8">
       <c r="B364" s="14"/>
-      <c r="H364" s="16"/>
+      <c r="H364" s="21"/>
     </row>
     <row r="365" ht="12.75" spans="2:8">
       <c r="B365" s="14"/>
-      <c r="H365" s="16"/>
+      <c r="H365" s="21"/>
     </row>
     <row r="366" ht="12.75" spans="2:8">
       <c r="B366" s="14"/>
-      <c r="H366" s="16"/>
+      <c r="H366" s="21"/>
     </row>
     <row r="367" ht="12.75" spans="2:8">
       <c r="B367" s="14"/>
-      <c r="H367" s="16"/>
+      <c r="H367" s="21"/>
     </row>
     <row r="368" ht="12.75" spans="2:8">
       <c r="B368" s="14"/>
-      <c r="H368" s="16"/>
+      <c r="H368" s="21"/>
     </row>
     <row r="369" ht="12.75" spans="2:8">
       <c r="B369" s="14"/>
-      <c r="H369" s="16"/>
+      <c r="H369" s="21"/>
     </row>
     <row r="370" ht="12.75" spans="2:8">
       <c r="B370" s="14"/>
-      <c r="H370" s="16"/>
+      <c r="H370" s="21"/>
     </row>
     <row r="371" ht="12.75" spans="2:8">
       <c r="B371" s="14"/>
-      <c r="H371" s="16"/>
+      <c r="H371" s="21"/>
     </row>
     <row r="372" ht="12.75" spans="2:8">
       <c r="B372" s="14"/>
-      <c r="H372" s="16"/>
+      <c r="H372" s="21"/>
     </row>
     <row r="373" ht="12.75" spans="2:8">
       <c r="B373" s="14"/>
-      <c r="H373" s="16"/>
+      <c r="H373" s="21"/>
     </row>
     <row r="374" ht="12.75" spans="2:8">
       <c r="B374" s="14"/>
-      <c r="H374" s="16"/>
+      <c r="H374" s="21"/>
     </row>
     <row r="375" ht="12.75" spans="2:8">
       <c r="B375" s="14"/>
-      <c r="H375" s="16"/>
+      <c r="H375" s="21"/>
     </row>
     <row r="376" ht="12.75" spans="2:8">
       <c r="B376" s="14"/>
-      <c r="H376" s="16"/>
+      <c r="H376" s="21"/>
     </row>
     <row r="377" ht="12.75" spans="2:8">
       <c r="B377" s="14"/>
-      <c r="H377" s="16"/>
+      <c r="H377" s="21"/>
     </row>
     <row r="378" ht="12.75" spans="2:8">
       <c r="B378" s="14"/>
-      <c r="H378" s="16"/>
+      <c r="H378" s="21"/>
     </row>
     <row r="379" ht="12.75" spans="2:8">
       <c r="B379" s="14"/>
-      <c r="H379" s="16"/>
+      <c r="H379" s="21"/>
     </row>
     <row r="380" ht="12.75" spans="2:8">
       <c r="B380" s="14"/>
-      <c r="H380" s="16"/>
+      <c r="H380" s="21"/>
     </row>
     <row r="381" ht="12.75" spans="2:8">
       <c r="B381" s="14"/>
-      <c r="H381" s="16"/>
+      <c r="H381" s="21"/>
     </row>
     <row r="382" ht="12.75" spans="2:8">
       <c r="B382" s="14"/>
-      <c r="H382" s="16"/>
+      <c r="H382" s="21"/>
     </row>
     <row r="383" ht="12.75" spans="2:8">
       <c r="B383" s="14"/>
-      <c r="H383" s="16"/>
+      <c r="H383" s="21"/>
     </row>
     <row r="384" ht="12.75" spans="2:8">
       <c r="B384" s="14"/>
-      <c r="H384" s="16"/>
+      <c r="H384" s="21"/>
     </row>
     <row r="385" ht="12.75" spans="2:8">
       <c r="B385" s="14"/>
-      <c r="H385" s="16"/>
+      <c r="H385" s="21"/>
     </row>
     <row r="386" ht="12.75" spans="2:8">
       <c r="B386" s="14"/>
-      <c r="H386" s="16"/>
+      <c r="H386" s="21"/>
     </row>
     <row r="387" ht="12.75" spans="2:8">
       <c r="B387" s="14"/>
-      <c r="H387" s="16"/>
+      <c r="H387" s="21"/>
     </row>
     <row r="388" ht="12.75" spans="2:8">
       <c r="B388" s="14"/>
-      <c r="H388" s="16"/>
+      <c r="H388" s="21"/>
     </row>
     <row r="389" ht="12.75" spans="2:8">
       <c r="B389" s="14"/>
-      <c r="H389" s="16"/>
+      <c r="H389" s="21"/>
     </row>
     <row r="390" ht="12.75" spans="2:8">
       <c r="B390" s="14"/>
-      <c r="H390" s="16"/>
+      <c r="H390" s="21"/>
     </row>
     <row r="391" ht="12.75" spans="2:8">
       <c r="B391" s="14"/>
-      <c r="H391" s="16"/>
+      <c r="H391" s="21"/>
     </row>
     <row r="392" ht="12.75" spans="2:8">
       <c r="B392" s="14"/>
-      <c r="H392" s="16"/>
+      <c r="H392" s="21"/>
     </row>
     <row r="393" ht="12.75" spans="2:8">
       <c r="B393" s="14"/>
-      <c r="H393" s="16"/>
+      <c r="H393" s="21"/>
     </row>
     <row r="394" ht="12.75" spans="2:8">
       <c r="B394" s="14"/>
-      <c r="H394" s="16"/>
+      <c r="H394" s="21"/>
     </row>
     <row r="395" ht="12.75" spans="2:8">
       <c r="B395" s="14"/>
-      <c r="H395" s="16"/>
+      <c r="H395" s="21"/>
     </row>
     <row r="396" ht="12.75" spans="2:8">
       <c r="B396" s="14"/>
-      <c r="H396" s="16"/>
+      <c r="H396" s="21"/>
     </row>
     <row r="397" ht="12.75" spans="2:8">
       <c r="B397" s="14"/>
-      <c r="H397" s="16"/>
+      <c r="H397" s="21"/>
     </row>
     <row r="398" ht="12.75" spans="2:8">
       <c r="B398" s="14"/>
-      <c r="H398" s="16"/>
+      <c r="H398" s="21"/>
     </row>
     <row r="399" ht="12.75" spans="2:8">
       <c r="B399" s="14"/>
-      <c r="H399" s="16"/>
+      <c r="H399" s="21"/>
     </row>
     <row r="400" ht="12.75" spans="2:8">
       <c r="B400" s="14"/>
-      <c r="H400" s="16"/>
+      <c r="H400" s="21"/>
     </row>
     <row r="401" ht="12.75" spans="2:8">
       <c r="B401" s="14"/>
-      <c r="H401" s="16"/>
+      <c r="H401" s="21"/>
     </row>
     <row r="402" ht="12.75" spans="2:8">
       <c r="B402" s="14"/>
-      <c r="H402" s="16"/>
+      <c r="H402" s="21"/>
     </row>
     <row r="403" ht="12.75" spans="2:8">
       <c r="B403" s="14"/>
-      <c r="H403" s="16"/>
+      <c r="H403" s="21"/>
     </row>
     <row r="404" ht="12.75" spans="2:8">
       <c r="B404" s="14"/>
-      <c r="H404" s="16"/>
+      <c r="H404" s="21"/>
     </row>
     <row r="405" ht="12.75" spans="2:8">
       <c r="B405" s="14"/>
-      <c r="H405" s="16"/>
+      <c r="H405" s="21"/>
     </row>
     <row r="406" ht="12.75" spans="2:8">
       <c r="B406" s="14"/>
-      <c r="H406" s="16"/>
+      <c r="H406" s="21"/>
     </row>
     <row r="407" ht="12.75" spans="2:8">
       <c r="B407" s="14"/>
-      <c r="H407" s="16"/>
+      <c r="H407" s="21"/>
     </row>
     <row r="408" ht="12.75" spans="2:8">
       <c r="B408" s="14"/>
-      <c r="H408" s="16"/>
+      <c r="H408" s="21"/>
     </row>
     <row r="409" ht="12.75" spans="2:8">
       <c r="B409" s="14"/>
-      <c r="H409" s="16"/>
+      <c r="H409" s="21"/>
     </row>
     <row r="410" ht="12.75" spans="2:8">
       <c r="B410" s="14"/>
-      <c r="H410" s="16"/>
+      <c r="H410" s="21"/>
     </row>
     <row r="411" ht="12.75" spans="2:8">
       <c r="B411" s="14"/>
-      <c r="H411" s="16"/>
+      <c r="H411" s="21"/>
     </row>
     <row r="412" ht="12.75" spans="2:8">
       <c r="B412" s="14"/>
-      <c r="H412" s="16"/>
+      <c r="H412" s="21"/>
     </row>
     <row r="413" ht="12.75" spans="2:8">
       <c r="B413" s="14"/>
-      <c r="H413" s="16"/>
+      <c r="H413" s="21"/>
     </row>
     <row r="414" ht="12.75" spans="2:8">
       <c r="B414" s="14"/>
-      <c r="H414" s="16"/>
+      <c r="H414" s="21"/>
     </row>
     <row r="415" ht="12.75" spans="2:8">
       <c r="B415" s="14"/>
-      <c r="H415" s="16"/>
+      <c r="H415" s="21"/>
     </row>
     <row r="416" ht="12.75" spans="2:8">
       <c r="B416" s="14"/>
-      <c r="H416" s="16"/>
+      <c r="H416" s="21"/>
     </row>
     <row r="417" ht="12.75" spans="2:8">
       <c r="B417" s="14"/>
-      <c r="H417" s="16"/>
+      <c r="H417" s="21"/>
     </row>
     <row r="418" ht="12.75" spans="2:8">
       <c r="B418" s="14"/>
-      <c r="H418" s="16"/>
+      <c r="H418" s="21"/>
     </row>
     <row r="419" ht="12.75" spans="2:8">
       <c r="B419" s="14"/>
-      <c r="H419" s="16"/>
+      <c r="H419" s="21"/>
     </row>
     <row r="420" ht="12.75" spans="2:8">
       <c r="B420" s="14"/>
-      <c r="H420" s="16"/>
+      <c r="H420" s="21"/>
     </row>
     <row r="421" ht="12.75" spans="2:8">
       <c r="B421" s="14"/>
-      <c r="H421" s="16"/>
+      <c r="H421" s="21"/>
     </row>
     <row r="422" ht="12.75" spans="2:8">
       <c r="B422" s="14"/>
-      <c r="H422" s="16"/>
+      <c r="H422" s="21"/>
     </row>
     <row r="423" ht="12.75" spans="2:8">
       <c r="B423" s="14"/>
-      <c r="H423" s="16"/>
+      <c r="H423" s="21"/>
     </row>
     <row r="424" ht="12.75" spans="2:8">
       <c r="B424" s="14"/>
-      <c r="H424" s="16"/>
+      <c r="H424" s="21"/>
     </row>
     <row r="425" ht="12.75" spans="2:8">
       <c r="B425" s="14"/>
-      <c r="H425" s="16"/>
+      <c r="H425" s="21"/>
     </row>
     <row r="426" ht="12.75" spans="2:8">
       <c r="B426" s="14"/>
-      <c r="H426" s="16"/>
+      <c r="H426" s="21"/>
     </row>
     <row r="427" ht="12.75" spans="2:8">
       <c r="B427" s="14"/>
-      <c r="H427" s="16"/>
+      <c r="H427" s="21"/>
     </row>
     <row r="428" ht="12.75" spans="2:8">
       <c r="B428" s="14"/>
-      <c r="H428" s="16"/>
+      <c r="H428" s="21"/>
     </row>
     <row r="429" ht="12.75" spans="2:8">
       <c r="B429" s="14"/>
-      <c r="H429" s="16"/>
+      <c r="H429" s="21"/>
     </row>
     <row r="430" ht="12.75" spans="2:8">
       <c r="B430" s="14"/>
-      <c r="H430" s="16"/>
+      <c r="H430" s="21"/>
     </row>
     <row r="431" ht="12.75" spans="2:8">
       <c r="B431" s="14"/>
-      <c r="H431" s="16"/>
+      <c r="H431" s="21"/>
     </row>
     <row r="432" ht="12.75" spans="2:8">
       <c r="B432" s="14"/>
-      <c r="H432" s="16"/>
+      <c r="H432" s="21"/>
     </row>
     <row r="433" ht="12.75" spans="2:8">
       <c r="B433" s="14"/>
-      <c r="H433" s="16"/>
+      <c r="H433" s="21"/>
     </row>
     <row r="434" ht="12.75" spans="2:8">
       <c r="B434" s="14"/>
-      <c r="H434" s="16"/>
+      <c r="H434" s="21"/>
     </row>
     <row r="435" ht="12.75" spans="2:8">
       <c r="B435" s="14"/>
-      <c r="H435" s="16"/>
+      <c r="H435" s="21"/>
     </row>
     <row r="436" ht="12.75" spans="2:8">
       <c r="B436" s="14"/>
-      <c r="H436" s="16"/>
+      <c r="H436" s="21"/>
     </row>
     <row r="437" ht="12.75" spans="2:8">
       <c r="B437" s="14"/>
-      <c r="H437" s="16"/>
+      <c r="H437" s="21"/>
     </row>
     <row r="438" ht="12.75" spans="2:8">
       <c r="B438" s="14"/>
-      <c r="H438" s="16"/>
+      <c r="H438" s="21"/>
     </row>
     <row r="439" ht="12.75" spans="2:8">
       <c r="B439" s="14"/>
-      <c r="H439" s="16"/>
+      <c r="H439" s="21"/>
     </row>
     <row r="440" ht="12.75" spans="2:8">
       <c r="B440" s="14"/>
-      <c r="H440" s="16"/>
+      <c r="H440" s="21"/>
     </row>
     <row r="441" ht="12.75" spans="2:8">
       <c r="B441" s="14"/>
-      <c r="H441" s="16"/>
+      <c r="H441" s="21"/>
     </row>
     <row r="442" ht="12.75" spans="2:8">
       <c r="B442" s="14"/>
-      <c r="H442" s="16"/>
+      <c r="H442" s="21"/>
     </row>
     <row r="443" ht="12.75" spans="2:8">
       <c r="B443" s="14"/>
-      <c r="H443" s="16"/>
+      <c r="H443" s="21"/>
     </row>
     <row r="444" ht="12.75" spans="2:8">
       <c r="B444" s="14"/>
-      <c r="H444" s="16"/>
+      <c r="H444" s="21"/>
     </row>
     <row r="445" ht="12.75" spans="2:8">
       <c r="B445" s="14"/>
-      <c r="H445" s="16"/>
+      <c r="H445" s="21"/>
     </row>
     <row r="446" ht="12.75" spans="2:8">
       <c r="B446" s="14"/>
-      <c r="H446" s="16"/>
+      <c r="H446" s="21"/>
     </row>
     <row r="447" ht="12.75" spans="2:8">
       <c r="B447" s="14"/>
-      <c r="H447" s="16"/>
+      <c r="H447" s="21"/>
     </row>
     <row r="448" ht="12.75" spans="2:8">
       <c r="B448" s="14"/>
-      <c r="H448" s="16"/>
+      <c r="H448" s="21"/>
     </row>
     <row r="449" ht="12.75" spans="2:8">
       <c r="B449" s="14"/>
-      <c r="H449" s="16"/>
+      <c r="H449" s="21"/>
     </row>
     <row r="450" ht="12.75" spans="2:8">
       <c r="B450" s="14"/>
-      <c r="H450" s="16"/>
+      <c r="H450" s="21"/>
     </row>
     <row r="451" ht="12.75" spans="2:8">
       <c r="B451" s="14"/>
-      <c r="H451" s="16"/>
+      <c r="H451" s="21"/>
     </row>
     <row r="452" ht="12.75" spans="2:8">
       <c r="B452" s="14"/>
-      <c r="H452" s="16"/>
+      <c r="H452" s="21"/>
     </row>
     <row r="453" ht="12.75" spans="2:8">
       <c r="B453" s="14"/>
-      <c r="H453" s="16"/>
+      <c r="H453" s="21"/>
     </row>
     <row r="454" ht="12.75" spans="2:8">
       <c r="B454" s="14"/>
-      <c r="H454" s="16"/>
+      <c r="H454" s="21"/>
     </row>
     <row r="455" ht="12.75" spans="2:8">
       <c r="B455" s="14"/>
-      <c r="H455" s="16"/>
+      <c r="H455" s="21"/>
     </row>
     <row r="456" ht="12.75" spans="2:8">
       <c r="B456" s="14"/>
-      <c r="H456" s="16"/>
+      <c r="H456" s="21"/>
     </row>
     <row r="457" ht="12.75" spans="2:8">
       <c r="B457" s="14"/>
-      <c r="H457" s="16"/>
+      <c r="H457" s="21"/>
     </row>
     <row r="458" ht="12.75" spans="2:8">
       <c r="B458" s="14"/>
-      <c r="H458" s="16"/>
+      <c r="H458" s="21"/>
     </row>
     <row r="459" ht="12.75" spans="2:8">
       <c r="B459" s="14"/>
-      <c r="H459" s="16"/>
+      <c r="H459" s="21"/>
     </row>
     <row r="460" ht="12.75" spans="2:8">
       <c r="B460" s="14"/>
-      <c r="H460" s="16"/>
+      <c r="H460" s="21"/>
     </row>
     <row r="461" ht="12.75" spans="2:8">
       <c r="B461" s="14"/>
-      <c r="H461" s="16"/>
+      <c r="H461" s="21"/>
     </row>
     <row r="462" ht="12.75" spans="2:8">
       <c r="B462" s="14"/>
-      <c r="H462" s="16"/>
+      <c r="H462" s="21"/>
     </row>
     <row r="463" ht="12.75" spans="2:8">
       <c r="B463" s="14"/>
-      <c r="H463" s="16"/>
+      <c r="H463" s="21"/>
     </row>
     <row r="464" ht="12.75" spans="2:8">
       <c r="B464" s="14"/>
-      <c r="H464" s="16"/>
+      <c r="H464" s="21"/>
     </row>
     <row r="465" ht="12.75" spans="2:8">
       <c r="B465" s="14"/>
-      <c r="H465" s="16"/>
+      <c r="H465" s="21"/>
     </row>
     <row r="466" ht="12.75" spans="2:8">
       <c r="B466" s="14"/>
-      <c r="H466" s="16"/>
+      <c r="H466" s="21"/>
     </row>
     <row r="467" ht="12.75" spans="2:8">
       <c r="B467" s="14"/>
-      <c r="H467" s="16"/>
+      <c r="H467" s="21"/>
     </row>
     <row r="468" ht="12.75" spans="2:8">
       <c r="B468" s="14"/>
-      <c r="H468" s="16"/>
+      <c r="H468" s="21"/>
     </row>
     <row r="469" ht="12.75" spans="2:8">
       <c r="B469" s="14"/>
-      <c r="H469" s="16"/>
+      <c r="H469" s="21"/>
     </row>
     <row r="470" ht="12.75" spans="2:8">
       <c r="B470" s="14"/>
-      <c r="H470" s="16"/>
+      <c r="H470" s="21"/>
     </row>
     <row r="471" ht="12.75" spans="2:8">
       <c r="B471" s="14"/>
-      <c r="H471" s="16"/>
+      <c r="H471" s="21"/>
     </row>
     <row r="472" ht="12.75" spans="2:8">
       <c r="B472" s="14"/>
-      <c r="H472" s="16"/>
+      <c r="H472" s="21"/>
     </row>
     <row r="473" ht="12.75" spans="2:8">
       <c r="B473" s="14"/>
-      <c r="H473" s="16"/>
+      <c r="H473" s="21"/>
     </row>
     <row r="474" ht="12.75" spans="2:8">
       <c r="B474" s="14"/>
-      <c r="H474" s="16"/>
+      <c r="H474" s="21"/>
     </row>
     <row r="475" ht="12.75" spans="2:8">
       <c r="B475" s="14"/>
-      <c r="H475" s="16"/>
+      <c r="H475" s="21"/>
     </row>
     <row r="476" ht="12.75" spans="2:8">
       <c r="B476" s="14"/>
-      <c r="H476" s="16"/>
+      <c r="H476" s="21"/>
     </row>
     <row r="477" ht="12.75" spans="2:8">
       <c r="B477" s="14"/>
-      <c r="H477" s="16"/>
+      <c r="H477" s="21"/>
     </row>
     <row r="478" ht="12.75" spans="2:8">
       <c r="B478" s="14"/>
-      <c r="H478" s="16"/>
+      <c r="H478" s="21"/>
     </row>
     <row r="479" ht="12.75" spans="2:8">
       <c r="B479" s="14"/>
-      <c r="H479" s="16"/>
+      <c r="H479" s="21"/>
     </row>
     <row r="480" ht="12.75" spans="2:8">
       <c r="B480" s="14"/>
-      <c r="H480" s="16"/>
+      <c r="H480" s="21"/>
     </row>
     <row r="481" ht="12.75" spans="2:8">
       <c r="B481" s="14"/>
-      <c r="H481" s="16"/>
+      <c r="H481" s="21"/>
     </row>
     <row r="482" ht="12.75" spans="2:8">
       <c r="B482" s="14"/>
-      <c r="H482" s="16"/>
+      <c r="H482" s="21"/>
     </row>
     <row r="483" ht="12.75" spans="2:8">
       <c r="B483" s="14"/>
-      <c r="H483" s="16"/>
+      <c r="H483" s="21"/>
     </row>
     <row r="484" ht="12.75" spans="2:8">
       <c r="B484" s="14"/>
-      <c r="H484" s="16"/>
+      <c r="H484" s="21"/>
     </row>
     <row r="485" ht="12.75" spans="2:8">
       <c r="B485" s="14"/>
-      <c r="H485" s="16"/>
+      <c r="H485" s="21"/>
     </row>
     <row r="486" ht="12.75" spans="2:8">
       <c r="B486" s="14"/>
-      <c r="H486" s="16"/>
+      <c r="H486" s="21"/>
     </row>
     <row r="487" ht="12.75" spans="2:8">
       <c r="B487" s="14"/>
-      <c r="H487" s="16"/>
+      <c r="H487" s="21"/>
     </row>
     <row r="488" ht="12.75" spans="2:8">
       <c r="B488" s="14"/>
-      <c r="H488" s="16"/>
+      <c r="H488" s="21"/>
     </row>
     <row r="489" ht="12.75" spans="2:8">
       <c r="B489" s="14"/>
-      <c r="H489" s="16"/>
+      <c r="H489" s="21"/>
     </row>
     <row r="490" ht="12.75" spans="2:8">
       <c r="B490" s="14"/>
-      <c r="H490" s="16"/>
+      <c r="H490" s="21"/>
     </row>
     <row r="491" ht="12.75" spans="2:8">
       <c r="B491" s="14"/>
-      <c r="H491" s="16"/>
+      <c r="H491" s="21"/>
     </row>
     <row r="492" ht="12.75" spans="2:8">
       <c r="B492" s="14"/>
-      <c r="H492" s="16"/>
+      <c r="H492" s="21"/>
     </row>
     <row r="493" ht="12.75" spans="2:8">
       <c r="B493" s="14"/>
-      <c r="H493" s="16"/>
+      <c r="H493" s="21"/>
     </row>
     <row r="494" ht="12.75" spans="2:8">
       <c r="B494" s="14"/>
-      <c r="H494" s="16"/>
+      <c r="H494" s="21"/>
     </row>
     <row r="495" ht="12.75" spans="2:8">
       <c r="B495" s="14"/>
-      <c r="H495" s="16"/>
+      <c r="H495" s="21"/>
     </row>
     <row r="496" ht="12.75" spans="2:8">
       <c r="B496" s="14"/>
-      <c r="H496" s="16"/>
+      <c r="H496" s="21"/>
     </row>
     <row r="497" ht="12.75" spans="2:8">
       <c r="B497" s="14"/>
-      <c r="H497" s="16"/>
+      <c r="H497" s="21"/>
     </row>
     <row r="498" ht="12.75" spans="2:8">
       <c r="B498" s="14"/>
-      <c r="H498" s="16"/>
+      <c r="H498" s="21"/>
     </row>
     <row r="499" ht="12.75" spans="2:8">
       <c r="B499" s="14"/>
-      <c r="H499" s="16"/>
+      <c r="H499" s="21"/>
     </row>
     <row r="500" ht="12.75" spans="2:8">
       <c r="B500" s="14"/>
-      <c r="H500" s="16"/>
+      <c r="H500" s="21"/>
     </row>
     <row r="501" ht="12.75" spans="2:8">
       <c r="B501" s="14"/>
-      <c r="H501" s="16"/>
+      <c r="H501" s="21"/>
     </row>
     <row r="502" ht="12.75" spans="2:8">
       <c r="B502" s="14"/>
-      <c r="H502" s="16"/>
+      <c r="H502" s="21"/>
     </row>
     <row r="503" ht="12.75" spans="2:8">
       <c r="B503" s="14"/>
-      <c r="H503" s="16"/>
+      <c r="H503" s="21"/>
     </row>
     <row r="504" ht="12.75" spans="2:8">
       <c r="B504" s="14"/>
-      <c r="H504" s="16"/>
+      <c r="H504" s="21"/>
     </row>
     <row r="505" ht="12.75" spans="2:8">
       <c r="B505" s="14"/>
-      <c r="H505" s="16"/>
+      <c r="H505" s="21"/>
     </row>
     <row r="506" ht="12.75" spans="2:8">
       <c r="B506" s="14"/>
-      <c r="H506" s="16"/>
+      <c r="H506" s="21"/>
     </row>
     <row r="507" ht="12.75" spans="2:8">
       <c r="B507" s="14"/>
-      <c r="H507" s="16"/>
+      <c r="H507" s="21"/>
     </row>
     <row r="508" ht="12.75" spans="2:8">
       <c r="B508" s="14"/>
-      <c r="H508" s="16"/>
+      <c r="H508" s="21"/>
     </row>
     <row r="509" ht="12.75" spans="2:8">
       <c r="B509" s="14"/>
-      <c r="H509" s="16"/>
+      <c r="H509" s="21"/>
     </row>
     <row r="510" ht="12.75" spans="2:8">
       <c r="B510" s="14"/>
-      <c r="H510" s="16"/>
+      <c r="H510" s="21"/>
     </row>
     <row r="511" ht="12.75" spans="2:8">
       <c r="B511" s="14"/>
-      <c r="H511" s="16"/>
+      <c r="H511" s="21"/>
     </row>
     <row r="512" ht="12.75" spans="2:8">
       <c r="B512" s="14"/>
-      <c r="H512" s="16"/>
+      <c r="H512" s="21"/>
     </row>
     <row r="513" ht="12.75" spans="2:8">
       <c r="B513" s="14"/>
-      <c r="H513" s="16"/>
+      <c r="H513" s="21"/>
     </row>
     <row r="514" ht="12.75" spans="2:8">
       <c r="B514" s="14"/>
-      <c r="H514" s="16"/>
+      <c r="H514" s="21"/>
     </row>
     <row r="515" ht="12.75" spans="2:8">
       <c r="B515" s="14"/>
-      <c r="H515" s="16"/>
+      <c r="H515" s="21"/>
     </row>
     <row r="516" ht="12.75" spans="2:8">
       <c r="B516" s="14"/>
-      <c r="H516" s="16"/>
+      <c r="H516" s="21"/>
     </row>
     <row r="517" ht="12.75" spans="2:8">
       <c r="B517" s="14"/>
-      <c r="H517" s="16"/>
+      <c r="H517" s="21"/>
     </row>
     <row r="518" ht="12.75" spans="2:8">
       <c r="B518" s="14"/>
-      <c r="H518" s="16"/>
+      <c r="H518" s="21"/>
     </row>
     <row r="519" ht="12.75" spans="2:8">
       <c r="B519" s="14"/>
-      <c r="H519" s="16"/>
+      <c r="H519" s="21"/>
     </row>
     <row r="520" ht="12.75" spans="2:8">
       <c r="B520" s="14"/>
-      <c r="H520" s="16"/>
+      <c r="H520" s="21"/>
     </row>
     <row r="521" ht="12.75" spans="2:8">
       <c r="B521" s="14"/>
-      <c r="H521" s="16"/>
+      <c r="H521" s="21"/>
     </row>
     <row r="522" ht="12.75" spans="2:8">
       <c r="B522" s="14"/>
-      <c r="H522" s="16"/>
+      <c r="H522" s="21"/>
     </row>
     <row r="523" ht="12.75" spans="2:8">
       <c r="B523" s="14"/>
-      <c r="H523" s="16"/>
+      <c r="H523" s="21"/>
     </row>
     <row r="524" ht="12.75" spans="2:8">
       <c r="B524" s="14"/>
-      <c r="H524" s="16"/>
+      <c r="H524" s="21"/>
     </row>
     <row r="525" ht="12.75" spans="2:8">
       <c r="B525" s="14"/>
-      <c r="H525" s="16"/>
+      <c r="H525" s="21"/>
     </row>
     <row r="526" ht="12.75" spans="2:8">
       <c r="B526" s="14"/>
-      <c r="H526" s="16"/>
+      <c r="H526" s="21"/>
     </row>
     <row r="527" ht="12.75" spans="2:8">
       <c r="B527" s="14"/>
-      <c r="H527" s="16"/>
+      <c r="H527" s="21"/>
     </row>
     <row r="528" ht="12.75" spans="2:8">
       <c r="B528" s="14"/>
-      <c r="H528" s="16"/>
+      <c r="H528" s="21"/>
     </row>
     <row r="529" ht="12.75" spans="2:8">
       <c r="B529" s="14"/>
-      <c r="H529" s="16"/>
+      <c r="H529" s="21"/>
     </row>
     <row r="530" ht="12.75" spans="2:8">
       <c r="B530" s="14"/>
-      <c r="H530" s="16"/>
+      <c r="H530" s="21"/>
     </row>
     <row r="531" ht="12.75" spans="2:8">
       <c r="B531" s="14"/>
-      <c r="H531" s="16"/>
+      <c r="H531" s="21"/>
     </row>
     <row r="532" ht="12.75" spans="2:8">
       <c r="B532" s="14"/>
-      <c r="H532" s="16"/>
+      <c r="H532" s="21"/>
     </row>
     <row r="533" ht="12.75" spans="2:8">
       <c r="B533" s="14"/>
-      <c r="H533" s="16"/>
+      <c r="H533" s="21"/>
     </row>
     <row r="534" ht="12.75" spans="2:8">
       <c r="B534" s="14"/>
-      <c r="H534" s="16"/>
+      <c r="H534" s="21"/>
     </row>
     <row r="535" ht="12.75" spans="2:8">
       <c r="B535" s="14"/>
-      <c r="H535" s="16"/>
+      <c r="H535" s="21"/>
     </row>
     <row r="536" ht="12.75" spans="2:8">
       <c r="B536" s="14"/>
-      <c r="H536" s="16"/>
+      <c r="H536" s="21"/>
     </row>
     <row r="537" ht="12.75" spans="2:8">
       <c r="B537" s="14"/>
-      <c r="H537" s="16"/>
+      <c r="H537" s="21"/>
     </row>
     <row r="538" ht="12.75" spans="2:8">
       <c r="B538" s="14"/>
-      <c r="H538" s="16"/>
+      <c r="H538" s="21"/>
     </row>
     <row r="539" ht="12.75" spans="2:8">
       <c r="B539" s="14"/>
-      <c r="H539" s="16"/>
+      <c r="H539" s="21"/>
     </row>
     <row r="540" ht="12.75" spans="2:8">
       <c r="B540" s="14"/>
-      <c r="H540" s="16"/>
+      <c r="H540" s="21"/>
     </row>
     <row r="541" ht="12.75" spans="2:8">
       <c r="B541" s="14"/>
-      <c r="H541" s="16"/>
+      <c r="H541" s="21"/>
     </row>
     <row r="542" ht="12.75" spans="2:8">
       <c r="B542" s="14"/>
-      <c r="H542" s="16"/>
+      <c r="H542" s="21"/>
     </row>
     <row r="543" ht="12.75" spans="2:8">
       <c r="B543" s="14"/>
-      <c r="H543" s="16"/>
+      <c r="H543" s="21"/>
     </row>
     <row r="544" ht="12.75" spans="2:8">
       <c r="B544" s="14"/>
-      <c r="H544" s="16"/>
+      <c r="H544" s="21"/>
     </row>
     <row r="545" ht="12.75" spans="2:8">
       <c r="B545" s="14"/>
-      <c r="H545" s="16"/>
+      <c r="H545" s="21"/>
     </row>
     <row r="546" ht="12.75" spans="2:8">
       <c r="B546" s="14"/>
-      <c r="H546" s="16"/>
+      <c r="H546" s="21"/>
     </row>
     <row r="547" ht="12.75" spans="2:8">
       <c r="B547" s="14"/>
-      <c r="H547" s="16"/>
+      <c r="H547" s="21"/>
     </row>
     <row r="548" ht="12.75" spans="2:8">
       <c r="B548" s="14"/>
-      <c r="H548" s="16"/>
+      <c r="H548" s="21"/>
     </row>
     <row r="549" ht="12.75" spans="2:8">
       <c r="B549" s="14"/>
-      <c r="H549" s="16"/>
+      <c r="H549" s="21"/>
     </row>
     <row r="550" ht="12.75" spans="2:8">
       <c r="B550" s="14"/>
-      <c r="H550" s="16"/>
+      <c r="H550" s="21"/>
     </row>
     <row r="551" ht="12.75" spans="2:8">
       <c r="B551" s="14"/>
-      <c r="H551" s="16"/>
+      <c r="H551" s="21"/>
     </row>
     <row r="552" ht="12.75" spans="2:8">
       <c r="B552" s="14"/>
-      <c r="H552" s="16"/>
+      <c r="H552" s="21"/>
     </row>
     <row r="553" ht="12.75" spans="2:8">
       <c r="B553" s="14"/>
-      <c r="H553" s="16"/>
+      <c r="H553" s="21"/>
     </row>
     <row r="554" ht="12.75" spans="2:8">
       <c r="B554" s="14"/>
-      <c r="H554" s="16"/>
+      <c r="H554" s="21"/>
     </row>
     <row r="555" ht="12.75" spans="2:8">
       <c r="B555" s="14"/>
-      <c r="H555" s="16"/>
+      <c r="H555" s="21"/>
     </row>
     <row r="556" ht="12.75" spans="2:8">
       <c r="B556" s="14"/>
-      <c r="H556" s="16"/>
+      <c r="H556" s="21"/>
     </row>
     <row r="557" ht="12.75" spans="2:8">
       <c r="B557" s="14"/>
-      <c r="H557" s="16"/>
+      <c r="H557" s="21"/>
     </row>
     <row r="558" ht="12.75" spans="2:8">
       <c r="B558" s="14"/>
-      <c r="H558" s="16"/>
+      <c r="H558" s="21"/>
     </row>
     <row r="559" ht="12.75" spans="2:8">
       <c r="B559" s="14"/>
-      <c r="H559" s="16"/>
+      <c r="H559" s="21"/>
     </row>
     <row r="560" ht="12.75" spans="2:8">
       <c r="B560" s="14"/>
-      <c r="H560" s="16"/>
+      <c r="H560" s="21"/>
     </row>
     <row r="561" ht="12.75" spans="2:8">
       <c r="B561" s="14"/>
-      <c r="H561" s="16"/>
+      <c r="H561" s="21"/>
     </row>
     <row r="562" ht="12.75" spans="2:8">
       <c r="B562" s="14"/>
-      <c r="H562" s="16"/>
+      <c r="H562" s="21"/>
     </row>
     <row r="563" ht="12.75" spans="2:8">
       <c r="B563" s="14"/>
-      <c r="H563" s="16"/>
+      <c r="H563" s="21"/>
     </row>
     <row r="564" ht="12.75" spans="2:8">
       <c r="B564" s="14"/>
-      <c r="H564" s="16"/>
+      <c r="H564" s="21"/>
     </row>
     <row r="565" ht="12.75" spans="2:8">
       <c r="B565" s="14"/>
-      <c r="H565" s="16"/>
+      <c r="H565" s="21"/>
     </row>
     <row r="566" ht="12.75" spans="2:8">
       <c r="B566" s="14"/>
-      <c r="H566" s="16"/>
+      <c r="H566" s="21"/>
     </row>
     <row r="567" ht="12.75" spans="2:8">
       <c r="B567" s="14"/>
-      <c r="H567" s="16"/>
+      <c r="H567" s="21"/>
     </row>
     <row r="568" ht="12.75" spans="2:8">
       <c r="B568" s="14"/>
-      <c r="H568" s="16"/>
+      <c r="H568" s="21"/>
     </row>
     <row r="569" ht="12.75" spans="2:8">
       <c r="B569" s="14"/>
-      <c r="H569" s="16"/>
+      <c r="H569" s="21"/>
     </row>
     <row r="570" ht="12.75" spans="2:8">
       <c r="B570" s="14"/>
-      <c r="H570" s="16"/>
+      <c r="H570" s="21"/>
     </row>
     <row r="571" ht="12.75" spans="2:8">
       <c r="B571" s="14"/>
-      <c r="H571" s="16"/>
+      <c r="H571" s="21"/>
     </row>
     <row r="572" ht="12.75" spans="2:8">
       <c r="B572" s="14"/>
-      <c r="H572" s="16"/>
+      <c r="H572" s="21"/>
     </row>
     <row r="573" ht="12.75" spans="2:8">
       <c r="B573" s="14"/>
-      <c r="H573" s="16"/>
+      <c r="H573" s="21"/>
     </row>
     <row r="574" ht="12.75" spans="2:8">
       <c r="B574" s="14"/>
-      <c r="H574" s="16"/>
+      <c r="H574" s="21"/>
     </row>
     <row r="575" ht="12.75" spans="2:8">
       <c r="B575" s="14"/>
-      <c r="H575" s="16"/>
+      <c r="H575" s="21"/>
     </row>
     <row r="576" ht="12.75" spans="2:8">
       <c r="B576" s="14"/>
-      <c r="H576" s="16"/>
+      <c r="H576" s="21"/>
     </row>
     <row r="577" ht="12.75" spans="2:8">
       <c r="B577" s="14"/>
-      <c r="H577" s="16"/>
+      <c r="H577" s="21"/>
     </row>
     <row r="578" ht="12.75" spans="2:8">
       <c r="B578" s="14"/>
-      <c r="H578" s="16"/>
+      <c r="H578" s="21"/>
     </row>
     <row r="579" ht="12.75" spans="2:8">
       <c r="B579" s="14"/>
-      <c r="H579" s="16"/>
+      <c r="H579" s="21"/>
     </row>
     <row r="580" ht="12.75" spans="2:8">
       <c r="B580" s="14"/>
-      <c r="H580" s="16"/>
+      <c r="H580" s="21"/>
     </row>
     <row r="581" ht="12.75" spans="2:8">
       <c r="B581" s="14"/>
-      <c r="H581" s="16"/>
+      <c r="H581" s="21"/>
     </row>
     <row r="582" ht="12.75" spans="2:8">
       <c r="B582" s="14"/>
-      <c r="H582" s="16"/>
+      <c r="H582" s="21"/>
     </row>
     <row r="583" ht="12.75" spans="2:8">
       <c r="B583" s="14"/>
-      <c r="H583" s="16"/>
+      <c r="H583" s="21"/>
     </row>
     <row r="584" ht="12.75" spans="2:8">
       <c r="B584" s="14"/>
-      <c r="H584" s="16"/>
+      <c r="H584" s="21"/>
     </row>
     <row r="585" ht="12.75" spans="2:8">
       <c r="B585" s="14"/>
-      <c r="H585" s="16"/>
+      <c r="H585" s="21"/>
     </row>
     <row r="586" ht="12.75" spans="2:8">
       <c r="B586" s="14"/>
-      <c r="H586" s="16"/>
+      <c r="H586" s="21"/>
     </row>
     <row r="587" ht="12.75" spans="2:8">
       <c r="B587" s="14"/>
-      <c r="H587" s="16"/>
+      <c r="H587" s="21"/>
     </row>
     <row r="588" ht="12.75" spans="2:8">
       <c r="B588" s="14"/>
-      <c r="H588" s="16"/>
+      <c r="H588" s="21"/>
     </row>
     <row r="589" ht="12.75" spans="2:8">
       <c r="B589" s="14"/>
-      <c r="H589" s="16"/>
+      <c r="H589" s="21"/>
     </row>
     <row r="590" ht="12.75" spans="2:8">
       <c r="B590" s="14"/>
-      <c r="H590" s="16"/>
+      <c r="H590" s="21"/>
     </row>
     <row r="591" ht="12.75" spans="2:8">
       <c r="B591" s="14"/>
-      <c r="H591" s="16"/>
+      <c r="H591" s="21"/>
     </row>
     <row r="592" ht="12.75" spans="2:8">
       <c r="B592" s="14"/>
-      <c r="H592" s="16"/>
+      <c r="H592" s="21"/>
     </row>
     <row r="593" ht="12.75" spans="2:8">
       <c r="B593" s="14"/>
-      <c r="H593" s="16"/>
+      <c r="H593" s="21"/>
     </row>
     <row r="594" ht="12.75" spans="2:8">
       <c r="B594" s="14"/>
-      <c r="H594" s="16"/>
+      <c r="H594" s="21"/>
     </row>
     <row r="595" ht="12.75" spans="2:8">
       <c r="B595" s="14"/>
-      <c r="H595" s="16"/>
+      <c r="H595" s="21"/>
     </row>
     <row r="596" ht="12.75" spans="2:8">
       <c r="B596" s="14"/>
-      <c r="H596" s="16"/>
+      <c r="H596" s="21"/>
     </row>
     <row r="597" ht="12.75" spans="2:8">
       <c r="B597" s="14"/>
-      <c r="H597" s="16"/>
+      <c r="H597" s="21"/>
     </row>
     <row r="598" ht="12.75" spans="2:8">
       <c r="B598" s="14"/>
-      <c r="H598" s="16"/>
+      <c r="H598" s="21"/>
     </row>
     <row r="599" ht="12.75" spans="2:8">
       <c r="B599" s="14"/>
-      <c r="H599" s="16"/>
+      <c r="H599" s="21"/>
     </row>
     <row r="600" ht="12.75" spans="2:8">
       <c r="B600" s="14"/>
-      <c r="H600" s="16"/>
+      <c r="H600" s="21"/>
     </row>
     <row r="601" ht="12.75" spans="2:8">
       <c r="B601" s="14"/>
-      <c r="H601" s="16"/>
+      <c r="H601" s="21"/>
     </row>
     <row r="602" ht="12.75" spans="2:8">
       <c r="B602" s="14"/>
-      <c r="H602" s="16"/>
+      <c r="H602" s="21"/>
     </row>
     <row r="603" ht="12.75" spans="2:8">
       <c r="B603" s="14"/>
-      <c r="H603" s="16"/>
+      <c r="H603" s="21"/>
     </row>
     <row r="604" ht="12.75" spans="2:8">
       <c r="B604" s="14"/>
-      <c r="H604" s="16"/>
+      <c r="H604" s="21"/>
     </row>
     <row r="605" ht="12.75" spans="2:8">
       <c r="B605" s="14"/>
-      <c r="H605" s="16"/>
+      <c r="H605" s="21"/>
     </row>
     <row r="606" ht="12.75" spans="2:8">
       <c r="B606" s="14"/>
-      <c r="H606" s="16"/>
+      <c r="H606" s="21"/>
     </row>
     <row r="607" ht="12.75" spans="2:8">
       <c r="B607" s="14"/>
-      <c r="H607" s="16"/>
+      <c r="H607" s="21"/>
     </row>
     <row r="608" ht="12.75" spans="2:8">
       <c r="B608" s="14"/>
-      <c r="H608" s="16"/>
+      <c r="H608" s="21"/>
     </row>
     <row r="609" ht="12.75" spans="2:8">
       <c r="B609" s="14"/>
-      <c r="H609" s="16"/>
+      <c r="H609" s="21"/>
     </row>
     <row r="610" ht="12.75" spans="2:8">
       <c r="B610" s="14"/>
-      <c r="H610" s="16"/>
+      <c r="H610" s="21"/>
     </row>
     <row r="611" ht="12.75" spans="2:8">
       <c r="B611" s="14"/>
-      <c r="H611" s="16"/>
+      <c r="H611" s="21"/>
     </row>
     <row r="612" ht="12.75" spans="2:8">
       <c r="B612" s="14"/>
-      <c r="H612" s="16"/>
+      <c r="H612" s="21"/>
     </row>
     <row r="613" ht="12.75" spans="2:8">
       <c r="B613" s="14"/>
-      <c r="H613" s="16"/>
+      <c r="H613" s="21"/>
     </row>
     <row r="614" ht="12.75" spans="2:8">
       <c r="B614" s="14"/>
-      <c r="H614" s="16"/>
+      <c r="H614" s="21"/>
     </row>
     <row r="615" ht="12.75" spans="2:8">
       <c r="B615" s="14"/>
-      <c r="H615" s="16"/>
+      <c r="H615" s="21"/>
     </row>
     <row r="616" ht="12.75" spans="2:8">
       <c r="B616" s="14"/>
-      <c r="H616" s="16"/>
+      <c r="H616" s="21"/>
     </row>
     <row r="617" ht="12.75" spans="2:8">
       <c r="B617" s="14"/>
-      <c r="H617" s="16"/>
+      <c r="H617" s="21"/>
     </row>
     <row r="618" ht="12.75" spans="2:8">
       <c r="B618" s="14"/>
-      <c r="H618" s="16"/>
+      <c r="H618" s="21"/>
     </row>
     <row r="619" ht="12.75" spans="2:8">
       <c r="B619" s="14"/>
-      <c r="H619" s="16"/>
+      <c r="H619" s="21"/>
     </row>
     <row r="620" ht="12.75" spans="2:8">
       <c r="B620" s="14"/>
-      <c r="H620" s="16"/>
+      <c r="H620" s="21"/>
     </row>
     <row r="621" ht="12.75" spans="2:8">
       <c r="B621" s="14"/>
-      <c r="H621" s="16"/>
+      <c r="H621" s="21"/>
     </row>
     <row r="622" ht="12.75" spans="2:8">
       <c r="B622" s="14"/>
-      <c r="H622" s="16"/>
+      <c r="H622" s="21"/>
     </row>
     <row r="623" ht="12.75" spans="2:8">
       <c r="B623" s="14"/>
-      <c r="H623" s="16"/>
+      <c r="H623" s="21"/>
     </row>
     <row r="624" ht="12.75" spans="2:8">
       <c r="B624" s="14"/>
-      <c r="H624" s="16"/>
+      <c r="H624" s="21"/>
     </row>
     <row r="625" ht="12.75" spans="2:8">
       <c r="B625" s="14"/>
-      <c r="H625" s="16"/>
+      <c r="H625" s="21"/>
     </row>
     <row r="626" ht="12.75" spans="2:8">
       <c r="B626" s="14"/>
-      <c r="H626" s="16"/>
+      <c r="H626" s="21"/>
     </row>
     <row r="627" ht="12.75" spans="2:8">
       <c r="B627" s="14"/>
-      <c r="H627" s="16"/>
+      <c r="H627" s="21"/>
     </row>
     <row r="628" ht="12.75" spans="2:8">
       <c r="B628" s="14"/>
-      <c r="H628" s="16"/>
+      <c r="H628" s="21"/>
     </row>
     <row r="629" ht="12.75" spans="2:8">
       <c r="B629" s="14"/>
-      <c r="H629" s="16"/>
+      <c r="H629" s="21"/>
     </row>
     <row r="630" ht="12.75" spans="2:8">
       <c r="B630" s="14"/>
-      <c r="H630" s="16"/>
+      <c r="H630" s="21"/>
     </row>
     <row r="631" ht="12.75" spans="2:8">
       <c r="B631" s="14"/>
-      <c r="H631" s="16"/>
+      <c r="H631" s="21"/>
     </row>
     <row r="632" ht="12.75" spans="2:8">
       <c r="B632" s="14"/>
-      <c r="H632" s="16"/>
+      <c r="H632" s="21"/>
     </row>
     <row r="633" ht="12.75" spans="2:8">
       <c r="B633" s="14"/>
-      <c r="H633" s="16"/>
+      <c r="H633" s="21"/>
     </row>
     <row r="634" ht="12.75" spans="2:8">
       <c r="B634" s="14"/>
-      <c r="H634" s="16"/>
+      <c r="H634" s="21"/>
     </row>
     <row r="635" ht="12.75" spans="2:8">
       <c r="B635" s="14"/>
-      <c r="H635" s="16"/>
+      <c r="H635" s="21"/>
     </row>
     <row r="636" ht="12.75" spans="2:8">
       <c r="B636" s="14"/>
-      <c r="H636" s="16"/>
+      <c r="H636" s="21"/>
     </row>
     <row r="637" ht="12.75" spans="2:8">
       <c r="B637" s="14"/>
-      <c r="H637" s="16"/>
+      <c r="H637" s="21"/>
     </row>
     <row r="638" ht="12.75" spans="2:8">
       <c r="B638" s="14"/>
-      <c r="H638" s="16"/>
+      <c r="H638" s="21"/>
     </row>
     <row r="639" ht="12.75" spans="2:8">
       <c r="B639" s="14"/>
-      <c r="H639" s="16"/>
+      <c r="H639" s="21"/>
     </row>
     <row r="640" ht="12.75" spans="2:8">
       <c r="B640" s="14"/>
-      <c r="H640" s="16"/>
+      <c r="H640" s="21"/>
     </row>
     <row r="641" ht="12.75" spans="2:8">
       <c r="B641" s="14"/>
-      <c r="H641" s="16"/>
+      <c r="H641" s="21"/>
     </row>
     <row r="642" ht="12.75" spans="2:8">
       <c r="B642" s="14"/>
-      <c r="H642" s="16"/>
+      <c r="H642" s="21"/>
     </row>
     <row r="643" ht="12.75" spans="2:8">
       <c r="B643" s="14"/>
-      <c r="H643" s="16"/>
+      <c r="H643" s="21"/>
     </row>
     <row r="644" ht="12.75" spans="2:8">
       <c r="B644" s="14"/>
-      <c r="H644" s="16"/>
+      <c r="H644" s="21"/>
     </row>
     <row r="645" ht="12.75" spans="2:8">
       <c r="B645" s="14"/>
-      <c r="H645" s="16"/>
+      <c r="H645" s="21"/>
     </row>
     <row r="646" ht="12.75" spans="2:8">
       <c r="B646" s="14"/>
-      <c r="H646" s="16"/>
+      <c r="H646" s="21"/>
     </row>
     <row r="647" ht="12.75" spans="2:8">
       <c r="B647" s="14"/>
-      <c r="H647" s="16"/>
+      <c r="H647" s="21"/>
     </row>
     <row r="648" ht="12.75" spans="2:8">
       <c r="B648" s="14"/>
-      <c r="H648" s="16"/>
+      <c r="H648" s="21"/>
     </row>
     <row r="649" ht="12.75" spans="2:8">
       <c r="B649" s="14"/>
-      <c r="H649" s="16"/>
+      <c r="H649" s="21"/>
     </row>
     <row r="650" ht="12.75" spans="2:8">
       <c r="B650" s="14"/>
-      <c r="H650" s="16"/>
+      <c r="H650" s="21"/>
     </row>
     <row r="651" ht="12.75" spans="2:8">
       <c r="B651" s="14"/>
-      <c r="H651" s="16"/>
+      <c r="H651" s="21"/>
     </row>
     <row r="652" ht="12.75" spans="2:8">
       <c r="B652" s="14"/>
-      <c r="H652" s="16"/>
+      <c r="H652" s="21"/>
     </row>
     <row r="653" ht="12.75" spans="2:8">
       <c r="B653" s="14"/>
-      <c r="H653" s="16"/>
+      <c r="H653" s="21"/>
     </row>
     <row r="654" ht="12.75" spans="2:8">
       <c r="B654" s="14"/>
-      <c r="H654" s="16"/>
+      <c r="H654" s="21"/>
     </row>
     <row r="655" ht="12.75" spans="2:8">
       <c r="B655" s="14"/>
-      <c r="H655" s="16"/>
+      <c r="H655" s="21"/>
     </row>
     <row r="656" ht="12.75" spans="2:8">
       <c r="B656" s="14"/>
-      <c r="H656" s="16"/>
+      <c r="H656" s="21"/>
     </row>
     <row r="657" ht="12.75" spans="2:8">
       <c r="B657" s="14"/>
-      <c r="H657" s="16"/>
+      <c r="H657" s="21"/>
     </row>
     <row r="658" ht="12.75" spans="2:8">
       <c r="B658" s="14"/>
-      <c r="H658" s="16"/>
+      <c r="H658" s="21"/>
     </row>
     <row r="659" ht="12.75" spans="2:8">
       <c r="B659" s="14"/>
-      <c r="H659" s="16"/>
+      <c r="H659" s="21"/>
     </row>
     <row r="660" ht="12.75" spans="2:8">
       <c r="B660" s="14"/>
-      <c r="H660" s="16"/>
+      <c r="H660" s="21"/>
     </row>
     <row r="661" ht="12.75" spans="2:8">
       <c r="B661" s="14"/>
-      <c r="H661" s="16"/>
+      <c r="H661" s="21"/>
     </row>
     <row r="662" ht="12.75" spans="2:8">
       <c r="B662" s="14"/>
-      <c r="H662" s="16"/>
+      <c r="H662" s="21"/>
     </row>
     <row r="663" ht="12.75" spans="2:8">
       <c r="B663" s="14"/>
-      <c r="H663" s="16"/>
+      <c r="H663" s="21"/>
     </row>
     <row r="664" ht="12.75" spans="2:8">
       <c r="B664" s="14"/>
-      <c r="H664" s="16"/>
+      <c r="H664" s="21"/>
     </row>
     <row r="665" ht="12.75" spans="2:8">
       <c r="B665" s="14"/>
-      <c r="H665" s="16"/>
+      <c r="H665" s="21"/>
     </row>
     <row r="666" ht="12.75" spans="2:8">
       <c r="B666" s="14"/>
-      <c r="H666" s="16"/>
+      <c r="H666" s="21"/>
     </row>
     <row r="667" ht="12.75" spans="2:8">
       <c r="B667" s="14"/>
-      <c r="H667" s="16"/>
+      <c r="H667" s="21"/>
     </row>
     <row r="668" ht="12.75" spans="2:8">
       <c r="B668" s="14"/>
-      <c r="H668" s="16"/>
+      <c r="H668" s="21"/>
     </row>
     <row r="669" ht="12.75" spans="2:8">
       <c r="B669" s="14"/>
-      <c r="H669" s="16"/>
+      <c r="H669" s="21"/>
     </row>
     <row r="670" ht="12.75" spans="2:8">
       <c r="B670" s="14"/>
-      <c r="H670" s="16"/>
+      <c r="H670" s="21"/>
     </row>
     <row r="671" ht="12.75" spans="2:8">
       <c r="B671" s="14"/>
-      <c r="H671" s="16"/>
+      <c r="H671" s="21"/>
     </row>
     <row r="672" ht="12.75" spans="2:8">
       <c r="B672" s="14"/>
-      <c r="H672" s="16"/>
+      <c r="H672" s="21"/>
     </row>
     <row r="673" ht="12.75" spans="2:8">
       <c r="B673" s="14"/>
-      <c r="H673" s="16"/>
+      <c r="H673" s="21"/>
     </row>
     <row r="674" ht="12.75" spans="2:8">
       <c r="B674" s="14"/>
-      <c r="H674" s="16"/>
+      <c r="H674" s="21"/>
     </row>
     <row r="675" ht="12.75" spans="2:8">
       <c r="B675" s="14"/>
-      <c r="H675" s="16"/>
+      <c r="H675" s="21"/>
     </row>
     <row r="676" ht="12.75" spans="2:8">
       <c r="B676" s="14"/>
-      <c r="H676" s="16"/>
+      <c r="H676" s="21"/>
     </row>
     <row r="677" ht="12.75" spans="2:8">
       <c r="B677" s="14"/>
-      <c r="H677" s="16"/>
+      <c r="H677" s="21"/>
     </row>
     <row r="678" ht="12.75" spans="2:8">
       <c r="B678" s="14"/>
-      <c r="H678" s="16"/>
+      <c r="H678" s="21"/>
     </row>
     <row r="679" ht="12.75" spans="2:8">
       <c r="B679" s="14"/>
-      <c r="H679" s="16"/>
+      <c r="H679" s="21"/>
     </row>
     <row r="680" ht="12.75" spans="2:8">
       <c r="B680" s="14"/>
-      <c r="H680" s="16"/>
+      <c r="H680" s="21"/>
     </row>
     <row r="681" ht="12.75" spans="2:8">
       <c r="B681" s="14"/>
-      <c r="H681" s="16"/>
+      <c r="H681" s="21"/>
     </row>
     <row r="682" ht="12.75" spans="2:8">
       <c r="B682" s="14"/>
-      <c r="H682" s="16"/>
+      <c r="H682" s="21"/>
     </row>
     <row r="683" ht="12.75" spans="2:8">
       <c r="B683" s="14"/>
-      <c r="H683" s="16"/>
+      <c r="H683" s="21"/>
     </row>
     <row r="684" ht="12.75" spans="2:8">
       <c r="B684" s="14"/>
-      <c r="H684" s="16"/>
+      <c r="H684" s="21"/>
     </row>
     <row r="685" ht="12.75" spans="2:8">
       <c r="B685" s="14"/>
-      <c r="H685" s="16"/>
+      <c r="H685" s="21"/>
     </row>
     <row r="686" ht="12.75" spans="2:8">
       <c r="B686" s="14"/>
-      <c r="H686" s="16"/>
+      <c r="H686" s="21"/>
     </row>
     <row r="687" ht="12.75" spans="2:8">
       <c r="B687" s="14"/>
-      <c r="H687" s="16"/>
+      <c r="H687" s="21"/>
     </row>
     <row r="688" ht="12.75" spans="2:8">
       <c r="B688" s="14"/>
-      <c r="H688" s="16"/>
+      <c r="H688" s="21"/>
     </row>
     <row r="689" ht="12.75" spans="2:8">
       <c r="B689" s="14"/>
-      <c r="H689" s="16"/>
+      <c r="H689" s="21"/>
     </row>
     <row r="690" ht="12.75" spans="2:8">
       <c r="B690" s="14"/>
-      <c r="H690" s="16"/>
+      <c r="H690" s="21"/>
     </row>
     <row r="691" ht="12.75" spans="2:8">
       <c r="B691" s="14"/>
-      <c r="H691" s="16"/>
+      <c r="H691" s="21"/>
     </row>
     <row r="692" ht="12.75" spans="2:8">
       <c r="B692" s="14"/>
-      <c r="H692" s="16"/>
+      <c r="H692" s="21"/>
     </row>
     <row r="693" ht="12.75" spans="2:8">
       <c r="B693" s="14"/>
-      <c r="H693" s="16"/>
+      <c r="H693" s="21"/>
     </row>
     <row r="694" ht="12.75" spans="2:8">
       <c r="B694" s="14"/>
-      <c r="H694" s="16"/>
+      <c r="H694" s="21"/>
     </row>
     <row r="695" ht="12.75" spans="2:8">
       <c r="B695" s="14"/>
-      <c r="H695" s="16"/>
+      <c r="H695" s="21"/>
     </row>
     <row r="696" ht="12.75" spans="2:8">
       <c r="B696" s="14"/>
-      <c r="H696" s="16"/>
+      <c r="H696" s="21"/>
     </row>
     <row r="697" ht="12.75" spans="2:8">
       <c r="B697" s="14"/>
-      <c r="H697" s="16"/>
+      <c r="H697" s="21"/>
     </row>
     <row r="698" ht="12.75" spans="2:8">
       <c r="B698" s="14"/>
-      <c r="H698" s="16"/>
+      <c r="H698" s="21"/>
     </row>
     <row r="699" ht="12.75" spans="2:8">
       <c r="B699" s="14"/>
-      <c r="H699" s="16"/>
+      <c r="H699" s="21"/>
     </row>
     <row r="700" ht="12.75" spans="2:8">
       <c r="B700" s="14"/>
-      <c r="H700" s="16"/>
+      <c r="H700" s="21"/>
     </row>
     <row r="701" ht="12.75" spans="2:8">
       <c r="B701" s="14"/>
-      <c r="H701" s="16"/>
+      <c r="H701" s="21"/>
     </row>
     <row r="702" ht="12.75" spans="2:8">
       <c r="B702" s="14"/>
-      <c r="H702" s="16"/>
+      <c r="H702" s="21"/>
     </row>
     <row r="703" ht="12.75" spans="2:8">
       <c r="B703" s="14"/>
-      <c r="H703" s="16"/>
+      <c r="H703" s="21"/>
     </row>
     <row r="704" ht="12.75" spans="2:8">
       <c r="B704" s="14"/>
-      <c r="H704" s="16"/>
+      <c r="H704" s="21"/>
     </row>
     <row r="705" ht="12.75" spans="2:8">
       <c r="B705" s="14"/>
-      <c r="H705" s="16"/>
+      <c r="H705" s="21"/>
     </row>
     <row r="706" ht="12.75" spans="2:8">
       <c r="B706" s="14"/>
-      <c r="H706" s="16"/>
+      <c r="H706" s="21"/>
     </row>
     <row r="707" ht="12.75" spans="2:8">
       <c r="B707" s="14"/>
-      <c r="H707" s="16"/>
+      <c r="H707" s="21"/>
     </row>
     <row r="708" ht="12.75" spans="2:8">
       <c r="B708" s="14"/>
-      <c r="H708" s="16"/>
+      <c r="H708" s="21"/>
     </row>
     <row r="709" ht="12.75" spans="2:8">
       <c r="B709" s="14"/>
-      <c r="H709" s="16"/>
+      <c r="H709" s="21"/>
     </row>
     <row r="710" ht="12.75" spans="2:8">
       <c r="B710" s="14"/>
-      <c r="H710" s="16"/>
+      <c r="H710" s="21"/>
     </row>
     <row r="711" ht="12.75" spans="2:8">
       <c r="B711" s="14"/>
-      <c r="H711" s="16"/>
+      <c r="H711" s="21"/>
     </row>
     <row r="712" ht="12.75" spans="2:8">
       <c r="B712" s="14"/>
-      <c r="H712" s="16"/>
+      <c r="H712" s="21"/>
     </row>
     <row r="713" ht="12.75" spans="2:8">
       <c r="B713" s="14"/>
-      <c r="H713" s="16"/>
+      <c r="H713" s="21"/>
     </row>
     <row r="714" ht="12.75" spans="2:8">
       <c r="B714" s="14"/>
-      <c r="H714" s="16"/>
+      <c r="H714" s="21"/>
     </row>
     <row r="715" ht="12.75" spans="2:8">
       <c r="B715" s="14"/>
-      <c r="H715" s="16"/>
+      <c r="H715" s="21"/>
     </row>
     <row r="716" ht="12.75" spans="2:8">
       <c r="B716" s="14"/>
-      <c r="H716" s="16"/>
+      <c r="H716" s="21"/>
     </row>
     <row r="717" ht="12.75" spans="2:8">
       <c r="B717" s="14"/>
-      <c r="H717" s="16"/>
+      <c r="H717" s="21"/>
     </row>
     <row r="718" ht="12.75" spans="2:8">
       <c r="B718" s="14"/>
-      <c r="H718" s="16"/>
+      <c r="H718" s="21"/>
     </row>
     <row r="719" ht="12.75" spans="2:8">
       <c r="B719" s="14"/>
-      <c r="H719" s="16"/>
+      <c r="H719" s="21"/>
     </row>
     <row r="720" ht="12.75" spans="2:8">
       <c r="B720" s="14"/>
-      <c r="H720" s="16"/>
+      <c r="H720" s="21"/>
     </row>
     <row r="721" ht="12.75" spans="2:8">
       <c r="B721" s="14"/>
-      <c r="H721" s="16"/>
+      <c r="H721" s="21"/>
     </row>
     <row r="722" ht="12.75" spans="2:8">
       <c r="B722" s="14"/>
-      <c r="H722" s="16"/>
+      <c r="H722" s="21"/>
     </row>
     <row r="723" ht="12.75" spans="2:8">
       <c r="B723" s="14"/>
-      <c r="H723" s="16"/>
+      <c r="H723" s="21"/>
     </row>
     <row r="724" ht="12.75" spans="2:8">
       <c r="B724" s="14"/>
-      <c r="H724" s="16"/>
+      <c r="H724" s="21"/>
     </row>
     <row r="725" ht="12.75" spans="2:8">
       <c r="B725" s="14"/>
-      <c r="H725" s="16"/>
+      <c r="H725" s="21"/>
     </row>
     <row r="726" ht="12.75" spans="2:8">
       <c r="B726" s="14"/>
-      <c r="H726" s="16"/>
+      <c r="H726" s="21"/>
     </row>
     <row r="727" ht="12.75" spans="2:8">
       <c r="B727" s="14"/>
-      <c r="H727" s="16"/>
+      <c r="H727" s="21"/>
     </row>
     <row r="728" ht="12.75" spans="2:8">
       <c r="B728" s="14"/>
-      <c r="H728" s="16"/>
+      <c r="H728" s="21"/>
     </row>
     <row r="729" ht="12.75" spans="2:8">
       <c r="B729" s="14"/>
-      <c r="H729" s="16"/>
+      <c r="H729" s="21"/>
     </row>
     <row r="730" ht="12.75" spans="2:8">
       <c r="B730" s="14"/>
-      <c r="H730" s="16"/>
+      <c r="H730" s="21"/>
     </row>
     <row r="731" ht="12.75" spans="2:8">
       <c r="B731" s="14"/>
-      <c r="H731" s="16"/>
+      <c r="H731" s="21"/>
     </row>
     <row r="732" ht="12.75" spans="2:8">
       <c r="B732" s="14"/>
-      <c r="H732" s="16"/>
+      <c r="H732" s="21"/>
     </row>
     <row r="733" ht="12.75" spans="2:8">
       <c r="B733" s="14"/>
-      <c r="H733" s="16"/>
+      <c r="H733" s="21"/>
     </row>
     <row r="734" ht="12.75" spans="2:8">
       <c r="B734" s="14"/>
-      <c r="H734" s="16"/>
+      <c r="H734" s="21"/>
     </row>
     <row r="735" ht="12.75" spans="2:8">
       <c r="B735" s="14"/>
-      <c r="H735" s="16"/>
+      <c r="H735" s="21"/>
     </row>
     <row r="736" ht="12.75" spans="2:8">
       <c r="B736" s="14"/>
-      <c r="H736" s="16"/>
+      <c r="H736" s="21"/>
     </row>
     <row r="737" ht="12.75" spans="2:8">
       <c r="B737" s="14"/>
-      <c r="H737" s="16"/>
+      <c r="H737" s="21"/>
     </row>
     <row r="738" ht="12.75" spans="2:8">
       <c r="B738" s="14"/>
-      <c r="H738" s="16"/>
+      <c r="H738" s="21"/>
     </row>
     <row r="739" ht="12.75" spans="2:8">
       <c r="B739" s="14"/>
-      <c r="H739" s="16"/>
+      <c r="H739" s="21"/>
     </row>
     <row r="740" ht="12.75" spans="2:8">
       <c r="B740" s="14"/>
-      <c r="H740" s="16"/>
+      <c r="H740" s="21"/>
     </row>
     <row r="741" ht="12.75" spans="2:8">
       <c r="B741" s="14"/>
-      <c r="H741" s="16"/>
+      <c r="H741" s="21"/>
     </row>
     <row r="742" ht="12.75" spans="2:8">
       <c r="B742" s="14"/>
-      <c r="H742" s="16"/>
+      <c r="H742" s="21"/>
     </row>
     <row r="743" ht="12.75" spans="2:8">
       <c r="B743" s="14"/>
-      <c r="H743" s="16"/>
+      <c r="H743" s="21"/>
     </row>
     <row r="744" ht="12.75" spans="2:8">
       <c r="B744" s="14"/>
-      <c r="H744" s="16"/>
+      <c r="H744" s="21"/>
     </row>
     <row r="745" ht="12.75" spans="2:8">
       <c r="B745" s="14"/>
-      <c r="H745" s="16"/>
+      <c r="H745" s="21"/>
     </row>
     <row r="746" ht="12.75" spans="2:8">
       <c r="B746" s="14"/>
-      <c r="H746" s="16"/>
+      <c r="H746" s="21"/>
     </row>
     <row r="747" ht="12.75" spans="2:8">
       <c r="B747" s="14"/>
-      <c r="H747" s="16"/>
+      <c r="H747" s="21"/>
     </row>
     <row r="748" ht="12.75" spans="2:8">
       <c r="B748" s="14"/>
-      <c r="H748" s="16"/>
+      <c r="H748" s="21"/>
     </row>
     <row r="749" ht="12.75" spans="2:8">
       <c r="B749" s="14"/>
-      <c r="H749" s="16"/>
+      <c r="H749" s="21"/>
     </row>
     <row r="750" ht="12.75" spans="2:8">
       <c r="B750" s="14"/>
-      <c r="H750" s="16"/>
+      <c r="H750" s="21"/>
     </row>
     <row r="751" ht="12.75" spans="2:8">
       <c r="B751" s="14"/>
-      <c r="H751" s="16"/>
+      <c r="H751" s="21"/>
     </row>
     <row r="752" ht="12.75" spans="2:8">
       <c r="B752" s="14"/>
-      <c r="H752" s="16"/>
+      <c r="H752" s="21"/>
     </row>
     <row r="753" ht="12.75" spans="2:8">
       <c r="B753" s="14"/>
-      <c r="H753" s="16"/>
+      <c r="H753" s="21"/>
     </row>
     <row r="754" ht="12.75" spans="2:8">
       <c r="B754" s="14"/>
-      <c r="H754" s="16"/>
+      <c r="H754" s="21"/>
     </row>
     <row r="755" ht="12.75" spans="2:8">
       <c r="B755" s="14"/>
-      <c r="H755" s="16"/>
+      <c r="H755" s="21"/>
     </row>
     <row r="756" ht="12.75" spans="2:8">
       <c r="B756" s="14"/>
-      <c r="H756" s="16"/>
+      <c r="H756" s="21"/>
     </row>
     <row r="757" ht="12.75" spans="2:8">
       <c r="B757" s="14"/>
-      <c r="H757" s="16"/>
+      <c r="H757" s="21"/>
     </row>
     <row r="758" ht="12.75" spans="2:8">
       <c r="B758" s="14"/>
-      <c r="H758" s="16"/>
+      <c r="H758" s="21"/>
     </row>
     <row r="759" ht="12.75" spans="2:8">
       <c r="B759" s="14"/>
-      <c r="H759" s="16"/>
+      <c r="H759" s="21"/>
     </row>
     <row r="760" ht="12.75" spans="2:8">
       <c r="B760" s="14"/>
-      <c r="H760" s="16"/>
+      <c r="H760" s="21"/>
     </row>
     <row r="761" ht="12.75" spans="2:8">
       <c r="B761" s="14"/>
-      <c r="H761" s="16"/>
+      <c r="H761" s="21"/>
     </row>
     <row r="762" ht="12.75" spans="2:8">
       <c r="B762" s="14"/>
-      <c r="H762" s="16"/>
+      <c r="H762" s="21"/>
     </row>
     <row r="763" ht="12.75" spans="2:8">
       <c r="B763" s="14"/>
-      <c r="H763" s="16"/>
+      <c r="H763" s="21"/>
     </row>
     <row r="764" ht="12.75" spans="2:8">
       <c r="B764" s="14"/>
-      <c r="H764" s="16"/>
+      <c r="H764" s="21"/>
     </row>
     <row r="765" ht="12.75" spans="2:8">
       <c r="B765" s="14"/>
-      <c r="H765" s="16"/>
+      <c r="H765" s="21"/>
     </row>
     <row r="766" ht="12.75" spans="2:8">
       <c r="B766" s="14"/>
-      <c r="H766" s="16"/>
+      <c r="H766" s="21"/>
     </row>
     <row r="767" ht="12.75" spans="2:8">
       <c r="B767" s="14"/>
-      <c r="H767" s="16"/>
+      <c r="H767" s="21"/>
     </row>
     <row r="768" ht="12.75" spans="2:8">
       <c r="B768" s="14"/>
-      <c r="H768" s="16"/>
+      <c r="H768" s="21"/>
     </row>
     <row r="769" ht="12.75" spans="2:8">
       <c r="B769" s="14"/>
-      <c r="H769" s="16"/>
+      <c r="H769" s="21"/>
     </row>
     <row r="770" ht="12.75" spans="2:8">
       <c r="B770" s="14"/>
-      <c r="H770" s="16"/>
+      <c r="H770" s="21"/>
     </row>
     <row r="771" ht="12.75" spans="2:8">
       <c r="B771" s="14"/>
-      <c r="H771" s="16"/>
+      <c r="H771" s="21"/>
     </row>
     <row r="772" ht="12.75" spans="2:8">
       <c r="B772" s="14"/>
-      <c r="H772" s="16"/>
+      <c r="H772" s="21"/>
     </row>
     <row r="773" ht="12.75" spans="2:8">
       <c r="B773" s="14"/>
-      <c r="H773" s="16"/>
+      <c r="H773" s="21"/>
     </row>
     <row r="774" ht="12.75" spans="2:8">
       <c r="B774" s="14"/>
-      <c r="H774" s="16"/>
+      <c r="H774" s="21"/>
     </row>
     <row r="775" ht="12.75" spans="2:8">
       <c r="B775" s="14"/>
-      <c r="H775" s="16"/>
+      <c r="H775" s="21"/>
     </row>
     <row r="776" ht="12.75" spans="2:8">
       <c r="B776" s="14"/>
-      <c r="H776" s="16"/>
+      <c r="H776" s="21"/>
     </row>
     <row r="777" ht="12.75" spans="2:8">
       <c r="B777" s="14"/>
-      <c r="H777" s="16"/>
+      <c r="H777" s="21"/>
     </row>
     <row r="778" ht="12.75" spans="2:8">
       <c r="B778" s="14"/>
-      <c r="H778" s="16"/>
+      <c r="H778" s="21"/>
     </row>
     <row r="779" ht="12.75" spans="2:8">
       <c r="B779" s="14"/>
-      <c r="H779" s="16"/>
+      <c r="H779" s="21"/>
     </row>
     <row r="780" ht="12.75" spans="2:8">
       <c r="B780" s="14"/>
-      <c r="H780" s="16"/>
+      <c r="H780" s="21"/>
     </row>
     <row r="781" ht="12.75" spans="2:8">
       <c r="B781" s="14"/>
-      <c r="H781" s="16"/>
+      <c r="H781" s="21"/>
     </row>
     <row r="782" ht="12.75" spans="2:8">
       <c r="B782" s="14"/>
-      <c r="H782" s="16"/>
+      <c r="H782" s="21"/>
     </row>
     <row r="783" ht="12.75" spans="2:8">
       <c r="B783" s="14"/>
-      <c r="H783" s="16"/>
+      <c r="H783" s="21"/>
     </row>
     <row r="784" ht="12.75" spans="2:8">
       <c r="B784" s="14"/>
-      <c r="H784" s="16"/>
+      <c r="H784" s="21"/>
     </row>
     <row r="785" ht="12.75" spans="2:8">
       <c r="B785" s="14"/>
-      <c r="H785" s="16"/>
+      <c r="H785" s="21"/>
     </row>
     <row r="786" ht="12.75" spans="2:8">
       <c r="B786" s="14"/>
-      <c r="H786" s="16"/>
+      <c r="H786" s="21"/>
     </row>
     <row r="787" ht="12.75" spans="2:8">
       <c r="B787" s="14"/>
-      <c r="H787" s="16"/>
+      <c r="H787" s="21"/>
     </row>
     <row r="788" ht="12.75" spans="2:8">
       <c r="B788" s="14"/>
-      <c r="H788" s="16"/>
+      <c r="H788" s="21"/>
     </row>
     <row r="789" ht="12.75" spans="2:8">
       <c r="B789" s="14"/>
-      <c r="H789" s="16"/>
+      <c r="H789" s="21"/>
     </row>
     <row r="790" ht="12.75" spans="2:8">
       <c r="B790" s="14"/>
-      <c r="H790" s="16"/>
+      <c r="H790" s="21"/>
     </row>
     <row r="791" ht="12.75" spans="2:8">
       <c r="B791" s="14"/>
-      <c r="H791" s="16"/>
+      <c r="H791" s="21"/>
     </row>
     <row r="792" ht="12.75" spans="2:8">
       <c r="B792" s="14"/>
-      <c r="H792" s="16"/>
+      <c r="H792" s="21"/>
     </row>
     <row r="793" ht="12.75" spans="2:8">
       <c r="B793" s="14"/>
-      <c r="H793" s="16"/>
+      <c r="H793" s="21"/>
     </row>
     <row r="794" ht="12.75" spans="2:8">
       <c r="B794" s="14"/>
-      <c r="H794" s="16"/>
+      <c r="H794" s="21"/>
     </row>
     <row r="795" ht="12.75" spans="2:8">
       <c r="B795" s="14"/>
-      <c r="H795" s="16"/>
+      <c r="H795" s="21"/>
     </row>
     <row r="796" ht="12.75" spans="2:8">
       <c r="B796" s="14"/>
-      <c r="H796" s="16"/>
+      <c r="H796" s="21"/>
     </row>
     <row r="797" ht="12.75" spans="2:8">
       <c r="B797" s="14"/>
-      <c r="H797" s="16"/>
+      <c r="H797" s="21"/>
     </row>
     <row r="798" ht="12.75" spans="2:8">
       <c r="B798" s="14"/>
-      <c r="H798" s="16"/>
+      <c r="H798" s="21"/>
     </row>
     <row r="799" ht="12.75" spans="2:8">
       <c r="B799" s="14"/>
-      <c r="H799" s="16"/>
+      <c r="H799" s="21"/>
     </row>
     <row r="800" ht="12.75" spans="2:8">
       <c r="B800" s="14"/>
-      <c r="H800" s="16"/>
+      <c r="H800" s="21"/>
     </row>
     <row r="801" ht="12.75" spans="2:8">
       <c r="B801" s="14"/>
-      <c r="H801" s="16"/>
+      <c r="H801" s="21"/>
     </row>
     <row r="802" ht="12.75" spans="2:8">
       <c r="B802" s="14"/>
-      <c r="H802" s="16"/>
+      <c r="H802" s="21"/>
     </row>
     <row r="803" ht="12.75" spans="2:8">
       <c r="B803" s="14"/>
-      <c r="H803" s="16"/>
+      <c r="H803" s="21"/>
     </row>
     <row r="804" ht="12.75" spans="2:8">
       <c r="B804" s="14"/>
-      <c r="H804" s="16"/>
+      <c r="H804" s="21"/>
     </row>
     <row r="805" ht="12.75" spans="2:8">
       <c r="B805" s="14"/>
-      <c r="H805" s="16"/>
+      <c r="H805" s="21"/>
     </row>
     <row r="806" ht="12.75" spans="2:8">
       <c r="B806" s="14"/>
-      <c r="H806" s="16"/>
+      <c r="H806" s="21"/>
     </row>
     <row r="807" ht="12.75" spans="2:8">
       <c r="B807" s="14"/>
-      <c r="H807" s="16"/>
+      <c r="H807" s="21"/>
     </row>
     <row r="808" ht="12.75" spans="2:8">
       <c r="B808" s="14"/>
-      <c r="H808" s="16"/>
+      <c r="H808" s="21"/>
     </row>
     <row r="809" ht="12.75" spans="2:8">
       <c r="B809" s="14"/>
-      <c r="H809" s="16"/>
+      <c r="H809" s="21"/>
     </row>
     <row r="810" ht="12.75" spans="2:8">
       <c r="B810" s="14"/>
-      <c r="H810" s="16"/>
+      <c r="H810" s="21"/>
     </row>
     <row r="811" ht="12.75" spans="2:8">
       <c r="B811" s="14"/>
-      <c r="H811" s="16"/>
+      <c r="H811" s="21"/>
     </row>
     <row r="812" ht="12.75" spans="2:8">
       <c r="B812" s="14"/>
-      <c r="H812" s="16"/>
+      <c r="H812" s="21"/>
     </row>
     <row r="813" ht="12.75" spans="2:8">
       <c r="B813" s="14"/>
-      <c r="H813" s="16"/>
+      <c r="H813" s="21"/>
     </row>
     <row r="814" ht="12.75" spans="2:8">
       <c r="B814" s="14"/>
-      <c r="H814" s="16"/>
+      <c r="H814" s="21"/>
     </row>
     <row r="815" ht="12.75" spans="2:8">
       <c r="B815" s="14"/>
-      <c r="H815" s="16"/>
+      <c r="H815" s="21"/>
     </row>
     <row r="816" ht="12.75" spans="2:8">
       <c r="B816" s="14"/>
-      <c r="H816" s="16"/>
+      <c r="H816" s="21"/>
     </row>
     <row r="817" ht="12.75" spans="2:8">
       <c r="B817" s="14"/>
-      <c r="H817" s="16"/>
+      <c r="H817" s="21"/>
     </row>
     <row r="818" ht="12.75" spans="2:8">
       <c r="B818" s="14"/>
-      <c r="H818" s="16"/>
+      <c r="H818" s="21"/>
     </row>
     <row r="819" ht="12.75" spans="2:8">
       <c r="B819" s="14"/>
-      <c r="H819" s="16"/>
+      <c r="H819" s="21"/>
     </row>
     <row r="820" ht="12.75" spans="2:8">
       <c r="B820" s="14"/>
-      <c r="H820" s="16"/>
+      <c r="H820" s="21"/>
     </row>
     <row r="821" ht="12.75" spans="2:8">
       <c r="B821" s="14"/>
-      <c r="H821" s="16"/>
+      <c r="H821" s="21"/>
     </row>
     <row r="822" ht="12.75" spans="2:8">
       <c r="B822" s="14"/>
-      <c r="H822" s="16"/>
+      <c r="H822" s="21"/>
     </row>
     <row r="823" ht="12.75" spans="2:8">
       <c r="B823" s="14"/>
-      <c r="H823" s="16"/>
+      <c r="H823" s="21"/>
     </row>
     <row r="824" ht="12.75" spans="2:8">
       <c r="B824" s="14"/>
-      <c r="H824" s="16"/>
+      <c r="H824" s="21"/>
     </row>
     <row r="825" ht="12.75" spans="2:8">
       <c r="B825" s="14"/>
-      <c r="H825" s="16"/>
+      <c r="H825" s="21"/>
     </row>
     <row r="826" ht="12.75" spans="2:8">
       <c r="B826" s="14"/>
-      <c r="H826" s="16"/>
+      <c r="H826" s="21"/>
     </row>
     <row r="827" ht="12.75" spans="2:8">
       <c r="B827" s="14"/>
-      <c r="H827" s="16"/>
+      <c r="H827" s="21"/>
     </row>
     <row r="828" ht="12.75" spans="2:8">
       <c r="B828" s="14"/>
-      <c r="H828" s="16"/>
+      <c r="H828" s="21"/>
     </row>
     <row r="829" ht="12.75" spans="2:8">
       <c r="B829" s="14"/>
-      <c r="H829" s="16"/>
+      <c r="H829" s="21"/>
     </row>
     <row r="830" ht="12.75" spans="2:8">
       <c r="B830" s="14"/>
-      <c r="H830" s="16"/>
+      <c r="H830" s="21"/>
     </row>
     <row r="831" ht="12.75" spans="2:8">
       <c r="B831" s="14"/>
-      <c r="H831" s="16"/>
+      <c r="H831" s="21"/>
     </row>
     <row r="832" ht="12.75" spans="2:8">
       <c r="B832" s="14"/>
-      <c r="H832" s="16"/>
+      <c r="H832" s="21"/>
     </row>
     <row r="833" ht="12.75" spans="2:8">
       <c r="B833" s="14"/>
-      <c r="H833" s="16"/>
+      <c r="H833" s="21"/>
     </row>
     <row r="834" ht="12.75" spans="2:8">
       <c r="B834" s="14"/>
-      <c r="H834" s="16"/>
+      <c r="H834" s="21"/>
     </row>
     <row r="835" ht="12.75" spans="2:8">
       <c r="B835" s="14"/>
-      <c r="H835" s="16"/>
+      <c r="H835" s="21"/>
     </row>
     <row r="836" ht="12.75" spans="2:8">
       <c r="B836" s="14"/>
-      <c r="H836" s="16"/>
+      <c r="H836" s="21"/>
     </row>
     <row r="837" ht="12.75" spans="2:8">
       <c r="B837" s="14"/>
-      <c r="H837" s="16"/>
+      <c r="H837" s="21"/>
     </row>
     <row r="838" ht="12.75" spans="2:8">
       <c r="B838" s="14"/>
-      <c r="H838" s="16"/>
+      <c r="H838" s="21"/>
     </row>
     <row r="839" ht="12.75" spans="2:8">
       <c r="B839" s="14"/>
-      <c r="H839" s="16"/>
+      <c r="H839" s="21"/>
     </row>
     <row r="840" ht="12.75" spans="2:8">
       <c r="B840" s="14"/>
-      <c r="H840" s="16"/>
+      <c r="H840" s="21"/>
     </row>
     <row r="841" ht="12.75" spans="2:8">
       <c r="B841" s="14"/>
-      <c r="H841" s="16"/>
+      <c r="H841" s="21"/>
     </row>
     <row r="842" ht="12.75" spans="2:8">
       <c r="B842" s="14"/>
-      <c r="H842" s="16"/>
+      <c r="H842" s="21"/>
     </row>
     <row r="843" ht="12.75" spans="2:8">
       <c r="B843" s="14"/>
-      <c r="H843" s="16"/>
+      <c r="H843" s="21"/>
     </row>
     <row r="844" ht="12.75" spans="2:8">
       <c r="B844" s="14"/>
-      <c r="H844" s="16"/>
+      <c r="H844" s="21"/>
     </row>
     <row r="845" ht="12.75" spans="2:8">
       <c r="B845" s="14"/>
-      <c r="H845" s="16"/>
+      <c r="H845" s="21"/>
     </row>
     <row r="846" ht="12.75" spans="2:8">
       <c r="B846" s="14"/>
-      <c r="H846" s="16"/>
+      <c r="H846" s="21"/>
     </row>
     <row r="847" ht="12.75" spans="2:8">
       <c r="B847" s="14"/>
-      <c r="H847" s="16"/>
+      <c r="H847" s="21"/>
     </row>
     <row r="848" ht="12.75" spans="2:8">
       <c r="B848" s="14"/>
-      <c r="H848" s="16"/>
+      <c r="H848" s="21"/>
     </row>
     <row r="849" ht="12.75" spans="2:8">
       <c r="B849" s="14"/>
-      <c r="H849" s="16"/>
+      <c r="H849" s="21"/>
     </row>
     <row r="850" ht="12.75" spans="2:8">
       <c r="B850" s="14"/>
-      <c r="H850" s="16"/>
+      <c r="H850" s="21"/>
     </row>
     <row r="851" ht="12.75" spans="2:8">
       <c r="B851" s="14"/>
-      <c r="H851" s="16"/>
+      <c r="H851" s="21"/>
     </row>
     <row r="852" ht="12.75" spans="2:8">
       <c r="B852" s="14"/>
-      <c r="H852" s="16"/>
+      <c r="H852" s="21"/>
     </row>
     <row r="853" ht="12.75" spans="2:8">
       <c r="B853" s="14"/>
-      <c r="H853" s="16"/>
+      <c r="H853" s="21"/>
     </row>
     <row r="854" ht="12.75" spans="2:8">
       <c r="B854" s="14"/>
-      <c r="H854" s="16"/>
+      <c r="H854" s="21"/>
     </row>
     <row r="855" ht="12.75" spans="2:8">
       <c r="B855" s="14"/>
-      <c r="H855" s="16"/>
+      <c r="H855" s="21"/>
     </row>
     <row r="856" ht="12.75" spans="2:8">
       <c r="B856" s="14"/>
-      <c r="H856" s="16"/>
+      <c r="H856" s="21"/>
     </row>
     <row r="857" ht="12.75" spans="2:8">
       <c r="B857" s="14"/>
-      <c r="H857" s="16"/>
+      <c r="H857" s="21"/>
     </row>
     <row r="858" ht="12.75" spans="2:8">
       <c r="B858" s="14"/>
-      <c r="H858" s="16"/>
+      <c r="H858" s="21"/>
     </row>
     <row r="859" ht="12.75" spans="2:8">
       <c r="B859" s="14"/>
-      <c r="H859" s="16"/>
+      <c r="H859" s="21"/>
     </row>
     <row r="860" ht="12.75" spans="2:8">
       <c r="B860" s="14"/>
-      <c r="H860" s="16"/>
+      <c r="H860" s="21"/>
     </row>
     <row r="861" ht="12.75" spans="2:8">
       <c r="B861" s="14"/>
-      <c r="H861" s="16"/>
+      <c r="H861" s="21"/>
     </row>
     <row r="862" ht="12.75" spans="2:8">
       <c r="B862" s="14"/>
-      <c r="H862" s="16"/>
+      <c r="H862" s="21"/>
     </row>
     <row r="863" ht="12.75" spans="2:8">
       <c r="B863" s="14"/>
-      <c r="H863" s="16"/>
+      <c r="H863" s="21"/>
     </row>
     <row r="864" ht="12.75" spans="2:8">
       <c r="B864" s="14"/>
-      <c r="H864" s="16"/>
+      <c r="H864" s="21"/>
     </row>
     <row r="865" ht="12.75" spans="2:8">
       <c r="B865" s="14"/>
-      <c r="H865" s="16"/>
+      <c r="H865" s="21"/>
     </row>
     <row r="866" ht="12.75" spans="2:8">
       <c r="B866" s="14"/>
-      <c r="H866" s="16"/>
+      <c r="H866" s="21"/>
     </row>
     <row r="867" ht="12.75" spans="2:8">
       <c r="B867" s="14"/>
-      <c r="H867" s="16"/>
+      <c r="H867" s="21"/>
     </row>
     <row r="868" ht="12.75" spans="2:8">
       <c r="B868" s="14"/>
-      <c r="H868" s="16"/>
+      <c r="H868" s="21"/>
     </row>
     <row r="869" ht="12.75" spans="2:8">
       <c r="B869" s="14"/>
-      <c r="H869" s="16"/>
+      <c r="H869" s="21"/>
     </row>
     <row r="870" ht="12.75" spans="2:8">
       <c r="B870" s="14"/>
-      <c r="H870" s="16"/>
+      <c r="H870" s="21"/>
     </row>
     <row r="871" ht="12.75" spans="2:8">
       <c r="B871" s="14"/>
-      <c r="H871" s="16"/>
+      <c r="H871" s="21"/>
     </row>
     <row r="872" ht="12.75" spans="2:8">
       <c r="B872" s="14"/>
-      <c r="H872" s="16"/>
+      <c r="H872" s="21"/>
     </row>
     <row r="873" ht="12.75" spans="2:8">
       <c r="B873" s="14"/>
-      <c r="H873" s="16"/>
+      <c r="H873" s="21"/>
     </row>
     <row r="874" ht="12.75" spans="2:8">
       <c r="B874" s="14"/>
-      <c r="H874" s="16"/>
+      <c r="H874" s="21"/>
     </row>
     <row r="875" ht="12.75" spans="2:8">
       <c r="B875" s="14"/>
-      <c r="H875" s="16"/>
+      <c r="H875" s="21"/>
     </row>
     <row r="876" ht="12.75" spans="2:8">
       <c r="B876" s="14"/>
-      <c r="H876" s="16"/>
+      <c r="H876" s="21"/>
     </row>
     <row r="877" ht="12.75" spans="2:8">
       <c r="B877" s="14"/>
-      <c r="H877" s="16"/>
+      <c r="H877" s="21"/>
     </row>
     <row r="878" ht="12.75" spans="2:8">
       <c r="B878" s="14"/>
-      <c r="H878" s="16"/>
+      <c r="H878" s="21"/>
     </row>
     <row r="879" ht="12.75" spans="2:8">
       <c r="B879" s="14"/>
-      <c r="H879" s="16"/>
+      <c r="H879" s="21"/>
     </row>
     <row r="880" ht="12.75" spans="2:8">
       <c r="B880" s="14"/>
-      <c r="H880" s="16"/>
+      <c r="H880" s="21"/>
     </row>
     <row r="881" ht="12.75" spans="2:8">
       <c r="B881" s="14"/>
-      <c r="H881" s="16"/>
+      <c r="H881" s="21"/>
     </row>
     <row r="882" ht="12.75" spans="2:8">
       <c r="B882" s="14"/>
-      <c r="H882" s="16"/>
+      <c r="H882" s="21"/>
     </row>
     <row r="883" ht="12.75" spans="2:8">
       <c r="B883" s="14"/>
-      <c r="H883" s="16"/>
+      <c r="H883" s="21"/>
     </row>
     <row r="884" ht="12.75" spans="2:8">
       <c r="B884" s="14"/>
-      <c r="H884" s="16"/>
+      <c r="H884" s="21"/>
     </row>
     <row r="885" ht="12.75" spans="2:8">
       <c r="B885" s="14"/>
-      <c r="H885" s="16"/>
+      <c r="H885" s="21"/>
     </row>
     <row r="886" ht="12.75" spans="2:8">
       <c r="B886" s="14"/>
-      <c r="H886" s="16"/>
+      <c r="H886" s="21"/>
     </row>
     <row r="887" ht="12.75" spans="2:8">
       <c r="B887" s="14"/>
-      <c r="H887" s="16"/>
+      <c r="H887" s="21"/>
     </row>
     <row r="888" ht="12.75" spans="2:8">
       <c r="B888" s="14"/>
-      <c r="H888" s="16"/>
+      <c r="H888" s="21"/>
     </row>
     <row r="889" ht="12.75" spans="2:8">
       <c r="B889" s="14"/>
-      <c r="H889" s="16"/>
+      <c r="H889" s="21"/>
     </row>
     <row r="890" ht="12.75" spans="2:8">
       <c r="B890" s="14"/>
-      <c r="H890" s="16"/>
+      <c r="H890" s="21"/>
     </row>
     <row r="891" ht="12.75" spans="2:8">
       <c r="B891" s="14"/>
-      <c r="H891" s="16"/>
+      <c r="H891" s="21"/>
     </row>
     <row r="892" ht="12.75" spans="2:8">
       <c r="B892" s="14"/>
-      <c r="H892" s="16"/>
+      <c r="H892" s="21"/>
     </row>
     <row r="893" ht="12.75" spans="2:8">
       <c r="B893" s="14"/>
-      <c r="H893" s="16"/>
+      <c r="H893" s="21"/>
     </row>
     <row r="894" ht="12.75" spans="2:8">
       <c r="B894" s="14"/>
-      <c r="H894" s="16"/>
+      <c r="H894" s="21"/>
     </row>
     <row r="895" ht="12.75" spans="2:8">
       <c r="B895" s="14"/>
-      <c r="H895" s="16"/>
+      <c r="H895" s="21"/>
     </row>
     <row r="896" ht="12.75" spans="2:8">
       <c r="B896" s="14"/>
-      <c r="H896" s="16"/>
+      <c r="H896" s="21"/>
     </row>
     <row r="897" ht="12.75" spans="2:8">
       <c r="B897" s="14"/>
-      <c r="H897" s="16"/>
+      <c r="H897" s="21"/>
     </row>
     <row r="898" ht="12.75" spans="2:8">
       <c r="B898" s="14"/>
-      <c r="H898" s="16"/>
+      <c r="H898" s="21"/>
     </row>
     <row r="899" ht="12.75" spans="2:8">
       <c r="B899" s="14"/>
-      <c r="H899" s="16"/>
+      <c r="H899" s="21"/>
     </row>
     <row r="900" ht="12.75" spans="2:8">
       <c r="B900" s="14"/>
-      <c r="H900" s="16"/>
+      <c r="H900" s="21"/>
     </row>
     <row r="901" ht="12.75" spans="2:8">
       <c r="B901" s="14"/>
-      <c r="H901" s="16"/>
+      <c r="H901" s="21"/>
     </row>
     <row r="902" ht="12.75" spans="2:8">
       <c r="B902" s="14"/>
-      <c r="H902" s="16"/>
+      <c r="H902" s="21"/>
     </row>
     <row r="903" ht="12.75" spans="2:8">
       <c r="B903" s="14"/>
-      <c r="H903" s="16"/>
+      <c r="H903" s="21"/>
     </row>
     <row r="904" ht="12.75" spans="2:8">
       <c r="B904" s="14"/>
-      <c r="H904" s="16"/>
+      <c r="H904" s="21"/>
     </row>
     <row r="905" ht="12.75" spans="2:8">
       <c r="B905" s="14"/>
-      <c r="H905" s="16"/>
+      <c r="H905" s="21"/>
     </row>
     <row r="906" ht="12.75" spans="2:8">
       <c r="B906" s="14"/>
-      <c r="H906" s="16"/>
+      <c r="H906" s="21"/>
     </row>
     <row r="907" ht="12.75" spans="2:8">
       <c r="B907" s="14"/>
-      <c r="H907" s="16"/>
+      <c r="H907" s="21"/>
     </row>
     <row r="908" ht="12.75" spans="2:8">
       <c r="B908" s="14"/>
-      <c r="H908" s="16"/>
+      <c r="H908" s="21"/>
     </row>
     <row r="909" ht="12.75" spans="2:8">
       <c r="B909" s="14"/>
-      <c r="H909" s="16"/>
+      <c r="H909" s="21"/>
     </row>
     <row r="910" ht="12.75" spans="2:8">
       <c r="B910" s="14"/>
-      <c r="H910" s="16"/>
+      <c r="H910" s="21"/>
     </row>
     <row r="911" ht="12.75" spans="2:8">
       <c r="B911" s="14"/>
-      <c r="H911" s="16"/>
+      <c r="H911" s="21"/>
     </row>
     <row r="912" ht="12.75" spans="2:8">
       <c r="B912" s="14"/>
-      <c r="H912" s="16"/>
+      <c r="H912" s="21"/>
     </row>
     <row r="913" ht="12.75" spans="2:8">
       <c r="B913" s="14"/>
-      <c r="H913" s="16"/>
+      <c r="H913" s="21"/>
     </row>
     <row r="914" ht="12.75" spans="2:8">
       <c r="B914" s="14"/>
-      <c r="H914" s="16"/>
+      <c r="H914" s="21"/>
     </row>
     <row r="915" ht="12.75" spans="2:8">
       <c r="B915" s="14"/>
-      <c r="H915" s="16"/>
+      <c r="H915" s="21"/>
     </row>
     <row r="916" ht="12.75" spans="2:8">
       <c r="B916" s="14"/>
-      <c r="H916" s="16"/>
+      <c r="H916" s="21"/>
     </row>
     <row r="917" ht="12.75" spans="2:8">
       <c r="B917" s="14"/>
-      <c r="H917" s="16"/>
+      <c r="H917" s="21"/>
     </row>
     <row r="918" ht="12.75" spans="2:8">
       <c r="B918" s="14"/>
-      <c r="H918" s="16"/>
+      <c r="H918" s="21"/>
     </row>
     <row r="919" ht="12.75" spans="2:8">
       <c r="B919" s="14"/>
-      <c r="H919" s="16"/>
+      <c r="H919" s="21"/>
     </row>
     <row r="920" ht="12.75" spans="2:8">
       <c r="B920" s="14"/>
-      <c r="H920" s="16"/>
+      <c r="H920" s="21"/>
     </row>
     <row r="921" ht="12.75" spans="2:8">
       <c r="B921" s="14"/>
-      <c r="H921" s="16"/>
+      <c r="H921" s="21"/>
     </row>
     <row r="922" ht="12.75" spans="2:8">
       <c r="B922" s="14"/>
-      <c r="H922" s="16"/>
+      <c r="H922" s="21"/>
     </row>
     <row r="923" ht="12.75" spans="2:8">
       <c r="B923" s="14"/>
-      <c r="H923" s="16"/>
+      <c r="H923" s="21"/>
     </row>
     <row r="924" ht="12.75" spans="2:8">
       <c r="B924" s="14"/>
-      <c r="H924" s="16"/>
+      <c r="H924" s="21"/>
     </row>
     <row r="925" ht="12.75" spans="2:8">
       <c r="B925" s="14"/>
-      <c r="H925" s="16"/>
+      <c r="H925" s="21"/>
     </row>
     <row r="926" ht="12.75" spans="2:8">
       <c r="B926" s="14"/>
-      <c r="H926" s="16"/>
+      <c r="H926" s="21"/>
     </row>
     <row r="927" ht="12.75" spans="2:8">
       <c r="B927" s="14"/>
-      <c r="H927" s="16"/>
+      <c r="H927" s="21"/>
     </row>
     <row r="928" ht="12.75" spans="2:8">
       <c r="B928" s="14"/>
-      <c r="H928" s="16"/>
+      <c r="H928" s="21"/>
     </row>
     <row r="929" ht="12.75" spans="2:8">
       <c r="B929" s="14"/>
-      <c r="H929" s="16"/>
+      <c r="H929" s="21"/>
     </row>
     <row r="930" ht="12.75" spans="2:8">
       <c r="B930" s="14"/>
-      <c r="H930" s="16"/>
+      <c r="H930" s="21"/>
     </row>
     <row r="931" ht="12.75" spans="2:8">
       <c r="B931" s="14"/>
-      <c r="H931" s="16"/>
+      <c r="H931" s="21"/>
     </row>
     <row r="932" ht="12.75" spans="2:8">
       <c r="B932" s="14"/>
-      <c r="H932" s="16"/>
+      <c r="H932" s="21"/>
     </row>
     <row r="933" ht="12.75" spans="2:8">
       <c r="B933" s="14"/>
-      <c r="H933" s="16"/>
+      <c r="H933" s="21"/>
     </row>
     <row r="934" ht="12.75" spans="2:8">
       <c r="B934" s="14"/>
-      <c r="H934" s="16"/>
+      <c r="H934" s="21"/>
     </row>
     <row r="935" ht="12.75" spans="2:8">
       <c r="B935" s="14"/>
-      <c r="H935" s="16"/>
+      <c r="H935" s="21"/>
     </row>
     <row r="936" ht="12.75" spans="2:8">
       <c r="B936" s="14"/>
-      <c r="H936" s="16"/>
+      <c r="H936" s="21"/>
     </row>
     <row r="937" ht="12.75" spans="2:8">
       <c r="B937" s="14"/>
-      <c r="H937" s="16"/>
+      <c r="H937" s="21"/>
     </row>
     <row r="938" ht="12.75" spans="2:8">
       <c r="B938" s="14"/>
-      <c r="H938" s="16"/>
+      <c r="H938" s="21"/>
     </row>
     <row r="939" ht="12.75" spans="2:8">
       <c r="B939" s="14"/>
-      <c r="H939" s="16"/>
+      <c r="H939" s="21"/>
     </row>
     <row r="940" ht="12.75" spans="2:8">
       <c r="B940" s="14"/>
-      <c r="H940" s="16"/>
+      <c r="H940" s="21"/>
     </row>
     <row r="941" ht="12.75" spans="2:8">
       <c r="B941" s="14"/>
-      <c r="H941" s="16"/>
+      <c r="H941" s="21"/>
     </row>
     <row r="942" ht="12.75" spans="2:8">
       <c r="B942" s="14"/>
-      <c r="H942" s="16"/>
+      <c r="H942" s="21"/>
     </row>
     <row r="943" ht="12.75" spans="2:8">
       <c r="B943" s="14"/>
-      <c r="H943" s="16"/>
+      <c r="H943" s="21"/>
     </row>
     <row r="944" ht="12.75" spans="2:8">
       <c r="B944" s="14"/>
-      <c r="H944" s="16"/>
+      <c r="H944" s="21"/>
     </row>
     <row r="945" ht="12.75" spans="2:8">
       <c r="B945" s="14"/>
-      <c r="H945" s="16"/>
+      <c r="H945" s="21"/>
     </row>
     <row r="946" ht="12.75" spans="2:8">
       <c r="B946" s="14"/>
-      <c r="H946" s="16"/>
+      <c r="H946" s="21"/>
     </row>
     <row r="947" ht="12.75" spans="2:8">
       <c r="B947" s="14"/>
-      <c r="H947" s="16"/>
+      <c r="H947" s="21"/>
     </row>
     <row r="948" ht="12.75" spans="2:8">
       <c r="B948" s="14"/>
-      <c r="H948" s="16"/>
+      <c r="H948" s="21"/>
     </row>
     <row r="949" ht="12.75" spans="2:8">
       <c r="B949" s="14"/>
-      <c r="H949" s="16"/>
+      <c r="H949" s="21"/>
     </row>
     <row r="950" ht="12.75" spans="2:8">
       <c r="B950" s="14"/>
-      <c r="H950" s="16"/>
+      <c r="H950" s="21"/>
     </row>
     <row r="951" ht="12.75" spans="2:8">
       <c r="B951" s="14"/>
-      <c r="H951" s="16"/>
+      <c r="H951" s="21"/>
     </row>
     <row r="952" ht="12.75" spans="2:8">
       <c r="B952" s="14"/>
-      <c r="H952" s="16"/>
+      <c r="H952" s="21"/>
     </row>
     <row r="953" ht="12.75" spans="2:8">
       <c r="B953" s="14"/>
-      <c r="H953" s="16"/>
+      <c r="H953" s="21"/>
     </row>
     <row r="954" ht="12.75" spans="2:8">
       <c r="B954" s="14"/>
-      <c r="H954" s="16"/>
+      <c r="H954" s="21"/>
     </row>
     <row r="955" ht="12.75" spans="2:8">
       <c r="B955" s="14"/>
-      <c r="H955" s="16"/>
+      <c r="H955" s="21"/>
     </row>
     <row r="956" ht="12.75" spans="2:8">
       <c r="B956" s="14"/>
-      <c r="H956" s="16"/>
+      <c r="H956" s="21"/>
     </row>
     <row r="957" ht="12.75" spans="2:8">
       <c r="B957" s="14"/>
-      <c r="H957" s="16"/>
+      <c r="H957" s="21"/>
     </row>
     <row r="958" ht="12.75" spans="2:8">
       <c r="B958" s="14"/>
-      <c r="H958" s="16"/>
+      <c r="H958" s="21"/>
     </row>
     <row r="959" ht="12.75" spans="2:8">
       <c r="B959" s="14"/>
-      <c r="H959" s="16"/>
+      <c r="H959" s="21"/>
     </row>
     <row r="960" ht="12.75" spans="2:8">
       <c r="B960" s="14"/>
-      <c r="H960" s="16"/>
+      <c r="H960" s="21"/>
     </row>
     <row r="961" ht="12.75" spans="2:8">
       <c r="B961" s="14"/>
-      <c r="H961" s="16"/>
+      <c r="H961" s="21"/>
     </row>
     <row r="962" ht="12.75" spans="2:8">
       <c r="B962" s="14"/>
-      <c r="H962" s="16"/>
+      <c r="H962" s="21"/>
     </row>
     <row r="963" ht="12.75" spans="2:8">
       <c r="B963" s="14"/>
-      <c r="H963" s="16"/>
+      <c r="H963" s="21"/>
     </row>
     <row r="964" ht="12.75" spans="8:8">
-      <c r="H964" s="16"/>
+      <c r="H964" s="21"/>
     </row>
     <row r="965" ht="12.75" spans="8:8">
-      <c r="H965" s="16"/>
+      <c r="H965" s="21"/>
     </row>
     <row r="966" ht="12.75" spans="8:8">
-      <c r="H966" s="16"/>
+      <c r="H966" s="21"/>
     </row>
     <row r="967" ht="12.75" spans="8:8">
-      <c r="H967" s="16"/>
+      <c r="H967" s="21"/>
     </row>
     <row r="968" ht="12.75" spans="8:8">
-      <c r="H968" s="16"/>
+      <c r="H968" s="21"/>
     </row>
     <row r="969" ht="12.75" spans="8:8">
-      <c r="H969" s="16"/>
+      <c r="H969" s="21"/>
     </row>
     <row r="970" ht="12.75" spans="8:8">
-      <c r="H970" s="16"/>
+      <c r="H970" s="21"/>
     </row>
     <row r="971" ht="12.75" spans="8:8">
-      <c r="H971" s="16"/>
+      <c r="H971" s="21"/>
     </row>
     <row r="972" ht="12.75" spans="8:8">
-      <c r="H972" s="16"/>
+      <c r="H972" s="21"/>
     </row>
     <row r="973" ht="12.75" spans="8:8">
-      <c r="H973" s="16"/>
+      <c r="H973" s="21"/>
     </row>
     <row r="974" ht="12.75" spans="8:8">
-      <c r="H974" s="16"/>
+      <c r="H974" s="21"/>
     </row>
     <row r="975" ht="12.75" spans="8:8">
-      <c r="H975" s="16"/>
+      <c r="H975" s="21"/>
     </row>
     <row r="976" ht="12.75" spans="8:8">
-      <c r="H976" s="16"/>
+      <c r="H976" s="21"/>
     </row>
     <row r="977" ht="12.75" spans="8:8">
-      <c r="H977" s="16"/>
+      <c r="H977" s="21"/>
     </row>
     <row r="978" ht="12.75" spans="8:8">
-      <c r="H978" s="16"/>
+      <c r="H978" s="21"/>
     </row>
     <row r="979" ht="12.75" spans="8:8">
-      <c r="H979" s="16"/>
+      <c r="H979" s="21"/>
     </row>
     <row r="980" ht="12.75" spans="8:8">
-      <c r="H980" s="16"/>
+      <c r="H980" s="21"/>
     </row>
     <row r="981" ht="12.75" spans="8:8">
-      <c r="H981" s="16"/>
+      <c r="H981" s="21"/>
     </row>
     <row r="982" ht="12.75" spans="8:8">
-      <c r="H982" s="16"/>
+      <c r="H982" s="21"/>
     </row>
     <row r="983" ht="12.75" spans="8:8">
-      <c r="H983" s="16"/>
+      <c r="H983" s="21"/>
     </row>
     <row r="984" ht="12.75" spans="8:8">
-      <c r="H984" s="16"/>
+      <c r="H984" s="21"/>
     </row>
     <row r="985" ht="12.75" spans="8:8">
-      <c r="H985" s="16"/>
+      <c r="H985" s="21"/>
     </row>
     <row r="986" ht="12.75" spans="8:8">
-      <c r="H986" s="16"/>
+      <c r="H986" s="21"/>
     </row>
     <row r="987" ht="12.75" spans="8:8">
-      <c r="H987" s="16"/>
+      <c r="H987" s="21"/>
     </row>
     <row r="988" ht="12.75" spans="8:8">
-      <c r="H988" s="16"/>
+      <c r="H988" s="21"/>
     </row>
     <row r="989" ht="12.75" spans="8:8">
-      <c r="H989" s="16"/>
+      <c r="H989" s="21"/>
     </row>
     <row r="990" ht="12.75" spans="8:8">
-      <c r="H990" s="16"/>
+      <c r="H990" s="21"/>
     </row>
     <row r="991" ht="12.75" spans="8:8">
-      <c r="H991" s="16"/>
+      <c r="H991" s="21"/>
     </row>
     <row r="992" ht="12.75" spans="8:8">
-      <c r="H992" s="16"/>
+      <c r="H992" s="21"/>
     </row>
     <row r="993" ht="12.75" spans="8:8">
-      <c r="H993" s="16"/>
+      <c r="H993" s="21"/>
     </row>
     <row r="994" ht="12.75" spans="8:8">
-      <c r="H994" s="16"/>
+      <c r="H994" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B30 B32:B963">

--- a/room_data.xlsx
+++ b/room_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="14400" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet17" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mmmd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -242,12 +242,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -409,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +432,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -615,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -668,7 +686,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -678,10 +698,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -791,31 +822,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,58 +852,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,10 +909,10 @@
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,10 +921,10 @@
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,10 +933,10 @@
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,10 +945,10 @@
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,11 +957,17 @@
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,40 +985,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,7 +1379,7 @@
   <dimension ref="A1:AA994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1047619047619" defaultRowHeight="15" customHeight="1"/>
@@ -1362,10 +1419,10 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="6" t="s">
@@ -1380,221 +1437,216 @@
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <f t="shared" ref="E2:E3" si="0">D2*75</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <f>C2+D2+E2</f>
-        <v>9500</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="E2" s="10">
+        <v>600</v>
+      </c>
+      <c r="F2" s="11">
+        <f t="shared" ref="F2:F29" si="0">C2+D2+E2</f>
+        <v>10100</v>
+      </c>
+      <c r="G2" s="12">
         <v>24625</v>
       </c>
-      <c r="H2" s="12">
-        <f>F2+G2</f>
-        <v>34125</v>
-      </c>
-      <c r="I2" s="21">
+      <c r="H2" s="13">
+        <f t="shared" ref="H2:H29" si="1">F2+G2</f>
+        <v>34725</v>
+      </c>
+      <c r="I2" s="35">
         <v>7234</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>45589</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="14">
         <v>9000</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
+        <v>525</v>
+      </c>
+      <c r="F3" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <f t="shared" ref="F3:F29" si="1">C3+D3+E3</f>
-        <v>9000</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <f t="shared" ref="H3:H29" si="2">F3+G3</f>
-        <v>9000</v>
-      </c>
-      <c r="I3" s="21">
+        <v>9525</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" si="1"/>
+        <v>9525</v>
+      </c>
+      <c r="I3" s="35">
         <v>5190</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7">
         <v>45589</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="14">
         <v>9000</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
-        <f>(10*75)+(4*100)</f>
-        <v>1150</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E4" s="10">
+        <v>1450</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>10450</v>
+      </c>
+      <c r="G4" s="12">
+        <v>20760</v>
+      </c>
+      <c r="H4" s="13">
         <f t="shared" si="1"/>
-        <v>10150</v>
-      </c>
-      <c r="G4" s="11">
-        <v>20760</v>
-      </c>
-      <c r="H4" s="12">
-        <f t="shared" si="2"/>
-        <v>30910</v>
-      </c>
-      <c r="I4" s="21">
+        <v>31210</v>
+      </c>
+      <c r="I4" s="35">
         <v>8865</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>45589</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>8500</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
-        <f>(10*75)+(10*100)</f>
-        <v>1750</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="10">
+        <v>1150</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>9650</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>10250</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <f t="shared" si="2"/>
-        <v>10250</v>
-      </c>
-      <c r="I5" s="21">
+        <v>9650</v>
+      </c>
+      <c r="I5" s="35">
         <v>2713</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>45589</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>8500</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
-        <f>(10*75)+(11*100)</f>
-        <v>1850</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="10">
+        <v>1450</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>9950</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <f t="shared" si="1"/>
-        <v>10350</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="2"/>
-        <v>10350</v>
-      </c>
-      <c r="I6" s="21">
+        <v>9950</v>
+      </c>
+      <c r="I6" s="35">
         <v>6498</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="16">
         <v>45589</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="15">
         <v>6700</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
         <v>50</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" si="1"/>
         <v>6750</v>
       </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="2"/>
-        <v>6750</v>
-      </c>
-      <c r="I7" s="21">
+      <c r="I7" s="35">
         <v>9357</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7">
         <v>45589</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="14">
         <v>11000</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
         <v>1100</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>12100</v>
+      </c>
+      <c r="G8" s="12">
+        <v>11700</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
-        <v>12100</v>
-      </c>
-      <c r="G8" s="11">
-        <v>11700</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="2"/>
         <v>23800</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="35">
         <v>1026</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="6" t="s">
@@ -1603,94 +1655,94 @@
       <c r="B9" s="7">
         <v>45559</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="14">
         <v>6700</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
         <v>900</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>7600</v>
+      </c>
+      <c r="G9" s="12">
+        <v>7650</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
-        <v>7600</v>
-      </c>
-      <c r="G9" s="11">
-        <v>7650</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="2"/>
         <v>15250</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="35">
         <v>3689</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="23">
         <v>45589</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="22">
         <v>6700</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="24">
         <v>800</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="24">
         <v>450</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>7950</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
         <f t="shared" si="1"/>
         <v>7950</v>
       </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="2"/>
-        <v>7950</v>
-      </c>
-      <c r="I10" s="21">
+      <c r="I10" s="35">
         <v>4572</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7">
         <v>45589</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="14">
         <v>6700</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="14">
         <v>400</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="14">
         <v>1300</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="2"/>
-        <v>8400</v>
-      </c>
-      <c r="I11" s="21">
+      <c r="I11" s="35">
         <v>7841</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="6" t="s">
@@ -1702,59 +1754,59 @@
       <c r="C12" s="8">
         <v>6700</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="14">
         <v>800</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="14">
         <v>450</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>7950</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>7950</v>
       </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="2"/>
-        <v>7950</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="I12" s="35">
         <v>5936</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="7">
         <v>45589</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="14">
         <v>6700</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
         <v>350</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>7050</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
         <v>7050</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="2"/>
-        <v>7050</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="I13" s="35">
         <v>8074</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="6" t="s">
@@ -1763,30 +1815,30 @@
       <c r="B14" s="7">
         <v>45559</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="14">
         <v>6700</v>
       </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
         <v>350</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>7050</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
         <v>7050</v>
       </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="2"/>
-        <v>7050</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="I14" s="35">
         <v>2158</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="8" t="s">
@@ -1795,30 +1847,30 @@
       <c r="B15" s="7">
         <v>45589</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="14">
         <v>11000</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="14">
         <v>0</v>
       </c>
       <c r="E15" s="8">
         <v>300</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>11300</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
         <f t="shared" si="1"/>
         <v>11300</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="2"/>
-        <v>11300</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="I15" s="35">
         <v>6327</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" customHeight="1" spans="1:27">
       <c r="A16" s="8" t="s">
@@ -1833,41 +1885,41 @@
       <c r="D16" s="8">
         <v>400</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="14">
         <v>900</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>12300</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>12300</v>
       </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="2"/>
-        <v>12300</v>
-      </c>
-      <c r="I16" s="23">
+      <c r="I16" s="37">
         <v>9760</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="8" t="s">
@@ -1876,30 +1928,30 @@
       <c r="B17" s="7">
         <v>45589</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="14">
         <v>6700</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
         <v>600</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>7300</v>
+      </c>
+      <c r="G17" s="12">
+        <v>7000</v>
+      </c>
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
-        <v>7300</v>
-      </c>
-      <c r="G17" s="11">
-        <v>7000</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="2"/>
         <v>14300</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="35">
         <v>1483</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="8" t="s">
@@ -1908,94 +1960,94 @@
       <c r="B18" s="7">
         <v>45589</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="14">
         <v>6700</v>
       </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
         <v>400</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>7100</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="2"/>
-        <v>7100</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="I18" s="35">
         <v>3519</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="7">
         <v>45559</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="14">
         <v>6700</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="14">
         <v>800</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="14">
         <v>500</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="G19" s="12">
+        <v>14250</v>
+      </c>
+      <c r="H19" s="13">
         <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="G19" s="11">
-        <v>14250</v>
-      </c>
-      <c r="H19" s="12">
-        <f t="shared" si="2"/>
         <v>22250</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="35">
         <v>4675</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
         <v>45559</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="14">
         <v>11000</v>
       </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
         <v>500</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" si="2"/>
-        <v>11500</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="I20" s="35">
         <v>7102</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="8" t="s">
@@ -2007,27 +2059,27 @@
       <c r="C21" s="8">
         <v>6700</v>
       </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
         <v>100</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="G21" s="12">
+        <v>6900</v>
+      </c>
+      <c r="H21" s="13">
         <f t="shared" si="1"/>
-        <v>6800</v>
-      </c>
-      <c r="G21" s="11">
-        <v>6900</v>
-      </c>
-      <c r="H21" s="12">
-        <f t="shared" si="2"/>
         <v>13700</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="35">
         <v>5287</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="8" t="s">
@@ -2039,91 +2091,91 @@
       <c r="C22" s="8">
         <v>11000</v>
       </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
         <v>450</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>11450</v>
+      </c>
+      <c r="G22" s="12">
+        <v>100</v>
+      </c>
+      <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>11450</v>
-      </c>
-      <c r="G22" s="11">
-        <v>100</v>
-      </c>
-      <c r="H22" s="12">
-        <f t="shared" si="2"/>
         <v>11550</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="35">
         <v>8946</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="7">
         <v>45589</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="14">
         <v>6700</v>
       </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
         <v>400</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>7100</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
         <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
-        <f t="shared" si="2"/>
-        <v>7100</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="I23" s="35">
         <v>2031</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="7">
         <v>45589</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="14">
         <v>11000</v>
       </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
         <v>600</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>11600</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
         <f t="shared" si="1"/>
         <v>11600</v>
       </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
-        <f t="shared" si="2"/>
-        <v>11600</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="I24" s="35">
         <v>6754</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="8" t="s">
@@ -2132,62 +2184,62 @@
       <c r="B25" s="7">
         <v>45589</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="14">
         <v>11000</v>
       </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
         <f t="shared" si="1"/>
         <v>11000</v>
       </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
-        <f t="shared" si="2"/>
-        <v>11000</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="I25" s="35">
         <v>9817</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="7">
         <v>45589</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="14">
         <v>6700</v>
       </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
         <v>450</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>7150</v>
+      </c>
+      <c r="G26" s="12">
+        <v>22400</v>
+      </c>
+      <c r="H26" s="13">
         <f t="shared" si="1"/>
-        <v>7150</v>
-      </c>
-      <c r="G26" s="11">
-        <v>22400</v>
-      </c>
-      <c r="H26" s="12">
-        <f t="shared" si="2"/>
         <v>29550</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="35">
         <v>1390</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="8" t="s">
@@ -2199,27 +2251,27 @@
       <c r="C27" s="8">
         <v>11000</v>
       </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
         <v>500</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <f t="shared" si="2"/>
-        <v>11500</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="I27" s="35">
         <v>3428</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="8" t="s">
@@ -2228,70 +2280,70 @@
       <c r="B28" s="7">
         <v>45589</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="14">
         <v>11000</v>
       </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
         <v>900</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
         <f t="shared" si="1"/>
         <v>11900</v>
       </c>
-      <c r="G28" s="11">
-        <v>12300</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="2"/>
-        <v>24200</v>
-      </c>
-      <c r="I28" s="21">
+      <c r="I28" s="35">
         <v>4561</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" ht="12.75" spans="1:10">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="7">
         <v>45589</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="14">
         <v>11000</v>
       </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
         <v>500</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="21">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
-        <f t="shared" si="2"/>
-        <v>11500</v>
-      </c>
-      <c r="I29" s="21">
+      <c r="I29" s="35">
         <v>7089</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" ht="12.75" spans="2:10">
-      <c r="B30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="21">
+      <c r="B30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="35">
         <v>5632</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" ht="12.75" spans="1:9">
       <c r="A31" s="6" t="s">
@@ -2303,24 +2355,24 @@
       <c r="C31" s="8">
         <v>6700</v>
       </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="31">
         <v>450</v>
       </c>
-      <c r="F31" s="18">
-        <f t="shared" ref="F31:F53" si="3">C31+D31+E31</f>
+      <c r="F31" s="32">
+        <f t="shared" ref="F31:F53" si="2">C31+D31+E31</f>
         <v>7150</v>
       </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" ref="H31:H53" si="4">F31+G31</f>
+      <c r="G31" s="31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="33">
+        <f t="shared" ref="H31:H53" si="3">F31+G31</f>
         <v>7150</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="35">
         <v>9053</v>
       </c>
     </row>
@@ -2331,27 +2383,27 @@
       <c r="B32" s="7">
         <v>45589</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="14">
         <v>11000</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="9">
         <v>800</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="31">
         <v>1300</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="32">
+        <f t="shared" si="2"/>
+        <v>13100</v>
+      </c>
+      <c r="G32" s="31">
+        <v>0</v>
+      </c>
+      <c r="H32" s="33">
         <f t="shared" si="3"/>
         <v>13100</v>
       </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" si="4"/>
-        <v>13100</v>
-      </c>
-      <c r="I32" s="21">
+      <c r="I32" s="35">
         <v>3618</v>
       </c>
     </row>
@@ -2362,27 +2414,27 @@
       <c r="B33" s="7">
         <v>45589</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="14">
         <v>6700</v>
       </c>
-      <c r="D33" s="16">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="31">
         <v>700</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="32">
+        <f t="shared" si="2"/>
+        <v>7400</v>
+      </c>
+      <c r="G33" s="31">
+        <v>23000</v>
+      </c>
+      <c r="H33" s="33">
         <f t="shared" si="3"/>
-        <v>7400</v>
-      </c>
-      <c r="G33" s="17">
-        <v>23000</v>
-      </c>
-      <c r="H33" s="19">
-        <f t="shared" si="4"/>
         <v>30400</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="35">
         <v>5790</v>
       </c>
     </row>
@@ -2393,27 +2445,27 @@
       <c r="B34" s="7">
         <v>45589</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="14">
         <v>6700</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="9">
         <v>800</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="31">
         <v>400</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="32">
+        <f t="shared" si="2"/>
+        <v>7900</v>
+      </c>
+      <c r="G34" s="31">
+        <v>7900</v>
+      </c>
+      <c r="H34" s="33">
         <f t="shared" si="3"/>
-        <v>7900</v>
-      </c>
-      <c r="G34" s="17">
-        <v>7900</v>
-      </c>
-      <c r="H34" s="19">
-        <f t="shared" si="4"/>
         <v>15800</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="35">
         <v>1465</v>
       </c>
     </row>
@@ -2424,27 +2476,27 @@
       <c r="B35" s="7">
         <v>45589</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="14">
         <v>6700</v>
       </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17">
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="31">
         <v>450</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="32">
+        <f t="shared" si="2"/>
+        <v>7150</v>
+      </c>
+      <c r="G35" s="31">
+        <v>42600</v>
+      </c>
+      <c r="H35" s="33">
         <f t="shared" si="3"/>
-        <v>7150</v>
-      </c>
-      <c r="G35" s="17">
-        <v>42600</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" si="4"/>
         <v>49750</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="35">
         <v>8302</v>
       </c>
     </row>
@@ -2455,27 +2507,27 @@
       <c r="B36" s="7">
         <v>45589</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="14">
         <v>6700</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="9">
         <v>800</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="31">
         <v>300</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="32">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+      <c r="G36" s="31">
+        <v>0</v>
+      </c>
+      <c r="H36" s="33">
         <f t="shared" si="3"/>
         <v>7800</v>
       </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="19">
-        <f t="shared" si="4"/>
-        <v>7800</v>
-      </c>
-      <c r="I36" s="21">
+      <c r="I36" s="35">
         <v>2937</v>
       </c>
     </row>
@@ -2486,27 +2538,27 @@
       <c r="B37" s="7">
         <v>45589</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="14">
         <v>6700</v>
       </c>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="31">
         <v>1100</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="32">
+        <f t="shared" si="2"/>
+        <v>7800</v>
+      </c>
+      <c r="G37" s="31">
+        <v>600</v>
+      </c>
+      <c r="H37" s="33">
         <f t="shared" si="3"/>
-        <v>7800</v>
-      </c>
-      <c r="G37" s="17">
-        <v>600</v>
-      </c>
-      <c r="H37" s="19">
-        <f t="shared" si="4"/>
         <v>8400</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="35">
         <v>6104</v>
       </c>
     </row>
@@ -2517,27 +2569,27 @@
       <c r="B38" s="7">
         <v>45589</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="14">
         <v>6700</v>
       </c>
-      <c r="D38" s="16">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="31">
         <v>500</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="32">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="G38" s="31">
+        <v>1699</v>
+      </c>
+      <c r="H38" s="33">
         <f t="shared" si="3"/>
-        <v>7200</v>
-      </c>
-      <c r="G38" s="17">
-        <v>1699</v>
-      </c>
-      <c r="H38" s="19">
-        <f t="shared" si="4"/>
         <v>8899</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="35">
         <v>4859</v>
       </c>
     </row>
@@ -2551,24 +2603,24 @@
       <c r="C39" s="8">
         <v>11000</v>
       </c>
-      <c r="D39" s="16">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
         <v>300</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="32">
+        <f t="shared" si="2"/>
+        <v>11300</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="33">
         <f t="shared" si="3"/>
         <v>11300</v>
       </c>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39" s="19">
-        <f t="shared" si="4"/>
-        <v>11300</v>
-      </c>
-      <c r="I39" s="21">
+      <c r="I39" s="35">
         <v>1726</v>
       </c>
     </row>
@@ -2579,27 +2631,27 @@
       <c r="B40" s="7">
         <v>45589</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="14">
         <v>11000</v>
       </c>
-      <c r="D40" s="16">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="31">
         <v>2100</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="32">
+        <f t="shared" si="2"/>
+        <v>13100</v>
+      </c>
+      <c r="G40" s="31">
+        <v>24450</v>
+      </c>
+      <c r="H40" s="33">
         <f t="shared" si="3"/>
-        <v>13100</v>
-      </c>
-      <c r="G40" s="17">
-        <v>24450</v>
-      </c>
-      <c r="H40" s="19">
-        <f t="shared" si="4"/>
         <v>37550</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="35">
         <v>3581</v>
       </c>
     </row>
@@ -2613,24 +2665,24 @@
       <c r="C41" s="8">
         <v>6700</v>
       </c>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31">
         <v>800</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="32">
+        <f t="shared" si="2"/>
+        <v>7500</v>
+      </c>
+      <c r="G41" s="31">
+        <v>44950</v>
+      </c>
+      <c r="H41" s="33">
         <f t="shared" si="3"/>
-        <v>7500</v>
-      </c>
-      <c r="G41" s="17">
-        <v>44950</v>
-      </c>
-      <c r="H41" s="19">
-        <f t="shared" si="4"/>
         <v>52450</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="35">
         <v>9407</v>
       </c>
     </row>
@@ -2641,27 +2693,27 @@
       <c r="B42" s="7">
         <v>45589</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="14">
         <v>6700</v>
       </c>
-      <c r="D42" s="16">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="31">
         <v>1700</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="32">
+        <f t="shared" si="2"/>
+        <v>8400</v>
+      </c>
+      <c r="G42" s="31">
+        <v>0</v>
+      </c>
+      <c r="H42" s="33">
         <f t="shared" si="3"/>
         <v>8400</v>
       </c>
-      <c r="G42" s="17">
-        <v>0</v>
-      </c>
-      <c r="H42" s="19">
-        <f t="shared" si="4"/>
-        <v>8400</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="I42" s="35">
         <v>1823</v>
       </c>
     </row>
@@ -2672,27 +2724,27 @@
       <c r="B43" s="7">
         <v>45589</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="14">
         <v>6700</v>
       </c>
-      <c r="D43" s="16">
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="31">
         <v>250</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="32">
+        <f t="shared" si="2"/>
+        <v>6950</v>
+      </c>
+      <c r="G43" s="31">
+        <v>3400</v>
+      </c>
+      <c r="H43" s="33">
         <f t="shared" si="3"/>
-        <v>6950</v>
-      </c>
-      <c r="G43" s="17">
-        <v>3400</v>
-      </c>
-      <c r="H43" s="19">
-        <f t="shared" si="4"/>
         <v>10350</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="35">
         <v>5649</v>
       </c>
     </row>
@@ -2703,27 +2755,27 @@
       <c r="B44" s="7">
         <v>45589</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="14">
         <v>11000</v>
       </c>
-      <c r="D44" s="16">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="31">
         <v>1000</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="32">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
+      <c r="H44" s="33">
         <f t="shared" si="3"/>
         <v>12000</v>
       </c>
-      <c r="G44" s="17">
-        <v>0</v>
-      </c>
-      <c r="H44" s="19">
-        <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="I44" s="21">
+      <c r="I44" s="35">
         <v>7390</v>
       </c>
     </row>
@@ -2737,24 +2789,24 @@
       <c r="C45" s="8">
         <v>6700</v>
       </c>
-      <c r="D45" s="20">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="D45" s="34">
+        <v>0</v>
+      </c>
+      <c r="E45" s="31">
         <v>400</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="32">
+        <f t="shared" si="2"/>
+        <v>7100</v>
+      </c>
+      <c r="G45" s="31">
+        <v>0</v>
+      </c>
+      <c r="H45" s="33">
         <f t="shared" si="3"/>
         <v>7100</v>
       </c>
-      <c r="G45" s="17">
-        <v>0</v>
-      </c>
-      <c r="H45" s="19">
-        <f t="shared" si="4"/>
-        <v>7100</v>
-      </c>
-      <c r="I45" s="23">
+      <c r="I45" s="37">
         <v>2076</v>
       </c>
     </row>
@@ -2765,27 +2817,27 @@
       <c r="B46" s="7">
         <v>45589</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="14">
         <v>11000</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="9">
         <v>800</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="31">
         <v>600</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="32">
+        <f t="shared" si="2"/>
+        <v>12400</v>
+      </c>
+      <c r="G46" s="31">
+        <v>0</v>
+      </c>
+      <c r="H46" s="33">
         <f t="shared" si="3"/>
         <v>12400</v>
       </c>
-      <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19">
-        <f t="shared" si="4"/>
-        <v>12400</v>
-      </c>
-      <c r="I46" s="21">
+      <c r="I46" s="35">
         <v>8514</v>
       </c>
     </row>
@@ -2796,27 +2848,27 @@
       <c r="B47" s="7">
         <v>45589</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="14">
         <v>6700</v>
       </c>
-      <c r="D47" s="16">
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="31">
+        <v>0</v>
+      </c>
+      <c r="F47" s="32">
+        <f t="shared" si="2"/>
+        <v>6700</v>
+      </c>
+      <c r="G47" s="31">
+        <v>700</v>
+      </c>
+      <c r="H47" s="33">
         <f t="shared" si="3"/>
-        <v>6700</v>
-      </c>
-      <c r="G47" s="17">
-        <v>700</v>
-      </c>
-      <c r="H47" s="19">
-        <f t="shared" si="4"/>
         <v>7400</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="35">
         <v>4132</v>
       </c>
     </row>
@@ -2827,27 +2879,27 @@
       <c r="B48" s="7">
         <v>45589</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="14">
         <v>11000</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="9">
         <v>800</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="31">
         <v>400</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="32">
+        <f t="shared" si="2"/>
+        <v>12200</v>
+      </c>
+      <c r="G48" s="31">
+        <v>0</v>
+      </c>
+      <c r="H48" s="33">
         <f t="shared" si="3"/>
         <v>12200</v>
       </c>
-      <c r="G48" s="17">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19">
-        <f t="shared" si="4"/>
-        <v>12200</v>
-      </c>
-      <c r="I48" s="21">
+      <c r="I48" s="35">
         <v>6795</v>
       </c>
     </row>
@@ -2858,27 +2910,27 @@
       <c r="B49" s="7">
         <v>45589</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="14">
         <v>11000</v>
       </c>
-      <c r="D49" s="16">
-        <v>0</v>
-      </c>
-      <c r="E49" s="17">
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="31">
         <v>450</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="32">
+        <f t="shared" si="2"/>
+        <v>11450</v>
+      </c>
+      <c r="G49" s="31">
+        <v>4950</v>
+      </c>
+      <c r="H49" s="33">
         <f t="shared" si="3"/>
-        <v>11450</v>
-      </c>
-      <c r="G49" s="17">
-        <v>4950</v>
-      </c>
-      <c r="H49" s="19">
-        <f t="shared" si="4"/>
         <v>16400</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="35">
         <v>3351</v>
       </c>
     </row>
@@ -2892,24 +2944,24 @@
       <c r="C50" s="8">
         <v>6700</v>
       </c>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="31">
         <v>300</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="32">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="G50" s="31">
+        <v>8220</v>
+      </c>
+      <c r="H50" s="33">
         <f t="shared" si="3"/>
-        <v>7000</v>
-      </c>
-      <c r="G50" s="17">
-        <v>8220</v>
-      </c>
-      <c r="H50" s="19">
-        <f t="shared" si="4"/>
         <v>15220</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="35">
         <v>9268</v>
       </c>
     </row>
@@ -2923,24 +2975,24 @@
       <c r="C51" s="8">
         <v>11000</v>
       </c>
-      <c r="D51" s="16">
-        <v>0</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="31">
         <v>700</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="32">
+        <f t="shared" si="2"/>
+        <v>11700</v>
+      </c>
+      <c r="G51" s="31">
+        <v>0</v>
+      </c>
+      <c r="H51" s="33">
         <f t="shared" si="3"/>
         <v>11700</v>
       </c>
-      <c r="G51" s="17">
-        <v>0</v>
-      </c>
-      <c r="H51" s="19">
-        <f t="shared" si="4"/>
-        <v>11700</v>
-      </c>
-      <c r="I51" s="21">
+      <c r="I51" s="35">
         <v>3740</v>
       </c>
     </row>
@@ -2951,27 +3003,27 @@
       <c r="B52" s="7">
         <v>45589</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="14">
         <v>11000</v>
       </c>
-      <c r="D52" s="16">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17">
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="31">
         <v>800</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="32">
+        <f t="shared" si="2"/>
+        <v>11800</v>
+      </c>
+      <c r="G52" s="31">
+        <v>1750</v>
+      </c>
+      <c r="H52" s="33">
         <f t="shared" si="3"/>
-        <v>11800</v>
-      </c>
-      <c r="G52" s="17">
-        <v>1750</v>
-      </c>
-      <c r="H52" s="19">
-        <f t="shared" si="4"/>
         <v>13550</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="35">
         <v>1597</v>
       </c>
     </row>
@@ -2982,3762 +3034,3762 @@
       <c r="B53" s="7">
         <v>45589</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="14">
         <v>11000</v>
       </c>
-      <c r="D53" s="16">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17">
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="31">
         <v>450</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="32">
+        <f t="shared" si="2"/>
+        <v>11450</v>
+      </c>
+      <c r="G53" s="31">
+        <v>5200</v>
+      </c>
+      <c r="H53" s="33">
         <f t="shared" si="3"/>
-        <v>11450</v>
-      </c>
-      <c r="G53" s="17">
-        <v>5200</v>
-      </c>
-      <c r="H53" s="19">
-        <f t="shared" si="4"/>
         <v>16650</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="35">
         <v>5028</v>
       </c>
     </row>
     <row r="54" ht="12.75" spans="2:8">
-      <c r="B54" s="14"/>
-      <c r="H54" s="21"/>
+      <c r="B54" s="29"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" ht="12.75" spans="2:8">
-      <c r="B55" s="14"/>
-      <c r="H55" s="21"/>
+      <c r="B55" s="29"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" ht="12.75" spans="2:8">
-      <c r="B56" s="14"/>
-      <c r="H56" s="21"/>
+      <c r="B56" s="29"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" ht="12.75" spans="2:8">
-      <c r="B57" s="14"/>
-      <c r="H57" s="21"/>
+      <c r="B57" s="29"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" ht="12.75" spans="2:8">
-      <c r="B58" s="14"/>
-      <c r="H58" s="21"/>
+      <c r="B58" s="29"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" ht="12.75" spans="2:8">
-      <c r="B59" s="14"/>
-      <c r="H59" s="21"/>
+      <c r="B59" s="29"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" ht="12.75" spans="2:8">
-      <c r="B60" s="14"/>
-      <c r="H60" s="21"/>
+      <c r="B60" s="29"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" ht="12.75" spans="2:8">
-      <c r="B61" s="14"/>
-      <c r="H61" s="21"/>
+      <c r="B61" s="29"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" ht="12.75" spans="2:8">
-      <c r="B62" s="14"/>
-      <c r="H62" s="21"/>
+      <c r="B62" s="29"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" ht="12.75" spans="2:8">
-      <c r="B63" s="14"/>
-      <c r="H63" s="21"/>
+      <c r="B63" s="29"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" ht="12.75" spans="2:8">
-      <c r="B64" s="14"/>
-      <c r="H64" s="21"/>
+      <c r="B64" s="29"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" ht="12.75" spans="2:8">
-      <c r="B65" s="14"/>
-      <c r="H65" s="21"/>
+      <c r="B65" s="29"/>
+      <c r="H65" s="35"/>
     </row>
     <row r="66" ht="12.75" spans="2:8">
-      <c r="B66" s="14"/>
-      <c r="H66" s="21"/>
+      <c r="B66" s="29"/>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" ht="12.75" spans="2:8">
-      <c r="B67" s="14"/>
-      <c r="H67" s="21"/>
+      <c r="B67" s="29"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" ht="12.75" spans="2:8">
-      <c r="B68" s="14"/>
-      <c r="H68" s="21"/>
+      <c r="B68" s="29"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" ht="12.75" spans="2:8">
-      <c r="B69" s="14"/>
-      <c r="H69" s="21"/>
+      <c r="B69" s="29"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" ht="12.75" spans="2:8">
-      <c r="B70" s="14"/>
-      <c r="H70" s="21"/>
+      <c r="B70" s="29"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" ht="12.75" spans="2:8">
-      <c r="B71" s="14"/>
-      <c r="H71" s="21"/>
+      <c r="B71" s="29"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" ht="12.75" spans="2:8">
-      <c r="B72" s="14"/>
-      <c r="H72" s="21"/>
+      <c r="B72" s="29"/>
+      <c r="H72" s="35"/>
     </row>
     <row r="73" ht="12.75" spans="2:8">
-      <c r="B73" s="14"/>
-      <c r="H73" s="21"/>
+      <c r="B73" s="29"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" ht="12.75" spans="2:8">
-      <c r="B74" s="14"/>
-      <c r="H74" s="21"/>
+      <c r="B74" s="29"/>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" ht="12.75" spans="2:8">
-      <c r="B75" s="14"/>
-      <c r="H75" s="21"/>
+      <c r="B75" s="29"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" ht="12.75" spans="2:8">
-      <c r="B76" s="14"/>
-      <c r="H76" s="21"/>
+      <c r="B76" s="29"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" ht="12.75" spans="2:8">
-      <c r="B77" s="14"/>
-      <c r="H77" s="21"/>
+      <c r="B77" s="29"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" ht="12.75" spans="2:8">
-      <c r="B78" s="14"/>
-      <c r="H78" s="21"/>
+      <c r="B78" s="29"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" ht="12.75" spans="2:8">
-      <c r="B79" s="14"/>
-      <c r="H79" s="21"/>
+      <c r="B79" s="29"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" ht="12.75" spans="2:8">
-      <c r="B80" s="14"/>
-      <c r="H80" s="21"/>
+      <c r="B80" s="29"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" ht="12.75" spans="2:8">
-      <c r="B81" s="14"/>
-      <c r="H81" s="21"/>
+      <c r="B81" s="29"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" ht="12.75" spans="2:8">
-      <c r="B82" s="14"/>
-      <c r="H82" s="21"/>
+      <c r="B82" s="29"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" ht="12.75" spans="2:8">
-      <c r="B83" s="14"/>
-      <c r="H83" s="21"/>
+      <c r="B83" s="29"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" ht="12.75" spans="2:8">
-      <c r="B84" s="14"/>
-      <c r="H84" s="21"/>
+      <c r="B84" s="29"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" ht="12.75" spans="2:8">
-      <c r="B85" s="14"/>
-      <c r="H85" s="21"/>
+      <c r="B85" s="29"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" ht="12.75" spans="2:8">
-      <c r="B86" s="14"/>
-      <c r="H86" s="21"/>
+      <c r="B86" s="29"/>
+      <c r="H86" s="35"/>
     </row>
     <row r="87" ht="12.75" spans="2:8">
-      <c r="B87" s="14"/>
-      <c r="H87" s="21"/>
+      <c r="B87" s="29"/>
+      <c r="H87" s="35"/>
     </row>
     <row r="88" ht="12.75" spans="2:8">
-      <c r="B88" s="14"/>
-      <c r="H88" s="21"/>
+      <c r="B88" s="29"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" ht="12.75" spans="2:8">
-      <c r="B89" s="14"/>
-      <c r="H89" s="21"/>
+      <c r="B89" s="29"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" ht="12.75" spans="2:8">
-      <c r="B90" s="14"/>
-      <c r="H90" s="21"/>
+      <c r="B90" s="29"/>
+      <c r="H90" s="35"/>
     </row>
     <row r="91" ht="12.75" spans="2:8">
-      <c r="B91" s="14"/>
-      <c r="H91" s="21"/>
+      <c r="B91" s="29"/>
+      <c r="H91" s="35"/>
     </row>
     <row r="92" ht="12.75" spans="2:8">
-      <c r="B92" s="14"/>
-      <c r="H92" s="21"/>
+      <c r="B92" s="29"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" ht="12.75" spans="2:8">
-      <c r="B93" s="14"/>
-      <c r="H93" s="21"/>
+      <c r="B93" s="29"/>
+      <c r="H93" s="35"/>
     </row>
     <row r="94" ht="12.75" spans="2:8">
-      <c r="B94" s="14"/>
-      <c r="H94" s="21"/>
+      <c r="B94" s="29"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" ht="12.75" spans="2:8">
-      <c r="B95" s="14"/>
-      <c r="H95" s="21"/>
+      <c r="B95" s="29"/>
+      <c r="H95" s="35"/>
     </row>
     <row r="96" ht="12.75" spans="2:8">
-      <c r="B96" s="14"/>
-      <c r="H96" s="21"/>
+      <c r="B96" s="29"/>
+      <c r="H96" s="35"/>
     </row>
     <row r="97" ht="12.75" spans="2:8">
-      <c r="B97" s="14"/>
-      <c r="H97" s="21"/>
+      <c r="B97" s="29"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" ht="12.75" spans="2:8">
-      <c r="B98" s="14"/>
-      <c r="H98" s="21"/>
+      <c r="B98" s="29"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" ht="12.75" spans="2:8">
-      <c r="B99" s="14"/>
-      <c r="H99" s="21"/>
+      <c r="B99" s="29"/>
+      <c r="H99" s="35"/>
     </row>
     <row r="100" ht="12.75" spans="2:8">
-      <c r="B100" s="14"/>
-      <c r="H100" s="21"/>
+      <c r="B100" s="29"/>
+      <c r="H100" s="35"/>
     </row>
     <row r="101" ht="12.75" spans="2:8">
-      <c r="B101" s="14"/>
-      <c r="H101" s="21"/>
+      <c r="B101" s="29"/>
+      <c r="H101" s="35"/>
     </row>
     <row r="102" ht="12.75" spans="2:8">
-      <c r="B102" s="14"/>
-      <c r="H102" s="21"/>
+      <c r="B102" s="29"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" ht="12.75" spans="2:8">
-      <c r="B103" s="14"/>
-      <c r="H103" s="21"/>
+      <c r="B103" s="29"/>
+      <c r="H103" s="35"/>
     </row>
     <row r="104" ht="12.75" spans="2:8">
-      <c r="B104" s="14"/>
-      <c r="H104" s="21"/>
+      <c r="B104" s="29"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" ht="12.75" spans="2:8">
-      <c r="B105" s="14"/>
-      <c r="H105" s="21"/>
+      <c r="B105" s="29"/>
+      <c r="H105" s="35"/>
     </row>
     <row r="106" ht="12.75" spans="2:8">
-      <c r="B106" s="14"/>
-      <c r="H106" s="21"/>
+      <c r="B106" s="29"/>
+      <c r="H106" s="35"/>
     </row>
     <row r="107" ht="12.75" spans="2:8">
-      <c r="B107" s="14"/>
-      <c r="H107" s="21"/>
+      <c r="B107" s="29"/>
+      <c r="H107" s="35"/>
     </row>
     <row r="108" ht="12.75" spans="2:8">
-      <c r="B108" s="14"/>
-      <c r="H108" s="21"/>
+      <c r="B108" s="29"/>
+      <c r="H108" s="35"/>
     </row>
     <row r="109" ht="12.75" spans="2:8">
-      <c r="B109" s="14"/>
-      <c r="H109" s="21"/>
+      <c r="B109" s="29"/>
+      <c r="H109" s="35"/>
     </row>
     <row r="110" ht="12.75" spans="2:8">
-      <c r="B110" s="14"/>
-      <c r="H110" s="21"/>
+      <c r="B110" s="29"/>
+      <c r="H110" s="35"/>
     </row>
     <row r="111" ht="12.75" spans="2:8">
-      <c r="B111" s="14"/>
-      <c r="H111" s="21"/>
+      <c r="B111" s="29"/>
+      <c r="H111" s="35"/>
     </row>
     <row r="112" ht="12.75" spans="2:8">
-      <c r="B112" s="14"/>
-      <c r="H112" s="21"/>
+      <c r="B112" s="29"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" ht="12.75" spans="2:8">
-      <c r="B113" s="14"/>
-      <c r="H113" s="21"/>
+      <c r="B113" s="29"/>
+      <c r="H113" s="35"/>
     </row>
     <row r="114" ht="12.75" spans="2:8">
-      <c r="B114" s="14"/>
-      <c r="H114" s="21"/>
+      <c r="B114" s="29"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" ht="12.75" spans="2:8">
-      <c r="B115" s="14"/>
-      <c r="H115" s="21"/>
+      <c r="B115" s="29"/>
+      <c r="H115" s="35"/>
     </row>
     <row r="116" ht="12.75" spans="2:8">
-      <c r="B116" s="14"/>
-      <c r="H116" s="21"/>
+      <c r="B116" s="29"/>
+      <c r="H116" s="35"/>
     </row>
     <row r="117" ht="12.75" spans="2:8">
-      <c r="B117" s="14"/>
-      <c r="H117" s="21"/>
+      <c r="B117" s="29"/>
+      <c r="H117" s="35"/>
     </row>
     <row r="118" ht="12.75" spans="2:8">
-      <c r="B118" s="14"/>
-      <c r="H118" s="21"/>
+      <c r="B118" s="29"/>
+      <c r="H118" s="35"/>
     </row>
     <row r="119" ht="12.75" spans="2:8">
-      <c r="B119" s="14"/>
-      <c r="H119" s="21"/>
+      <c r="B119" s="29"/>
+      <c r="H119" s="35"/>
     </row>
     <row r="120" ht="12.75" spans="2:8">
-      <c r="B120" s="14"/>
-      <c r="H120" s="21"/>
+      <c r="B120" s="29"/>
+      <c r="H120" s="35"/>
     </row>
     <row r="121" ht="12.75" spans="2:8">
-      <c r="B121" s="14"/>
-      <c r="H121" s="21"/>
+      <c r="B121" s="29"/>
+      <c r="H121" s="35"/>
     </row>
     <row r="122" ht="12.75" spans="2:8">
-      <c r="B122" s="14"/>
-      <c r="H122" s="21"/>
+      <c r="B122" s="29"/>
+      <c r="H122" s="35"/>
     </row>
     <row r="123" ht="12.75" spans="2:8">
-      <c r="B123" s="14"/>
-      <c r="H123" s="21"/>
+      <c r="B123" s="29"/>
+      <c r="H123" s="35"/>
     </row>
     <row r="124" ht="12.75" spans="2:8">
-      <c r="B124" s="14"/>
-      <c r="H124" s="21"/>
+      <c r="B124" s="29"/>
+      <c r="H124" s="35"/>
     </row>
     <row r="125" ht="12.75" spans="2:8">
-      <c r="B125" s="14"/>
-      <c r="H125" s="21"/>
+      <c r="B125" s="29"/>
+      <c r="H125" s="35"/>
     </row>
     <row r="126" ht="12.75" spans="2:8">
-      <c r="B126" s="14"/>
-      <c r="H126" s="21"/>
+      <c r="B126" s="29"/>
+      <c r="H126" s="35"/>
     </row>
     <row r="127" ht="12.75" spans="2:8">
-      <c r="B127" s="14"/>
-      <c r="H127" s="21"/>
+      <c r="B127" s="29"/>
+      <c r="H127" s="35"/>
     </row>
     <row r="128" ht="12.75" spans="2:8">
-      <c r="B128" s="14"/>
-      <c r="H128" s="21"/>
+      <c r="B128" s="29"/>
+      <c r="H128" s="35"/>
     </row>
     <row r="129" ht="12.75" spans="2:8">
-      <c r="B129" s="14"/>
-      <c r="H129" s="21"/>
+      <c r="B129" s="29"/>
+      <c r="H129" s="35"/>
     </row>
     <row r="130" ht="12.75" spans="2:8">
-      <c r="B130" s="14"/>
-      <c r="H130" s="21"/>
+      <c r="B130" s="29"/>
+      <c r="H130" s="35"/>
     </row>
     <row r="131" ht="12.75" spans="2:8">
-      <c r="B131" s="14"/>
-      <c r="H131" s="21"/>
+      <c r="B131" s="29"/>
+      <c r="H131" s="35"/>
     </row>
     <row r="132" ht="12.75" spans="2:8">
-      <c r="B132" s="14"/>
-      <c r="H132" s="21"/>
+      <c r="B132" s="29"/>
+      <c r="H132" s="35"/>
     </row>
     <row r="133" ht="12.75" spans="2:8">
-      <c r="B133" s="14"/>
-      <c r="H133" s="21"/>
+      <c r="B133" s="29"/>
+      <c r="H133" s="35"/>
     </row>
     <row r="134" ht="12.75" spans="2:8">
-      <c r="B134" s="14"/>
-      <c r="H134" s="21"/>
+      <c r="B134" s="29"/>
+      <c r="H134" s="35"/>
     </row>
     <row r="135" ht="12.75" spans="2:8">
-      <c r="B135" s="14"/>
-      <c r="H135" s="21"/>
+      <c r="B135" s="29"/>
+      <c r="H135" s="35"/>
     </row>
     <row r="136" ht="12.75" spans="2:8">
-      <c r="B136" s="14"/>
-      <c r="H136" s="21"/>
+      <c r="B136" s="29"/>
+      <c r="H136" s="35"/>
     </row>
     <row r="137" ht="12.75" spans="2:8">
-      <c r="B137" s="14"/>
-      <c r="H137" s="21"/>
+      <c r="B137" s="29"/>
+      <c r="H137" s="35"/>
     </row>
     <row r="138" ht="12.75" spans="2:8">
-      <c r="B138" s="14"/>
-      <c r="H138" s="21"/>
+      <c r="B138" s="29"/>
+      <c r="H138" s="35"/>
     </row>
     <row r="139" ht="12.75" spans="2:8">
-      <c r="B139" s="14"/>
-      <c r="H139" s="21"/>
+      <c r="B139" s="29"/>
+      <c r="H139" s="35"/>
     </row>
     <row r="140" ht="12.75" spans="2:8">
-      <c r="B140" s="14"/>
-      <c r="H140" s="21"/>
+      <c r="B140" s="29"/>
+      <c r="H140" s="35"/>
     </row>
     <row r="141" ht="12.75" spans="2:8">
-      <c r="B141" s="14"/>
-      <c r="H141" s="21"/>
+      <c r="B141" s="29"/>
+      <c r="H141" s="35"/>
     </row>
     <row r="142" ht="12.75" spans="2:8">
-      <c r="B142" s="14"/>
-      <c r="H142" s="21"/>
+      <c r="B142" s="29"/>
+      <c r="H142" s="35"/>
     </row>
     <row r="143" ht="12.75" spans="2:8">
-      <c r="B143" s="14"/>
-      <c r="H143" s="21"/>
+      <c r="B143" s="29"/>
+      <c r="H143" s="35"/>
     </row>
     <row r="144" ht="12.75" spans="2:8">
-      <c r="B144" s="14"/>
-      <c r="H144" s="21"/>
+      <c r="B144" s="29"/>
+      <c r="H144" s="35"/>
     </row>
     <row r="145" ht="12.75" spans="2:8">
-      <c r="B145" s="14"/>
-      <c r="H145" s="21"/>
+      <c r="B145" s="29"/>
+      <c r="H145" s="35"/>
     </row>
     <row r="146" ht="12.75" spans="2:8">
-      <c r="B146" s="14"/>
-      <c r="H146" s="21"/>
+      <c r="B146" s="29"/>
+      <c r="H146" s="35"/>
     </row>
     <row r="147" ht="12.75" spans="2:8">
-      <c r="B147" s="14"/>
-      <c r="H147" s="21"/>
+      <c r="B147" s="29"/>
+      <c r="H147" s="35"/>
     </row>
     <row r="148" ht="12.75" spans="2:8">
-      <c r="B148" s="14"/>
-      <c r="H148" s="21"/>
+      <c r="B148" s="29"/>
+      <c r="H148" s="35"/>
     </row>
     <row r="149" ht="12.75" spans="2:8">
-      <c r="B149" s="14"/>
-      <c r="H149" s="21"/>
+      <c r="B149" s="29"/>
+      <c r="H149" s="35"/>
     </row>
     <row r="150" ht="12.75" spans="2:8">
-      <c r="B150" s="14"/>
-      <c r="H150" s="21"/>
+      <c r="B150" s="29"/>
+      <c r="H150" s="35"/>
     </row>
     <row r="151" ht="12.75" spans="2:8">
-      <c r="B151" s="14"/>
-      <c r="H151" s="21"/>
+      <c r="B151" s="29"/>
+      <c r="H151" s="35"/>
     </row>
     <row r="152" ht="12.75" spans="2:8">
-      <c r="B152" s="14"/>
-      <c r="H152" s="21"/>
+      <c r="B152" s="29"/>
+      <c r="H152" s="35"/>
     </row>
     <row r="153" ht="12.75" spans="2:8">
-      <c r="B153" s="14"/>
-      <c r="H153" s="21"/>
+      <c r="B153" s="29"/>
+      <c r="H153" s="35"/>
     </row>
     <row r="154" ht="12.75" spans="2:8">
-      <c r="B154" s="14"/>
-      <c r="H154" s="21"/>
+      <c r="B154" s="29"/>
+      <c r="H154" s="35"/>
     </row>
     <row r="155" ht="12.75" spans="2:8">
-      <c r="B155" s="14"/>
-      <c r="H155" s="21"/>
+      <c r="B155" s="29"/>
+      <c r="H155" s="35"/>
     </row>
     <row r="156" ht="12.75" spans="2:8">
-      <c r="B156" s="14"/>
-      <c r="H156" s="21"/>
+      <c r="B156" s="29"/>
+      <c r="H156" s="35"/>
     </row>
     <row r="157" ht="12.75" spans="2:8">
-      <c r="B157" s="14"/>
-      <c r="H157" s="21"/>
+      <c r="B157" s="29"/>
+      <c r="H157" s="35"/>
     </row>
     <row r="158" ht="12.75" spans="2:8">
-      <c r="B158" s="14"/>
-      <c r="H158" s="21"/>
+      <c r="B158" s="29"/>
+      <c r="H158" s="35"/>
     </row>
     <row r="159" ht="12.75" spans="2:8">
-      <c r="B159" s="14"/>
-      <c r="H159" s="21"/>
+      <c r="B159" s="29"/>
+      <c r="H159" s="35"/>
     </row>
     <row r="160" ht="12.75" spans="2:8">
-      <c r="B160" s="14"/>
-      <c r="H160" s="21"/>
+      <c r="B160" s="29"/>
+      <c r="H160" s="35"/>
     </row>
     <row r="161" ht="12.75" spans="2:8">
-      <c r="B161" s="14"/>
-      <c r="H161" s="21"/>
+      <c r="B161" s="29"/>
+      <c r="H161" s="35"/>
     </row>
     <row r="162" ht="12.75" spans="2:8">
-      <c r="B162" s="14"/>
-      <c r="H162" s="21"/>
+      <c r="B162" s="29"/>
+      <c r="H162" s="35"/>
     </row>
     <row r="163" ht="12.75" spans="2:8">
-      <c r="B163" s="14"/>
-      <c r="H163" s="21"/>
+      <c r="B163" s="29"/>
+      <c r="H163" s="35"/>
     </row>
     <row r="164" ht="12.75" spans="2:8">
-      <c r="B164" s="14"/>
-      <c r="H164" s="21"/>
+      <c r="B164" s="29"/>
+      <c r="H164" s="35"/>
     </row>
     <row r="165" ht="12.75" spans="2:8">
-      <c r="B165" s="14"/>
-      <c r="H165" s="21"/>
+      <c r="B165" s="29"/>
+      <c r="H165" s="35"/>
     </row>
     <row r="166" ht="12.75" spans="2:8">
-      <c r="B166" s="14"/>
-      <c r="H166" s="21"/>
+      <c r="B166" s="29"/>
+      <c r="H166" s="35"/>
     </row>
     <row r="167" ht="12.75" spans="2:8">
-      <c r="B167" s="14"/>
-      <c r="H167" s="21"/>
+      <c r="B167" s="29"/>
+      <c r="H167" s="35"/>
     </row>
     <row r="168" ht="12.75" spans="2:8">
-      <c r="B168" s="14"/>
-      <c r="H168" s="21"/>
+      <c r="B168" s="29"/>
+      <c r="H168" s="35"/>
     </row>
     <row r="169" ht="12.75" spans="2:8">
-      <c r="B169" s="14"/>
-      <c r="H169" s="21"/>
+      <c r="B169" s="29"/>
+      <c r="H169" s="35"/>
     </row>
     <row r="170" ht="12.75" spans="2:8">
-      <c r="B170" s="14"/>
-      <c r="H170" s="21"/>
+      <c r="B170" s="29"/>
+      <c r="H170" s="35"/>
     </row>
     <row r="171" ht="12.75" spans="2:8">
-      <c r="B171" s="14"/>
-      <c r="H171" s="21"/>
+      <c r="B171" s="29"/>
+      <c r="H171" s="35"/>
     </row>
     <row r="172" ht="12.75" spans="2:8">
-      <c r="B172" s="14"/>
-      <c r="H172" s="21"/>
+      <c r="B172" s="29"/>
+      <c r="H172" s="35"/>
     </row>
     <row r="173" ht="12.75" spans="2:8">
-      <c r="B173" s="14"/>
-      <c r="H173" s="21"/>
+      <c r="B173" s="29"/>
+      <c r="H173" s="35"/>
     </row>
     <row r="174" ht="12.75" spans="2:8">
-      <c r="B174" s="14"/>
-      <c r="H174" s="21"/>
+      <c r="B174" s="29"/>
+      <c r="H174" s="35"/>
     </row>
     <row r="175" ht="12.75" spans="2:8">
-      <c r="B175" s="14"/>
-      <c r="H175" s="21"/>
+      <c r="B175" s="29"/>
+      <c r="H175" s="35"/>
     </row>
     <row r="176" ht="12.75" spans="2:8">
-      <c r="B176" s="14"/>
-      <c r="H176" s="21"/>
+      <c r="B176" s="29"/>
+      <c r="H176" s="35"/>
     </row>
     <row r="177" ht="12.75" spans="2:8">
-      <c r="B177" s="14"/>
-      <c r="H177" s="21"/>
+      <c r="B177" s="29"/>
+      <c r="H177" s="35"/>
     </row>
     <row r="178" ht="12.75" spans="2:8">
-      <c r="B178" s="14"/>
-      <c r="H178" s="21"/>
+      <c r="B178" s="29"/>
+      <c r="H178" s="35"/>
     </row>
     <row r="179" ht="12.75" spans="2:8">
-      <c r="B179" s="14"/>
-      <c r="H179" s="21"/>
+      <c r="B179" s="29"/>
+      <c r="H179" s="35"/>
     </row>
     <row r="180" ht="12.75" spans="2:8">
-      <c r="B180" s="14"/>
-      <c r="H180" s="21"/>
+      <c r="B180" s="29"/>
+      <c r="H180" s="35"/>
     </row>
     <row r="181" ht="12.75" spans="2:8">
-      <c r="B181" s="14"/>
-      <c r="H181" s="21"/>
+      <c r="B181" s="29"/>
+      <c r="H181" s="35"/>
     </row>
     <row r="182" ht="12.75" spans="2:8">
-      <c r="B182" s="14"/>
-      <c r="H182" s="21"/>
+      <c r="B182" s="29"/>
+      <c r="H182" s="35"/>
     </row>
     <row r="183" ht="12.75" spans="2:8">
-      <c r="B183" s="14"/>
-      <c r="H183" s="21"/>
+      <c r="B183" s="29"/>
+      <c r="H183" s="35"/>
     </row>
     <row r="184" ht="12.75" spans="2:8">
-      <c r="B184" s="14"/>
-      <c r="H184" s="21"/>
+      <c r="B184" s="29"/>
+      <c r="H184" s="35"/>
     </row>
     <row r="185" ht="12.75" spans="2:8">
-      <c r="B185" s="14"/>
-      <c r="H185" s="21"/>
+      <c r="B185" s="29"/>
+      <c r="H185" s="35"/>
     </row>
     <row r="186" ht="12.75" spans="2:8">
-      <c r="B186" s="14"/>
-      <c r="H186" s="21"/>
+      <c r="B186" s="29"/>
+      <c r="H186" s="35"/>
     </row>
     <row r="187" ht="12.75" spans="2:8">
-      <c r="B187" s="14"/>
-      <c r="H187" s="21"/>
+      <c r="B187" s="29"/>
+      <c r="H187" s="35"/>
     </row>
     <row r="188" ht="12.75" spans="2:8">
-      <c r="B188" s="14"/>
-      <c r="H188" s="21"/>
+      <c r="B188" s="29"/>
+      <c r="H188" s="35"/>
     </row>
     <row r="189" ht="12.75" spans="2:8">
-      <c r="B189" s="14"/>
-      <c r="H189" s="21"/>
+      <c r="B189" s="29"/>
+      <c r="H189" s="35"/>
     </row>
     <row r="190" ht="12.75" spans="2:8">
-      <c r="B190" s="14"/>
-      <c r="H190" s="21"/>
+      <c r="B190" s="29"/>
+      <c r="H190" s="35"/>
     </row>
     <row r="191" ht="12.75" spans="2:8">
-      <c r="B191" s="14"/>
-      <c r="H191" s="21"/>
+      <c r="B191" s="29"/>
+      <c r="H191" s="35"/>
     </row>
     <row r="192" ht="12.75" spans="2:8">
-      <c r="B192" s="14"/>
-      <c r="H192" s="21"/>
+      <c r="B192" s="29"/>
+      <c r="H192" s="35"/>
     </row>
     <row r="193" ht="12.75" spans="2:8">
-      <c r="B193" s="14"/>
-      <c r="H193" s="21"/>
+      <c r="B193" s="29"/>
+      <c r="H193" s="35"/>
     </row>
     <row r="194" ht="12.75" spans="2:8">
-      <c r="B194" s="14"/>
-      <c r="H194" s="21"/>
+      <c r="B194" s="29"/>
+      <c r="H194" s="35"/>
     </row>
     <row r="195" ht="12.75" spans="2:8">
-      <c r="B195" s="14"/>
-      <c r="H195" s="21"/>
+      <c r="B195" s="29"/>
+      <c r="H195" s="35"/>
     </row>
     <row r="196" ht="12.75" spans="2:8">
-      <c r="B196" s="14"/>
-      <c r="H196" s="21"/>
+      <c r="B196" s="29"/>
+      <c r="H196" s="35"/>
     </row>
     <row r="197" ht="12.75" spans="2:8">
-      <c r="B197" s="14"/>
-      <c r="H197" s="21"/>
+      <c r="B197" s="29"/>
+      <c r="H197" s="35"/>
     </row>
     <row r="198" ht="12.75" spans="2:8">
-      <c r="B198" s="14"/>
-      <c r="H198" s="21"/>
+      <c r="B198" s="29"/>
+      <c r="H198" s="35"/>
     </row>
     <row r="199" ht="12.75" spans="2:8">
-      <c r="B199" s="14"/>
-      <c r="H199" s="21"/>
+      <c r="B199" s="29"/>
+      <c r="H199" s="35"/>
     </row>
     <row r="200" ht="12.75" spans="2:8">
-      <c r="B200" s="14"/>
-      <c r="H200" s="21"/>
+      <c r="B200" s="29"/>
+      <c r="H200" s="35"/>
     </row>
     <row r="201" ht="12.75" spans="2:8">
-      <c r="B201" s="14"/>
-      <c r="H201" s="21"/>
+      <c r="B201" s="29"/>
+      <c r="H201" s="35"/>
     </row>
     <row r="202" ht="12.75" spans="2:8">
-      <c r="B202" s="14"/>
-      <c r="H202" s="21"/>
+      <c r="B202" s="29"/>
+      <c r="H202" s="35"/>
     </row>
     <row r="203" ht="12.75" spans="2:8">
-      <c r="B203" s="14"/>
-      <c r="H203" s="21"/>
+      <c r="B203" s="29"/>
+      <c r="H203" s="35"/>
     </row>
     <row r="204" ht="12.75" spans="2:8">
-      <c r="B204" s="14"/>
-      <c r="H204" s="21"/>
+      <c r="B204" s="29"/>
+      <c r="H204" s="35"/>
     </row>
     <row r="205" ht="12.75" spans="2:8">
-      <c r="B205" s="14"/>
-      <c r="H205" s="21"/>
+      <c r="B205" s="29"/>
+      <c r="H205" s="35"/>
     </row>
     <row r="206" ht="12.75" spans="2:8">
-      <c r="B206" s="14"/>
-      <c r="H206" s="21"/>
+      <c r="B206" s="29"/>
+      <c r="H206" s="35"/>
     </row>
     <row r="207" ht="12.75" spans="2:8">
-      <c r="B207" s="14"/>
-      <c r="H207" s="21"/>
+      <c r="B207" s="29"/>
+      <c r="H207" s="35"/>
     </row>
     <row r="208" ht="12.75" spans="2:8">
-      <c r="B208" s="14"/>
-      <c r="H208" s="21"/>
+      <c r="B208" s="29"/>
+      <c r="H208" s="35"/>
     </row>
     <row r="209" ht="12.75" spans="2:8">
-      <c r="B209" s="14"/>
-      <c r="H209" s="21"/>
+      <c r="B209" s="29"/>
+      <c r="H209" s="35"/>
     </row>
     <row r="210" ht="12.75" spans="2:8">
-      <c r="B210" s="14"/>
-      <c r="H210" s="21"/>
+      <c r="B210" s="29"/>
+      <c r="H210" s="35"/>
     </row>
     <row r="211" ht="12.75" spans="2:8">
-      <c r="B211" s="14"/>
-      <c r="H211" s="21"/>
+      <c r="B211" s="29"/>
+      <c r="H211" s="35"/>
     </row>
     <row r="212" ht="12.75" spans="2:8">
-      <c r="B212" s="14"/>
-      <c r="H212" s="21"/>
+      <c r="B212" s="29"/>
+      <c r="H212" s="35"/>
     </row>
     <row r="213" ht="12.75" spans="2:8">
-      <c r="B213" s="14"/>
-      <c r="H213" s="21"/>
+      <c r="B213" s="29"/>
+      <c r="H213" s="35"/>
     </row>
     <row r="214" ht="12.75" spans="2:8">
-      <c r="B214" s="14"/>
-      <c r="H214" s="21"/>
+      <c r="B214" s="29"/>
+      <c r="H214" s="35"/>
     </row>
     <row r="215" ht="12.75" spans="2:8">
-      <c r="B215" s="14"/>
-      <c r="H215" s="21"/>
+      <c r="B215" s="29"/>
+      <c r="H215" s="35"/>
     </row>
     <row r="216" ht="12.75" spans="2:8">
-      <c r="B216" s="14"/>
-      <c r="H216" s="21"/>
+      <c r="B216" s="29"/>
+      <c r="H216" s="35"/>
     </row>
     <row r="217" ht="12.75" spans="2:8">
-      <c r="B217" s="14"/>
-      <c r="H217" s="21"/>
+      <c r="B217" s="29"/>
+      <c r="H217" s="35"/>
     </row>
     <row r="218" ht="12.75" spans="2:8">
-      <c r="B218" s="14"/>
-      <c r="H218" s="21"/>
+      <c r="B218" s="29"/>
+      <c r="H218" s="35"/>
     </row>
     <row r="219" ht="12.75" spans="2:8">
-      <c r="B219" s="14"/>
-      <c r="H219" s="21"/>
+      <c r="B219" s="29"/>
+      <c r="H219" s="35"/>
     </row>
     <row r="220" ht="12.75" spans="2:8">
-      <c r="B220" s="14"/>
-      <c r="H220" s="21"/>
+      <c r="B220" s="29"/>
+      <c r="H220" s="35"/>
     </row>
     <row r="221" ht="12.75" spans="2:8">
-      <c r="B221" s="14"/>
-      <c r="H221" s="21"/>
+      <c r="B221" s="29"/>
+      <c r="H221" s="35"/>
     </row>
     <row r="222" ht="12.75" spans="2:8">
-      <c r="B222" s="14"/>
-      <c r="H222" s="21"/>
+      <c r="B222" s="29"/>
+      <c r="H222" s="35"/>
     </row>
     <row r="223" ht="12.75" spans="2:8">
-      <c r="B223" s="14"/>
-      <c r="H223" s="21"/>
+      <c r="B223" s="29"/>
+      <c r="H223" s="35"/>
     </row>
     <row r="224" ht="12.75" spans="2:8">
-      <c r="B224" s="14"/>
-      <c r="H224" s="21"/>
+      <c r="B224" s="29"/>
+      <c r="H224" s="35"/>
     </row>
     <row r="225" ht="12.75" spans="2:8">
-      <c r="B225" s="14"/>
-      <c r="H225" s="21"/>
+      <c r="B225" s="29"/>
+      <c r="H225" s="35"/>
     </row>
     <row r="226" ht="12.75" spans="2:8">
-      <c r="B226" s="14"/>
-      <c r="H226" s="21"/>
+      <c r="B226" s="29"/>
+      <c r="H226" s="35"/>
     </row>
     <row r="227" ht="12.75" spans="2:8">
-      <c r="B227" s="14"/>
-      <c r="H227" s="21"/>
+      <c r="B227" s="29"/>
+      <c r="H227" s="35"/>
     </row>
     <row r="228" ht="12.75" spans="2:8">
-      <c r="B228" s="14"/>
-      <c r="H228" s="21"/>
+      <c r="B228" s="29"/>
+      <c r="H228" s="35"/>
     </row>
     <row r="229" ht="12.75" spans="2:8">
-      <c r="B229" s="14"/>
-      <c r="H229" s="21"/>
+      <c r="B229" s="29"/>
+      <c r="H229" s="35"/>
     </row>
     <row r="230" ht="12.75" spans="2:8">
-      <c r="B230" s="14"/>
-      <c r="H230" s="21"/>
+      <c r="B230" s="29"/>
+      <c r="H230" s="35"/>
     </row>
     <row r="231" ht="12.75" spans="2:8">
-      <c r="B231" s="14"/>
-      <c r="H231" s="21"/>
+      <c r="B231" s="29"/>
+      <c r="H231" s="35"/>
     </row>
     <row r="232" ht="12.75" spans="2:8">
-      <c r="B232" s="14"/>
-      <c r="H232" s="21"/>
+      <c r="B232" s="29"/>
+      <c r="H232" s="35"/>
     </row>
     <row r="233" ht="12.75" spans="2:8">
-      <c r="B233" s="14"/>
-      <c r="H233" s="21"/>
+      <c r="B233" s="29"/>
+      <c r="H233" s="35"/>
     </row>
     <row r="234" ht="12.75" spans="2:8">
-      <c r="B234" s="14"/>
-      <c r="H234" s="21"/>
+      <c r="B234" s="29"/>
+      <c r="H234" s="35"/>
     </row>
     <row r="235" ht="12.75" spans="2:8">
-      <c r="B235" s="14"/>
-      <c r="H235" s="21"/>
+      <c r="B235" s="29"/>
+      <c r="H235" s="35"/>
     </row>
     <row r="236" ht="12.75" spans="2:8">
-      <c r="B236" s="14"/>
-      <c r="H236" s="21"/>
+      <c r="B236" s="29"/>
+      <c r="H236" s="35"/>
     </row>
     <row r="237" ht="12.75" spans="2:8">
-      <c r="B237" s="14"/>
-      <c r="H237" s="21"/>
+      <c r="B237" s="29"/>
+      <c r="H237" s="35"/>
     </row>
     <row r="238" ht="12.75" spans="2:8">
-      <c r="B238" s="14"/>
-      <c r="H238" s="21"/>
+      <c r="B238" s="29"/>
+      <c r="H238" s="35"/>
     </row>
     <row r="239" ht="12.75" spans="2:8">
-      <c r="B239" s="14"/>
-      <c r="H239" s="21"/>
+      <c r="B239" s="29"/>
+      <c r="H239" s="35"/>
     </row>
     <row r="240" ht="12.75" spans="2:8">
-      <c r="B240" s="14"/>
-      <c r="H240" s="21"/>
+      <c r="B240" s="29"/>
+      <c r="H240" s="35"/>
     </row>
     <row r="241" ht="12.75" spans="2:8">
-      <c r="B241" s="14"/>
-      <c r="H241" s="21"/>
+      <c r="B241" s="29"/>
+      <c r="H241" s="35"/>
     </row>
     <row r="242" ht="12.75" spans="2:8">
-      <c r="B242" s="14"/>
-      <c r="H242" s="21"/>
+      <c r="B242" s="29"/>
+      <c r="H242" s="35"/>
     </row>
     <row r="243" ht="12.75" spans="2:8">
-      <c r="B243" s="14"/>
-      <c r="H243" s="21"/>
+      <c r="B243" s="29"/>
+      <c r="H243" s="35"/>
     </row>
     <row r="244" ht="12.75" spans="2:8">
-      <c r="B244" s="14"/>
-      <c r="H244" s="21"/>
+      <c r="B244" s="29"/>
+      <c r="H244" s="35"/>
     </row>
     <row r="245" ht="12.75" spans="2:8">
-      <c r="B245" s="14"/>
-      <c r="H245" s="21"/>
+      <c r="B245" s="29"/>
+      <c r="H245" s="35"/>
     </row>
     <row r="246" ht="12.75" spans="2:8">
-      <c r="B246" s="14"/>
-      <c r="H246" s="21"/>
+      <c r="B246" s="29"/>
+      <c r="H246" s="35"/>
     </row>
     <row r="247" ht="12.75" spans="2:8">
-      <c r="B247" s="14"/>
-      <c r="H247" s="21"/>
+      <c r="B247" s="29"/>
+      <c r="H247" s="35"/>
     </row>
     <row r="248" ht="12.75" spans="2:8">
-      <c r="B248" s="14"/>
-      <c r="H248" s="21"/>
+      <c r="B248" s="29"/>
+      <c r="H248" s="35"/>
     </row>
     <row r="249" ht="12.75" spans="2:8">
-      <c r="B249" s="14"/>
-      <c r="H249" s="21"/>
+      <c r="B249" s="29"/>
+      <c r="H249" s="35"/>
     </row>
     <row r="250" ht="12.75" spans="2:8">
-      <c r="B250" s="14"/>
-      <c r="H250" s="21"/>
+      <c r="B250" s="29"/>
+      <c r="H250" s="35"/>
     </row>
     <row r="251" ht="12.75" spans="2:8">
-      <c r="B251" s="14"/>
-      <c r="H251" s="21"/>
+      <c r="B251" s="29"/>
+      <c r="H251" s="35"/>
     </row>
     <row r="252" ht="12.75" spans="2:8">
-      <c r="B252" s="14"/>
-      <c r="H252" s="21"/>
+      <c r="B252" s="29"/>
+      <c r="H252" s="35"/>
     </row>
     <row r="253" ht="12.75" spans="2:8">
-      <c r="B253" s="14"/>
-      <c r="H253" s="21"/>
+      <c r="B253" s="29"/>
+      <c r="H253" s="35"/>
     </row>
     <row r="254" ht="12.75" spans="2:8">
-      <c r="B254" s="14"/>
-      <c r="H254" s="21"/>
+      <c r="B254" s="29"/>
+      <c r="H254" s="35"/>
     </row>
     <row r="255" ht="12.75" spans="2:8">
-      <c r="B255" s="14"/>
-      <c r="H255" s="21"/>
+      <c r="B255" s="29"/>
+      <c r="H255" s="35"/>
     </row>
     <row r="256" ht="12.75" spans="2:8">
-      <c r="B256" s="14"/>
-      <c r="H256" s="21"/>
+      <c r="B256" s="29"/>
+      <c r="H256" s="35"/>
     </row>
     <row r="257" ht="12.75" spans="2:8">
-      <c r="B257" s="14"/>
-      <c r="H257" s="21"/>
+      <c r="B257" s="29"/>
+      <c r="H257" s="35"/>
     </row>
     <row r="258" ht="12.75" spans="2:8">
-      <c r="B258" s="14"/>
-      <c r="H258" s="21"/>
+      <c r="B258" s="29"/>
+      <c r="H258" s="35"/>
     </row>
     <row r="259" ht="12.75" spans="2:8">
-      <c r="B259" s="14"/>
-      <c r="H259" s="21"/>
+      <c r="B259" s="29"/>
+      <c r="H259" s="35"/>
     </row>
     <row r="260" ht="12.75" spans="2:8">
-      <c r="B260" s="14"/>
-      <c r="H260" s="21"/>
+      <c r="B260" s="29"/>
+      <c r="H260" s="35"/>
     </row>
     <row r="261" ht="12.75" spans="2:8">
-      <c r="B261" s="14"/>
-      <c r="H261" s="21"/>
+      <c r="B261" s="29"/>
+      <c r="H261" s="35"/>
     </row>
     <row r="262" ht="12.75" spans="2:8">
-      <c r="B262" s="14"/>
-      <c r="H262" s="21"/>
+      <c r="B262" s="29"/>
+      <c r="H262" s="35"/>
     </row>
     <row r="263" ht="12.75" spans="2:8">
-      <c r="B263" s="14"/>
-      <c r="H263" s="21"/>
+      <c r="B263" s="29"/>
+      <c r="H263" s="35"/>
     </row>
     <row r="264" ht="12.75" spans="2:8">
-      <c r="B264" s="14"/>
-      <c r="H264" s="21"/>
+      <c r="B264" s="29"/>
+      <c r="H264" s="35"/>
     </row>
     <row r="265" ht="12.75" spans="2:8">
-      <c r="B265" s="14"/>
-      <c r="H265" s="21"/>
+      <c r="B265" s="29"/>
+      <c r="H265" s="35"/>
     </row>
     <row r="266" ht="12.75" spans="2:8">
-      <c r="B266" s="14"/>
-      <c r="H266" s="21"/>
+      <c r="B266" s="29"/>
+      <c r="H266" s="35"/>
     </row>
     <row r="267" ht="12.75" spans="2:8">
-      <c r="B267" s="14"/>
-      <c r="H267" s="21"/>
+      <c r="B267" s="29"/>
+      <c r="H267" s="35"/>
     </row>
     <row r="268" ht="12.75" spans="2:8">
-      <c r="B268" s="14"/>
-      <c r="H268" s="21"/>
+      <c r="B268" s="29"/>
+      <c r="H268" s="35"/>
     </row>
     <row r="269" ht="12.75" spans="2:8">
-      <c r="B269" s="14"/>
-      <c r="H269" s="21"/>
+      <c r="B269" s="29"/>
+      <c r="H269" s="35"/>
     </row>
     <row r="270" ht="12.75" spans="2:8">
-      <c r="B270" s="14"/>
-      <c r="H270" s="21"/>
+      <c r="B270" s="29"/>
+      <c r="H270" s="35"/>
     </row>
     <row r="271" ht="12.75" spans="2:8">
-      <c r="B271" s="14"/>
-      <c r="H271" s="21"/>
+      <c r="B271" s="29"/>
+      <c r="H271" s="35"/>
     </row>
     <row r="272" ht="12.75" spans="2:8">
-      <c r="B272" s="14"/>
-      <c r="H272" s="21"/>
+      <c r="B272" s="29"/>
+      <c r="H272" s="35"/>
     </row>
     <row r="273" ht="12.75" spans="2:8">
-      <c r="B273" s="14"/>
-      <c r="H273" s="21"/>
+      <c r="B273" s="29"/>
+      <c r="H273" s="35"/>
     </row>
     <row r="274" ht="12.75" spans="2:8">
-      <c r="B274" s="14"/>
-      <c r="H274" s="21"/>
+      <c r="B274" s="29"/>
+      <c r="H274" s="35"/>
     </row>
     <row r="275" ht="12.75" spans="2:8">
-      <c r="B275" s="14"/>
-      <c r="H275" s="21"/>
+      <c r="B275" s="29"/>
+      <c r="H275" s="35"/>
     </row>
     <row r="276" ht="12.75" spans="2:8">
-      <c r="B276" s="14"/>
-      <c r="H276" s="21"/>
+      <c r="B276" s="29"/>
+      <c r="H276" s="35"/>
     </row>
     <row r="277" ht="12.75" spans="2:8">
-      <c r="B277" s="14"/>
-      <c r="H277" s="21"/>
+      <c r="B277" s="29"/>
+      <c r="H277" s="35"/>
     </row>
     <row r="278" ht="12.75" spans="2:8">
-      <c r="B278" s="14"/>
-      <c r="H278" s="21"/>
+      <c r="B278" s="29"/>
+      <c r="H278" s="35"/>
     </row>
     <row r="279" ht="12.75" spans="2:8">
-      <c r="B279" s="14"/>
-      <c r="H279" s="21"/>
+      <c r="B279" s="29"/>
+      <c r="H279" s="35"/>
     </row>
     <row r="280" ht="12.75" spans="2:8">
-      <c r="B280" s="14"/>
-      <c r="H280" s="21"/>
+      <c r="B280" s="29"/>
+      <c r="H280" s="35"/>
     </row>
     <row r="281" ht="12.75" spans="2:8">
-      <c r="B281" s="14"/>
-      <c r="H281" s="21"/>
+      <c r="B281" s="29"/>
+      <c r="H281" s="35"/>
     </row>
     <row r="282" ht="12.75" spans="2:8">
-      <c r="B282" s="14"/>
-      <c r="H282" s="21"/>
+      <c r="B282" s="29"/>
+      <c r="H282" s="35"/>
     </row>
     <row r="283" ht="12.75" spans="2:8">
-      <c r="B283" s="14"/>
-      <c r="H283" s="21"/>
+      <c r="B283" s="29"/>
+      <c r="H283" s="35"/>
     </row>
     <row r="284" ht="12.75" spans="2:8">
-      <c r="B284" s="14"/>
-      <c r="H284" s="21"/>
+      <c r="B284" s="29"/>
+      <c r="H284" s="35"/>
     </row>
     <row r="285" ht="12.75" spans="2:8">
-      <c r="B285" s="14"/>
-      <c r="H285" s="21"/>
+      <c r="B285" s="29"/>
+      <c r="H285" s="35"/>
     </row>
     <row r="286" ht="12.75" spans="2:8">
-      <c r="B286" s="14"/>
-      <c r="H286" s="21"/>
+      <c r="B286" s="29"/>
+      <c r="H286" s="35"/>
     </row>
     <row r="287" ht="12.75" spans="2:8">
-      <c r="B287" s="14"/>
-      <c r="H287" s="21"/>
+      <c r="B287" s="29"/>
+      <c r="H287" s="35"/>
     </row>
     <row r="288" ht="12.75" spans="2:8">
-      <c r="B288" s="14"/>
-      <c r="H288" s="21"/>
+      <c r="B288" s="29"/>
+      <c r="H288" s="35"/>
     </row>
     <row r="289" ht="12.75" spans="2:8">
-      <c r="B289" s="14"/>
-      <c r="H289" s="21"/>
+      <c r="B289" s="29"/>
+      <c r="H289" s="35"/>
     </row>
     <row r="290" ht="12.75" spans="2:8">
-      <c r="B290" s="14"/>
-      <c r="H290" s="21"/>
+      <c r="B290" s="29"/>
+      <c r="H290" s="35"/>
     </row>
     <row r="291" ht="12.75" spans="2:8">
-      <c r="B291" s="14"/>
-      <c r="H291" s="21"/>
+      <c r="B291" s="29"/>
+      <c r="H291" s="35"/>
     </row>
     <row r="292" ht="12.75" spans="2:8">
-      <c r="B292" s="14"/>
-      <c r="H292" s="21"/>
+      <c r="B292" s="29"/>
+      <c r="H292" s="35"/>
     </row>
     <row r="293" ht="12.75" spans="2:8">
-      <c r="B293" s="14"/>
-      <c r="H293" s="21"/>
+      <c r="B293" s="29"/>
+      <c r="H293" s="35"/>
     </row>
     <row r="294" ht="12.75" spans="2:8">
-      <c r="B294" s="14"/>
-      <c r="H294" s="21"/>
+      <c r="B294" s="29"/>
+      <c r="H294" s="35"/>
     </row>
     <row r="295" ht="12.75" spans="2:8">
-      <c r="B295" s="14"/>
-      <c r="H295" s="21"/>
+      <c r="B295" s="29"/>
+      <c r="H295" s="35"/>
     </row>
     <row r="296" ht="12.75" spans="2:8">
-      <c r="B296" s="14"/>
-      <c r="H296" s="21"/>
+      <c r="B296" s="29"/>
+      <c r="H296" s="35"/>
     </row>
     <row r="297" ht="12.75" spans="2:8">
-      <c r="B297" s="14"/>
-      <c r="H297" s="21"/>
+      <c r="B297" s="29"/>
+      <c r="H297" s="35"/>
     </row>
     <row r="298" ht="12.75" spans="2:8">
-      <c r="B298" s="14"/>
-      <c r="H298" s="21"/>
+      <c r="B298" s="29"/>
+      <c r="H298" s="35"/>
     </row>
     <row r="299" ht="12.75" spans="2:8">
-      <c r="B299" s="14"/>
-      <c r="H299" s="21"/>
+      <c r="B299" s="29"/>
+      <c r="H299" s="35"/>
     </row>
     <row r="300" ht="12.75" spans="2:8">
-      <c r="B300" s="14"/>
-      <c r="H300" s="21"/>
+      <c r="B300" s="29"/>
+      <c r="H300" s="35"/>
     </row>
     <row r="301" ht="12.75" spans="2:8">
-      <c r="B301" s="14"/>
-      <c r="H301" s="21"/>
+      <c r="B301" s="29"/>
+      <c r="H301" s="35"/>
     </row>
     <row r="302" ht="12.75" spans="2:8">
-      <c r="B302" s="14"/>
-      <c r="H302" s="21"/>
+      <c r="B302" s="29"/>
+      <c r="H302" s="35"/>
     </row>
     <row r="303" ht="12.75" spans="2:8">
-      <c r="B303" s="14"/>
-      <c r="H303" s="21"/>
+      <c r="B303" s="29"/>
+      <c r="H303" s="35"/>
     </row>
     <row r="304" ht="12.75" spans="2:8">
-      <c r="B304" s="14"/>
-      <c r="H304" s="21"/>
+      <c r="B304" s="29"/>
+      <c r="H304" s="35"/>
     </row>
     <row r="305" ht="12.75" spans="2:8">
-      <c r="B305" s="14"/>
-      <c r="H305" s="21"/>
+      <c r="B305" s="29"/>
+      <c r="H305" s="35"/>
     </row>
     <row r="306" ht="12.75" spans="2:8">
-      <c r="B306" s="14"/>
-      <c r="H306" s="21"/>
+      <c r="B306" s="29"/>
+      <c r="H306" s="35"/>
     </row>
     <row r="307" ht="12.75" spans="2:8">
-      <c r="B307" s="14"/>
-      <c r="H307" s="21"/>
+      <c r="B307" s="29"/>
+      <c r="H307" s="35"/>
     </row>
     <row r="308" ht="12.75" spans="2:8">
-      <c r="B308" s="14"/>
-      <c r="H308" s="21"/>
+      <c r="B308" s="29"/>
+      <c r="H308" s="35"/>
     </row>
     <row r="309" ht="12.75" spans="2:8">
-      <c r="B309" s="14"/>
-      <c r="H309" s="21"/>
+      <c r="B309" s="29"/>
+      <c r="H309" s="35"/>
     </row>
     <row r="310" ht="12.75" spans="2:8">
-      <c r="B310" s="14"/>
-      <c r="H310" s="21"/>
+      <c r="B310" s="29"/>
+      <c r="H310" s="35"/>
     </row>
     <row r="311" ht="12.75" spans="2:8">
-      <c r="B311" s="14"/>
-      <c r="H311" s="21"/>
+      <c r="B311" s="29"/>
+      <c r="H311" s="35"/>
     </row>
     <row r="312" ht="12.75" spans="2:8">
-      <c r="B312" s="14"/>
-      <c r="H312" s="21"/>
+      <c r="B312" s="29"/>
+      <c r="H312" s="35"/>
     </row>
     <row r="313" ht="12.75" spans="2:8">
-      <c r="B313" s="14"/>
-      <c r="H313" s="21"/>
+      <c r="B313" s="29"/>
+      <c r="H313" s="35"/>
     </row>
     <row r="314" ht="12.75" spans="2:8">
-      <c r="B314" s="14"/>
-      <c r="H314" s="21"/>
+      <c r="B314" s="29"/>
+      <c r="H314" s="35"/>
     </row>
     <row r="315" ht="12.75" spans="2:8">
-      <c r="B315" s="14"/>
-      <c r="H315" s="21"/>
+      <c r="B315" s="29"/>
+      <c r="H315" s="35"/>
     </row>
     <row r="316" ht="12.75" spans="2:8">
-      <c r="B316" s="14"/>
-      <c r="H316" s="21"/>
+      <c r="B316" s="29"/>
+      <c r="H316" s="35"/>
     </row>
     <row r="317" ht="12.75" spans="2:8">
-      <c r="B317" s="14"/>
-      <c r="H317" s="21"/>
+      <c r="B317" s="29"/>
+      <c r="H317" s="35"/>
     </row>
     <row r="318" ht="12.75" spans="2:8">
-      <c r="B318" s="14"/>
-      <c r="H318" s="21"/>
+      <c r="B318" s="29"/>
+      <c r="H318" s="35"/>
     </row>
     <row r="319" ht="12.75" spans="2:8">
-      <c r="B319" s="14"/>
-      <c r="H319" s="21"/>
+      <c r="B319" s="29"/>
+      <c r="H319" s="35"/>
     </row>
     <row r="320" ht="12.75" spans="2:8">
-      <c r="B320" s="14"/>
-      <c r="H320" s="21"/>
+      <c r="B320" s="29"/>
+      <c r="H320" s="35"/>
     </row>
     <row r="321" ht="12.75" spans="2:8">
-      <c r="B321" s="14"/>
-      <c r="H321" s="21"/>
+      <c r="B321" s="29"/>
+      <c r="H321" s="35"/>
     </row>
     <row r="322" ht="12.75" spans="2:8">
-      <c r="B322" s="14"/>
-      <c r="H322" s="21"/>
+      <c r="B322" s="29"/>
+      <c r="H322" s="35"/>
     </row>
     <row r="323" ht="12.75" spans="2:8">
-      <c r="B323" s="14"/>
-      <c r="H323" s="21"/>
+      <c r="B323" s="29"/>
+      <c r="H323" s="35"/>
     </row>
     <row r="324" ht="12.75" spans="2:8">
-      <c r="B324" s="14"/>
-      <c r="H324" s="21"/>
+      <c r="B324" s="29"/>
+      <c r="H324" s="35"/>
     </row>
     <row r="325" ht="12.75" spans="2:8">
-      <c r="B325" s="14"/>
-      <c r="H325" s="21"/>
+      <c r="B325" s="29"/>
+      <c r="H325" s="35"/>
     </row>
     <row r="326" ht="12.75" spans="2:8">
-      <c r="B326" s="14"/>
-      <c r="H326" s="21"/>
+      <c r="B326" s="29"/>
+      <c r="H326" s="35"/>
     </row>
     <row r="327" ht="12.75" spans="2:8">
-      <c r="B327" s="14"/>
-      <c r="H327" s="21"/>
+      <c r="B327" s="29"/>
+      <c r="H327" s="35"/>
     </row>
     <row r="328" ht="12.75" spans="2:8">
-      <c r="B328" s="14"/>
-      <c r="H328" s="21"/>
+      <c r="B328" s="29"/>
+      <c r="H328" s="35"/>
     </row>
     <row r="329" ht="12.75" spans="2:8">
-      <c r="B329" s="14"/>
-      <c r="H329" s="21"/>
+      <c r="B329" s="29"/>
+      <c r="H329" s="35"/>
     </row>
     <row r="330" ht="12.75" spans="2:8">
-      <c r="B330" s="14"/>
-      <c r="H330" s="21"/>
+      <c r="B330" s="29"/>
+      <c r="H330" s="35"/>
     </row>
     <row r="331" ht="12.75" spans="2:8">
-      <c r="B331" s="14"/>
-      <c r="H331" s="21"/>
+      <c r="B331" s="29"/>
+      <c r="H331" s="35"/>
     </row>
     <row r="332" ht="12.75" spans="2:8">
-      <c r="B332" s="14"/>
-      <c r="H332" s="21"/>
+      <c r="B332" s="29"/>
+      <c r="H332" s="35"/>
     </row>
     <row r="333" ht="12.75" spans="2:8">
-      <c r="B333" s="14"/>
-      <c r="H333" s="21"/>
+      <c r="B333" s="29"/>
+      <c r="H333" s="35"/>
     </row>
     <row r="334" ht="12.75" spans="2:8">
-      <c r="B334" s="14"/>
-      <c r="H334" s="21"/>
+      <c r="B334" s="29"/>
+      <c r="H334" s="35"/>
     </row>
     <row r="335" ht="12.75" spans="2:8">
-      <c r="B335" s="14"/>
-      <c r="H335" s="21"/>
+      <c r="B335" s="29"/>
+      <c r="H335" s="35"/>
     </row>
     <row r="336" ht="12.75" spans="2:8">
-      <c r="B336" s="14"/>
-      <c r="H336" s="21"/>
+      <c r="B336" s="29"/>
+      <c r="H336" s="35"/>
     </row>
     <row r="337" ht="12.75" spans="2:8">
-      <c r="B337" s="14"/>
-      <c r="H337" s="21"/>
+      <c r="B337" s="29"/>
+      <c r="H337" s="35"/>
     </row>
     <row r="338" ht="12.75" spans="2:8">
-      <c r="B338" s="14"/>
-      <c r="H338" s="21"/>
+      <c r="B338" s="29"/>
+      <c r="H338" s="35"/>
     </row>
     <row r="339" ht="12.75" spans="2:8">
-      <c r="B339" s="14"/>
-      <c r="H339" s="21"/>
+      <c r="B339" s="29"/>
+      <c r="H339" s="35"/>
     </row>
     <row r="340" ht="12.75" spans="2:8">
-      <c r="B340" s="14"/>
-      <c r="H340" s="21"/>
+      <c r="B340" s="29"/>
+      <c r="H340" s="35"/>
     </row>
     <row r="341" ht="12.75" spans="2:8">
-      <c r="B341" s="14"/>
-      <c r="H341" s="21"/>
+      <c r="B341" s="29"/>
+      <c r="H341" s="35"/>
     </row>
     <row r="342" ht="12.75" spans="2:8">
-      <c r="B342" s="14"/>
-      <c r="H342" s="21"/>
+      <c r="B342" s="29"/>
+      <c r="H342" s="35"/>
     </row>
     <row r="343" ht="12.75" spans="2:8">
-      <c r="B343" s="14"/>
-      <c r="H343" s="21"/>
+      <c r="B343" s="29"/>
+      <c r="H343" s="35"/>
     </row>
     <row r="344" ht="12.75" spans="2:8">
-      <c r="B344" s="14"/>
-      <c r="H344" s="21"/>
+      <c r="B344" s="29"/>
+      <c r="H344" s="35"/>
     </row>
     <row r="345" ht="12.75" spans="2:8">
-      <c r="B345" s="14"/>
-      <c r="H345" s="21"/>
+      <c r="B345" s="29"/>
+      <c r="H345" s="35"/>
     </row>
     <row r="346" ht="12.75" spans="2:8">
-      <c r="B346" s="14"/>
-      <c r="H346" s="21"/>
+      <c r="B346" s="29"/>
+      <c r="H346" s="35"/>
     </row>
     <row r="347" ht="12.75" spans="2:8">
-      <c r="B347" s="14"/>
-      <c r="H347" s="21"/>
+      <c r="B347" s="29"/>
+      <c r="H347" s="35"/>
     </row>
     <row r="348" ht="12.75" spans="2:8">
-      <c r="B348" s="14"/>
-      <c r="H348" s="21"/>
+      <c r="B348" s="29"/>
+      <c r="H348" s="35"/>
     </row>
     <row r="349" ht="12.75" spans="2:8">
-      <c r="B349" s="14"/>
-      <c r="H349" s="21"/>
+      <c r="B349" s="29"/>
+      <c r="H349" s="35"/>
     </row>
     <row r="350" ht="12.75" spans="2:8">
-      <c r="B350" s="14"/>
-      <c r="H350" s="21"/>
+      <c r="B350" s="29"/>
+      <c r="H350" s="35"/>
     </row>
     <row r="351" ht="12.75" spans="2:8">
-      <c r="B351" s="14"/>
-      <c r="H351" s="21"/>
+      <c r="B351" s="29"/>
+      <c r="H351" s="35"/>
     </row>
     <row r="352" ht="12.75" spans="2:8">
-      <c r="B352" s="14"/>
-      <c r="H352" s="21"/>
+      <c r="B352" s="29"/>
+      <c r="H352" s="35"/>
     </row>
     <row r="353" ht="12.75" spans="2:8">
-      <c r="B353" s="14"/>
-      <c r="H353" s="21"/>
+      <c r="B353" s="29"/>
+      <c r="H353" s="35"/>
     </row>
     <row r="354" ht="12.75" spans="2:8">
-      <c r="B354" s="14"/>
-      <c r="H354" s="21"/>
+      <c r="B354" s="29"/>
+      <c r="H354" s="35"/>
     </row>
     <row r="355" ht="12.75" spans="2:8">
-      <c r="B355" s="14"/>
-      <c r="H355" s="21"/>
+      <c r="B355" s="29"/>
+      <c r="H355" s="35"/>
     </row>
     <row r="356" ht="12.75" spans="2:8">
-      <c r="B356" s="14"/>
-      <c r="H356" s="21"/>
+      <c r="B356" s="29"/>
+      <c r="H356" s="35"/>
     </row>
     <row r="357" ht="12.75" spans="2:8">
-      <c r="B357" s="14"/>
-      <c r="H357" s="21"/>
+      <c r="B357" s="29"/>
+      <c r="H357" s="35"/>
     </row>
     <row r="358" ht="12.75" spans="2:8">
-      <c r="B358" s="14"/>
-      <c r="H358" s="21"/>
+      <c r="B358" s="29"/>
+      <c r="H358" s="35"/>
     </row>
     <row r="359" ht="12.75" spans="2:8">
-      <c r="B359" s="14"/>
-      <c r="H359" s="21"/>
+      <c r="B359" s="29"/>
+      <c r="H359" s="35"/>
     </row>
     <row r="360" ht="12.75" spans="2:8">
-      <c r="B360" s="14"/>
-      <c r="H360" s="21"/>
+      <c r="B360" s="29"/>
+      <c r="H360" s="35"/>
     </row>
     <row r="361" ht="12.75" spans="2:8">
-      <c r="B361" s="14"/>
-      <c r="H361" s="21"/>
+      <c r="B361" s="29"/>
+      <c r="H361" s="35"/>
     </row>
     <row r="362" ht="12.75" spans="2:8">
-      <c r="B362" s="14"/>
-      <c r="H362" s="21"/>
+      <c r="B362" s="29"/>
+      <c r="H362" s="35"/>
     </row>
     <row r="363" ht="12.75" spans="2:8">
-      <c r="B363" s="14"/>
-      <c r="H363" s="21"/>
+      <c r="B363" s="29"/>
+      <c r="H363" s="35"/>
     </row>
     <row r="364" ht="12.75" spans="2:8">
-      <c r="B364" s="14"/>
-      <c r="H364" s="21"/>
+      <c r="B364" s="29"/>
+      <c r="H364" s="35"/>
     </row>
     <row r="365" ht="12.75" spans="2:8">
-      <c r="B365" s="14"/>
-      <c r="H365" s="21"/>
+      <c r="B365" s="29"/>
+      <c r="H365" s="35"/>
     </row>
     <row r="366" ht="12.75" spans="2:8">
-      <c r="B366" s="14"/>
-      <c r="H366" s="21"/>
+      <c r="B366" s="29"/>
+      <c r="H366" s="35"/>
     </row>
     <row r="367" ht="12.75" spans="2:8">
-      <c r="B367" s="14"/>
-      <c r="H367" s="21"/>
+      <c r="B367" s="29"/>
+      <c r="H367" s="35"/>
     </row>
     <row r="368" ht="12.75" spans="2:8">
-      <c r="B368" s="14"/>
-      <c r="H368" s="21"/>
+      <c r="B368" s="29"/>
+      <c r="H368" s="35"/>
     </row>
     <row r="369" ht="12.75" spans="2:8">
-      <c r="B369" s="14"/>
-      <c r="H369" s="21"/>
+      <c r="B369" s="29"/>
+      <c r="H369" s="35"/>
     </row>
     <row r="370" ht="12.75" spans="2:8">
-      <c r="B370" s="14"/>
-      <c r="H370" s="21"/>
+      <c r="B370" s="29"/>
+      <c r="H370" s="35"/>
     </row>
     <row r="371" ht="12.75" spans="2:8">
-      <c r="B371" s="14"/>
-      <c r="H371" s="21"/>
+      <c r="B371" s="29"/>
+      <c r="H371" s="35"/>
     </row>
     <row r="372" ht="12.75" spans="2:8">
-      <c r="B372" s="14"/>
-      <c r="H372" s="21"/>
+      <c r="B372" s="29"/>
+      <c r="H372" s="35"/>
     </row>
     <row r="373" ht="12.75" spans="2:8">
-      <c r="B373" s="14"/>
-      <c r="H373" s="21"/>
+      <c r="B373" s="29"/>
+      <c r="H373" s="35"/>
     </row>
     <row r="374" ht="12.75" spans="2:8">
-      <c r="B374" s="14"/>
-      <c r="H374" s="21"/>
+      <c r="B374" s="29"/>
+      <c r="H374" s="35"/>
     </row>
     <row r="375" ht="12.75" spans="2:8">
-      <c r="B375" s="14"/>
-      <c r="H375" s="21"/>
+      <c r="B375" s="29"/>
+      <c r="H375" s="35"/>
     </row>
     <row r="376" ht="12.75" spans="2:8">
-      <c r="B376" s="14"/>
-      <c r="H376" s="21"/>
+      <c r="B376" s="29"/>
+      <c r="H376" s="35"/>
     </row>
     <row r="377" ht="12.75" spans="2:8">
-      <c r="B377" s="14"/>
-      <c r="H377" s="21"/>
+      <c r="B377" s="29"/>
+      <c r="H377" s="35"/>
     </row>
     <row r="378" ht="12.75" spans="2:8">
-      <c r="B378" s="14"/>
-      <c r="H378" s="21"/>
+      <c r="B378" s="29"/>
+      <c r="H378" s="35"/>
     </row>
     <row r="379" ht="12.75" spans="2:8">
-      <c r="B379" s="14"/>
-      <c r="H379" s="21"/>
+      <c r="B379" s="29"/>
+      <c r="H379" s="35"/>
     </row>
     <row r="380" ht="12.75" spans="2:8">
-      <c r="B380" s="14"/>
-      <c r="H380" s="21"/>
+      <c r="B380" s="29"/>
+      <c r="H380" s="35"/>
     </row>
     <row r="381" ht="12.75" spans="2:8">
-      <c r="B381" s="14"/>
-      <c r="H381" s="21"/>
+      <c r="B381" s="29"/>
+      <c r="H381" s="35"/>
     </row>
     <row r="382" ht="12.75" spans="2:8">
-      <c r="B382" s="14"/>
-      <c r="H382" s="21"/>
+      <c r="B382" s="29"/>
+      <c r="H382" s="35"/>
     </row>
     <row r="383" ht="12.75" spans="2:8">
-      <c r="B383" s="14"/>
-      <c r="H383" s="21"/>
+      <c r="B383" s="29"/>
+      <c r="H383" s="35"/>
     </row>
     <row r="384" ht="12.75" spans="2:8">
-      <c r="B384" s="14"/>
-      <c r="H384" s="21"/>
+      <c r="B384" s="29"/>
+      <c r="H384" s="35"/>
     </row>
     <row r="385" ht="12.75" spans="2:8">
-      <c r="B385" s="14"/>
-      <c r="H385" s="21"/>
+      <c r="B385" s="29"/>
+      <c r="H385" s="35"/>
     </row>
     <row r="386" ht="12.75" spans="2:8">
-      <c r="B386" s="14"/>
-      <c r="H386" s="21"/>
+      <c r="B386" s="29"/>
+      <c r="H386" s="35"/>
     </row>
     <row r="387" ht="12.75" spans="2:8">
-      <c r="B387" s="14"/>
-      <c r="H387" s="21"/>
+      <c r="B387" s="29"/>
+      <c r="H387" s="35"/>
     </row>
     <row r="388" ht="12.75" spans="2:8">
-      <c r="B388" s="14"/>
-      <c r="H388" s="21"/>
+      <c r="B388" s="29"/>
+      <c r="H388" s="35"/>
     </row>
     <row r="389" ht="12.75" spans="2:8">
-      <c r="B389" s="14"/>
-      <c r="H389" s="21"/>
+      <c r="B389" s="29"/>
+      <c r="H389" s="35"/>
     </row>
     <row r="390" ht="12.75" spans="2:8">
-      <c r="B390" s="14"/>
-      <c r="H390" s="21"/>
+      <c r="B390" s="29"/>
+      <c r="H390" s="35"/>
     </row>
     <row r="391" ht="12.75" spans="2:8">
-      <c r="B391" s="14"/>
-      <c r="H391" s="21"/>
+      <c r="B391" s="29"/>
+      <c r="H391" s="35"/>
     </row>
     <row r="392" ht="12.75" spans="2:8">
-      <c r="B392" s="14"/>
-      <c r="H392" s="21"/>
+      <c r="B392" s="29"/>
+      <c r="H392" s="35"/>
     </row>
     <row r="393" ht="12.75" spans="2:8">
-      <c r="B393" s="14"/>
-      <c r="H393" s="21"/>
+      <c r="B393" s="29"/>
+      <c r="H393" s="35"/>
     </row>
     <row r="394" ht="12.75" spans="2:8">
-      <c r="B394" s="14"/>
-      <c r="H394" s="21"/>
+      <c r="B394" s="29"/>
+      <c r="H394" s="35"/>
     </row>
     <row r="395" ht="12.75" spans="2:8">
-      <c r="B395" s="14"/>
-      <c r="H395" s="21"/>
+      <c r="B395" s="29"/>
+      <c r="H395" s="35"/>
     </row>
     <row r="396" ht="12.75" spans="2:8">
-      <c r="B396" s="14"/>
-      <c r="H396" s="21"/>
+      <c r="B396" s="29"/>
+      <c r="H396" s="35"/>
     </row>
     <row r="397" ht="12.75" spans="2:8">
-      <c r="B397" s="14"/>
-      <c r="H397" s="21"/>
+      <c r="B397" s="29"/>
+      <c r="H397" s="35"/>
     </row>
     <row r="398" ht="12.75" spans="2:8">
-      <c r="B398" s="14"/>
-      <c r="H398" s="21"/>
+      <c r="B398" s="29"/>
+      <c r="H398" s="35"/>
     </row>
     <row r="399" ht="12.75" spans="2:8">
-      <c r="B399" s="14"/>
-      <c r="H399" s="21"/>
+      <c r="B399" s="29"/>
+      <c r="H399" s="35"/>
     </row>
     <row r="400" ht="12.75" spans="2:8">
-      <c r="B400" s="14"/>
-      <c r="H400" s="21"/>
+      <c r="B400" s="29"/>
+      <c r="H400" s="35"/>
     </row>
     <row r="401" ht="12.75" spans="2:8">
-      <c r="B401" s="14"/>
-      <c r="H401" s="21"/>
+      <c r="B401" s="29"/>
+      <c r="H401" s="35"/>
     </row>
     <row r="402" ht="12.75" spans="2:8">
-      <c r="B402" s="14"/>
-      <c r="H402" s="21"/>
+      <c r="B402" s="29"/>
+      <c r="H402" s="35"/>
     </row>
     <row r="403" ht="12.75" spans="2:8">
-      <c r="B403" s="14"/>
-      <c r="H403" s="21"/>
+      <c r="B403" s="29"/>
+      <c r="H403" s="35"/>
     </row>
     <row r="404" ht="12.75" spans="2:8">
-      <c r="B404" s="14"/>
-      <c r="H404" s="21"/>
+      <c r="B404" s="29"/>
+      <c r="H404" s="35"/>
     </row>
     <row r="405" ht="12.75" spans="2:8">
-      <c r="B405" s="14"/>
-      <c r="H405" s="21"/>
+      <c r="B405" s="29"/>
+      <c r="H405" s="35"/>
     </row>
     <row r="406" ht="12.75" spans="2:8">
-      <c r="B406" s="14"/>
-      <c r="H406" s="21"/>
+      <c r="B406" s="29"/>
+      <c r="H406" s="35"/>
     </row>
     <row r="407" ht="12.75" spans="2:8">
-      <c r="B407" s="14"/>
-      <c r="H407" s="21"/>
+      <c r="B407" s="29"/>
+      <c r="H407" s="35"/>
     </row>
     <row r="408" ht="12.75" spans="2:8">
-      <c r="B408" s="14"/>
-      <c r="H408" s="21"/>
+      <c r="B408" s="29"/>
+      <c r="H408" s="35"/>
     </row>
     <row r="409" ht="12.75" spans="2:8">
-      <c r="B409" s="14"/>
-      <c r="H409" s="21"/>
+      <c r="B409" s="29"/>
+      <c r="H409" s="35"/>
     </row>
     <row r="410" ht="12.75" spans="2:8">
-      <c r="B410" s="14"/>
-      <c r="H410" s="21"/>
+      <c r="B410" s="29"/>
+      <c r="H410" s="35"/>
     </row>
     <row r="411" ht="12.75" spans="2:8">
-      <c r="B411" s="14"/>
-      <c r="H411" s="21"/>
+      <c r="B411" s="29"/>
+      <c r="H411" s="35"/>
     </row>
     <row r="412" ht="12.75" spans="2:8">
-      <c r="B412" s="14"/>
-      <c r="H412" s="21"/>
+      <c r="B412" s="29"/>
+      <c r="H412" s="35"/>
     </row>
     <row r="413" ht="12.75" spans="2:8">
-      <c r="B413" s="14"/>
-      <c r="H413" s="21"/>
+      <c r="B413" s="29"/>
+      <c r="H413" s="35"/>
     </row>
     <row r="414" ht="12.75" spans="2:8">
-      <c r="B414" s="14"/>
-      <c r="H414" s="21"/>
+      <c r="B414" s="29"/>
+      <c r="H414" s="35"/>
     </row>
     <row r="415" ht="12.75" spans="2:8">
-      <c r="B415" s="14"/>
-      <c r="H415" s="21"/>
+      <c r="B415" s="29"/>
+      <c r="H415" s="35"/>
     </row>
     <row r="416" ht="12.75" spans="2:8">
-      <c r="B416" s="14"/>
-      <c r="H416" s="21"/>
+      <c r="B416" s="29"/>
+      <c r="H416" s="35"/>
     </row>
     <row r="417" ht="12.75" spans="2:8">
-      <c r="B417" s="14"/>
-      <c r="H417" s="21"/>
+      <c r="B417" s="29"/>
+      <c r="H417" s="35"/>
     </row>
     <row r="418" ht="12.75" spans="2:8">
-      <c r="B418" s="14"/>
-      <c r="H418" s="21"/>
+      <c r="B418" s="29"/>
+      <c r="H418" s="35"/>
     </row>
     <row r="419" ht="12.75" spans="2:8">
-      <c r="B419" s="14"/>
-      <c r="H419" s="21"/>
+      <c r="B419" s="29"/>
+      <c r="H419" s="35"/>
     </row>
     <row r="420" ht="12.75" spans="2:8">
-      <c r="B420" s="14"/>
-      <c r="H420" s="21"/>
+      <c r="B420" s="29"/>
+      <c r="H420" s="35"/>
     </row>
     <row r="421" ht="12.75" spans="2:8">
-      <c r="B421" s="14"/>
-      <c r="H421" s="21"/>
+      <c r="B421" s="29"/>
+      <c r="H421" s="35"/>
     </row>
     <row r="422" ht="12.75" spans="2:8">
-      <c r="B422" s="14"/>
-      <c r="H422" s="21"/>
+      <c r="B422" s="29"/>
+      <c r="H422" s="35"/>
     </row>
     <row r="423" ht="12.75" spans="2:8">
-      <c r="B423" s="14"/>
-      <c r="H423" s="21"/>
+      <c r="B423" s="29"/>
+      <c r="H423" s="35"/>
     </row>
     <row r="424" ht="12.75" spans="2:8">
-      <c r="B424" s="14"/>
-      <c r="H424" s="21"/>
+      <c r="B424" s="29"/>
+      <c r="H424" s="35"/>
     </row>
     <row r="425" ht="12.75" spans="2:8">
-      <c r="B425" s="14"/>
-      <c r="H425" s="21"/>
+      <c r="B425" s="29"/>
+      <c r="H425" s="35"/>
     </row>
     <row r="426" ht="12.75" spans="2:8">
-      <c r="B426" s="14"/>
-      <c r="H426" s="21"/>
+      <c r="B426" s="29"/>
+      <c r="H426" s="35"/>
     </row>
     <row r="427" ht="12.75" spans="2:8">
-      <c r="B427" s="14"/>
-      <c r="H427" s="21"/>
+      <c r="B427" s="29"/>
+      <c r="H427" s="35"/>
     </row>
     <row r="428" ht="12.75" spans="2:8">
-      <c r="B428" s="14"/>
-      <c r="H428" s="21"/>
+      <c r="B428" s="29"/>
+      <c r="H428" s="35"/>
     </row>
     <row r="429" ht="12.75" spans="2:8">
-      <c r="B429" s="14"/>
-      <c r="H429" s="21"/>
+      <c r="B429" s="29"/>
+      <c r="H429" s="35"/>
     </row>
     <row r="430" ht="12.75" spans="2:8">
-      <c r="B430" s="14"/>
-      <c r="H430" s="21"/>
+      <c r="B430" s="29"/>
+      <c r="H430" s="35"/>
     </row>
     <row r="431" ht="12.75" spans="2:8">
-      <c r="B431" s="14"/>
-      <c r="H431" s="21"/>
+      <c r="B431" s="29"/>
+      <c r="H431" s="35"/>
     </row>
     <row r="432" ht="12.75" spans="2:8">
-      <c r="B432" s="14"/>
-      <c r="H432" s="21"/>
+      <c r="B432" s="29"/>
+      <c r="H432" s="35"/>
     </row>
     <row r="433" ht="12.75" spans="2:8">
-      <c r="B433" s="14"/>
-      <c r="H433" s="21"/>
+      <c r="B433" s="29"/>
+      <c r="H433" s="35"/>
     </row>
     <row r="434" ht="12.75" spans="2:8">
-      <c r="B434" s="14"/>
-      <c r="H434" s="21"/>
+      <c r="B434" s="29"/>
+      <c r="H434" s="35"/>
     </row>
     <row r="435" ht="12.75" spans="2:8">
-      <c r="B435" s="14"/>
-      <c r="H435" s="21"/>
+      <c r="B435" s="29"/>
+      <c r="H435" s="35"/>
     </row>
     <row r="436" ht="12.75" spans="2:8">
-      <c r="B436" s="14"/>
-      <c r="H436" s="21"/>
+      <c r="B436" s="29"/>
+      <c r="H436" s="35"/>
     </row>
     <row r="437" ht="12.75" spans="2:8">
-      <c r="B437" s="14"/>
-      <c r="H437" s="21"/>
+      <c r="B437" s="29"/>
+      <c r="H437" s="35"/>
     </row>
     <row r="438" ht="12.75" spans="2:8">
-      <c r="B438" s="14"/>
-      <c r="H438" s="21"/>
+      <c r="B438" s="29"/>
+      <c r="H438" s="35"/>
     </row>
     <row r="439" ht="12.75" spans="2:8">
-      <c r="B439" s="14"/>
-      <c r="H439" s="21"/>
+      <c r="B439" s="29"/>
+      <c r="H439" s="35"/>
     </row>
     <row r="440" ht="12.75" spans="2:8">
-      <c r="B440" s="14"/>
-      <c r="H440" s="21"/>
+      <c r="B440" s="29"/>
+      <c r="H440" s="35"/>
     </row>
     <row r="441" ht="12.75" spans="2:8">
-      <c r="B441" s="14"/>
-      <c r="H441" s="21"/>
+      <c r="B441" s="29"/>
+      <c r="H441" s="35"/>
     </row>
     <row r="442" ht="12.75" spans="2:8">
-      <c r="B442" s="14"/>
-      <c r="H442" s="21"/>
+      <c r="B442" s="29"/>
+      <c r="H442" s="35"/>
     </row>
     <row r="443" ht="12.75" spans="2:8">
-      <c r="B443" s="14"/>
-      <c r="H443" s="21"/>
+      <c r="B443" s="29"/>
+      <c r="H443" s="35"/>
     </row>
     <row r="444" ht="12.75" spans="2:8">
-      <c r="B444" s="14"/>
-      <c r="H444" s="21"/>
+      <c r="B444" s="29"/>
+      <c r="H444" s="35"/>
     </row>
     <row r="445" ht="12.75" spans="2:8">
-      <c r="B445" s="14"/>
-      <c r="H445" s="21"/>
+      <c r="B445" s="29"/>
+      <c r="H445" s="35"/>
     </row>
     <row r="446" ht="12.75" spans="2:8">
-      <c r="B446" s="14"/>
-      <c r="H446" s="21"/>
+      <c r="B446" s="29"/>
+      <c r="H446" s="35"/>
     </row>
     <row r="447" ht="12.75" spans="2:8">
-      <c r="B447" s="14"/>
-      <c r="H447" s="21"/>
+      <c r="B447" s="29"/>
+      <c r="H447" s="35"/>
     </row>
     <row r="448" ht="12.75" spans="2:8">
-      <c r="B448" s="14"/>
-      <c r="H448" s="21"/>
+      <c r="B448" s="29"/>
+      <c r="H448" s="35"/>
     </row>
     <row r="449" ht="12.75" spans="2:8">
-      <c r="B449" s="14"/>
-      <c r="H449" s="21"/>
+      <c r="B449" s="29"/>
+      <c r="H449" s="35"/>
     </row>
     <row r="450" ht="12.75" spans="2:8">
-      <c r="B450" s="14"/>
-      <c r="H450" s="21"/>
+      <c r="B450" s="29"/>
+      <c r="H450" s="35"/>
     </row>
     <row r="451" ht="12.75" spans="2:8">
-      <c r="B451" s="14"/>
-      <c r="H451" s="21"/>
+      <c r="B451" s="29"/>
+      <c r="H451" s="35"/>
     </row>
     <row r="452" ht="12.75" spans="2:8">
-      <c r="B452" s="14"/>
-      <c r="H452" s="21"/>
+      <c r="B452" s="29"/>
+      <c r="H452" s="35"/>
     </row>
     <row r="453" ht="12.75" spans="2:8">
-      <c r="B453" s="14"/>
-      <c r="H453" s="21"/>
+      <c r="B453" s="29"/>
+      <c r="H453" s="35"/>
     </row>
     <row r="454" ht="12.75" spans="2:8">
-      <c r="B454" s="14"/>
-      <c r="H454" s="21"/>
+      <c r="B454" s="29"/>
+      <c r="H454" s="35"/>
     </row>
     <row r="455" ht="12.75" spans="2:8">
-      <c r="B455" s="14"/>
-      <c r="H455" s="21"/>
+      <c r="B455" s="29"/>
+      <c r="H455" s="35"/>
     </row>
     <row r="456" ht="12.75" spans="2:8">
-      <c r="B456" s="14"/>
-      <c r="H456" s="21"/>
+      <c r="B456" s="29"/>
+      <c r="H456" s="35"/>
     </row>
     <row r="457" ht="12.75" spans="2:8">
-      <c r="B457" s="14"/>
-      <c r="H457" s="21"/>
+      <c r="B457" s="29"/>
+      <c r="H457" s="35"/>
     </row>
     <row r="458" ht="12.75" spans="2:8">
-      <c r="B458" s="14"/>
-      <c r="H458" s="21"/>
+      <c r="B458" s="29"/>
+      <c r="H458" s="35"/>
     </row>
     <row r="459" ht="12.75" spans="2:8">
-      <c r="B459" s="14"/>
-      <c r="H459" s="21"/>
+      <c r="B459" s="29"/>
+      <c r="H459" s="35"/>
     </row>
     <row r="460" ht="12.75" spans="2:8">
-      <c r="B460" s="14"/>
-      <c r="H460" s="21"/>
+      <c r="B460" s="29"/>
+      <c r="H460" s="35"/>
     </row>
     <row r="461" ht="12.75" spans="2:8">
-      <c r="B461" s="14"/>
-      <c r="H461" s="21"/>
+      <c r="B461" s="29"/>
+      <c r="H461" s="35"/>
     </row>
     <row r="462" ht="12.75" spans="2:8">
-      <c r="B462" s="14"/>
-      <c r="H462" s="21"/>
+      <c r="B462" s="29"/>
+      <c r="H462" s="35"/>
     </row>
     <row r="463" ht="12.75" spans="2:8">
-      <c r="B463" s="14"/>
-      <c r="H463" s="21"/>
+      <c r="B463" s="29"/>
+      <c r="H463" s="35"/>
     </row>
     <row r="464" ht="12.75" spans="2:8">
-      <c r="B464" s="14"/>
-      <c r="H464" s="21"/>
+      <c r="B464" s="29"/>
+      <c r="H464" s="35"/>
     </row>
     <row r="465" ht="12.75" spans="2:8">
-      <c r="B465" s="14"/>
-      <c r="H465" s="21"/>
+      <c r="B465" s="29"/>
+      <c r="H465" s="35"/>
     </row>
     <row r="466" ht="12.75" spans="2:8">
-      <c r="B466" s="14"/>
-      <c r="H466" s="21"/>
+      <c r="B466" s="29"/>
+      <c r="H466" s="35"/>
     </row>
     <row r="467" ht="12.75" spans="2:8">
-      <c r="B467" s="14"/>
-      <c r="H467" s="21"/>
+      <c r="B467" s="29"/>
+      <c r="H467" s="35"/>
     </row>
     <row r="468" ht="12.75" spans="2:8">
-      <c r="B468" s="14"/>
-      <c r="H468" s="21"/>
+      <c r="B468" s="29"/>
+      <c r="H468" s="35"/>
     </row>
     <row r="469" ht="12.75" spans="2:8">
-      <c r="B469" s="14"/>
-      <c r="H469" s="21"/>
+      <c r="B469" s="29"/>
+      <c r="H469" s="35"/>
     </row>
     <row r="470" ht="12.75" spans="2:8">
-      <c r="B470" s="14"/>
-      <c r="H470" s="21"/>
+      <c r="B470" s="29"/>
+      <c r="H470" s="35"/>
     </row>
     <row r="471" ht="12.75" spans="2:8">
-      <c r="B471" s="14"/>
-      <c r="H471" s="21"/>
+      <c r="B471" s="29"/>
+      <c r="H471" s="35"/>
     </row>
     <row r="472" ht="12.75" spans="2:8">
-      <c r="B472" s="14"/>
-      <c r="H472" s="21"/>
+      <c r="B472" s="29"/>
+      <c r="H472" s="35"/>
     </row>
     <row r="473" ht="12.75" spans="2:8">
-      <c r="B473" s="14"/>
-      <c r="H473" s="21"/>
+      <c r="B473" s="29"/>
+      <c r="H473" s="35"/>
     </row>
     <row r="474" ht="12.75" spans="2:8">
-      <c r="B474" s="14"/>
-      <c r="H474" s="21"/>
+      <c r="B474" s="29"/>
+      <c r="H474" s="35"/>
     </row>
     <row r="475" ht="12.75" spans="2:8">
-      <c r="B475" s="14"/>
-      <c r="H475" s="21"/>
+      <c r="B475" s="29"/>
+      <c r="H475" s="35"/>
     </row>
     <row r="476" ht="12.75" spans="2:8">
-      <c r="B476" s="14"/>
-      <c r="H476" s="21"/>
+      <c r="B476" s="29"/>
+      <c r="H476" s="35"/>
     </row>
     <row r="477" ht="12.75" spans="2:8">
-      <c r="B477" s="14"/>
-      <c r="H477" s="21"/>
+      <c r="B477" s="29"/>
+      <c r="H477" s="35"/>
     </row>
     <row r="478" ht="12.75" spans="2:8">
-      <c r="B478" s="14"/>
-      <c r="H478" s="21"/>
+      <c r="B478" s="29"/>
+      <c r="H478" s="35"/>
     </row>
     <row r="479" ht="12.75" spans="2:8">
-      <c r="B479" s="14"/>
-      <c r="H479" s="21"/>
+      <c r="B479" s="29"/>
+      <c r="H479" s="35"/>
     </row>
     <row r="480" ht="12.75" spans="2:8">
-      <c r="B480" s="14"/>
-      <c r="H480" s="21"/>
+      <c r="B480" s="29"/>
+      <c r="H480" s="35"/>
     </row>
     <row r="481" ht="12.75" spans="2:8">
-      <c r="B481" s="14"/>
-      <c r="H481" s="21"/>
+      <c r="B481" s="29"/>
+      <c r="H481" s="35"/>
     </row>
     <row r="482" ht="12.75" spans="2:8">
-      <c r="B482" s="14"/>
-      <c r="H482" s="21"/>
+      <c r="B482" s="29"/>
+      <c r="H482" s="35"/>
     </row>
     <row r="483" ht="12.75" spans="2:8">
-      <c r="B483" s="14"/>
-      <c r="H483" s="21"/>
+      <c r="B483" s="29"/>
+      <c r="H483" s="35"/>
     </row>
     <row r="484" ht="12.75" spans="2:8">
-      <c r="B484" s="14"/>
-      <c r="H484" s="21"/>
+      <c r="B484" s="29"/>
+      <c r="H484" s="35"/>
     </row>
     <row r="485" ht="12.75" spans="2:8">
-      <c r="B485" s="14"/>
-      <c r="H485" s="21"/>
+      <c r="B485" s="29"/>
+      <c r="H485" s="35"/>
     </row>
     <row r="486" ht="12.75" spans="2:8">
-      <c r="B486" s="14"/>
-      <c r="H486" s="21"/>
+      <c r="B486" s="29"/>
+      <c r="H486" s="35"/>
     </row>
     <row r="487" ht="12.75" spans="2:8">
-      <c r="B487" s="14"/>
-      <c r="H487" s="21"/>
+      <c r="B487" s="29"/>
+      <c r="H487" s="35"/>
     </row>
     <row r="488" ht="12.75" spans="2:8">
-      <c r="B488" s="14"/>
-      <c r="H488" s="21"/>
+      <c r="B488" s="29"/>
+      <c r="H488" s="35"/>
     </row>
     <row r="489" ht="12.75" spans="2:8">
-      <c r="B489" s="14"/>
-      <c r="H489" s="21"/>
+      <c r="B489" s="29"/>
+      <c r="H489" s="35"/>
     </row>
     <row r="490" ht="12.75" spans="2:8">
-      <c r="B490" s="14"/>
-      <c r="H490" s="21"/>
+      <c r="B490" s="29"/>
+      <c r="H490" s="35"/>
     </row>
     <row r="491" ht="12.75" spans="2:8">
-      <c r="B491" s="14"/>
-      <c r="H491" s="21"/>
+      <c r="B491" s="29"/>
+      <c r="H491" s="35"/>
     </row>
     <row r="492" ht="12.75" spans="2:8">
-      <c r="B492" s="14"/>
-      <c r="H492" s="21"/>
+      <c r="B492" s="29"/>
+      <c r="H492" s="35"/>
     </row>
     <row r="493" ht="12.75" spans="2:8">
-      <c r="B493" s="14"/>
-      <c r="H493" s="21"/>
+      <c r="B493" s="29"/>
+      <c r="H493" s="35"/>
     </row>
     <row r="494" ht="12.75" spans="2:8">
-      <c r="B494" s="14"/>
-      <c r="H494" s="21"/>
+      <c r="B494" s="29"/>
+      <c r="H494" s="35"/>
     </row>
     <row r="495" ht="12.75" spans="2:8">
-      <c r="B495" s="14"/>
-      <c r="H495" s="21"/>
+      <c r="B495" s="29"/>
+      <c r="H495" s="35"/>
     </row>
     <row r="496" ht="12.75" spans="2:8">
-      <c r="B496" s="14"/>
-      <c r="H496" s="21"/>
+      <c r="B496" s="29"/>
+      <c r="H496" s="35"/>
     </row>
     <row r="497" ht="12.75" spans="2:8">
-      <c r="B497" s="14"/>
-      <c r="H497" s="21"/>
+      <c r="B497" s="29"/>
+      <c r="H497" s="35"/>
     </row>
     <row r="498" ht="12.75" spans="2:8">
-      <c r="B498" s="14"/>
-      <c r="H498" s="21"/>
+      <c r="B498" s="29"/>
+      <c r="H498" s="35"/>
     </row>
     <row r="499" ht="12.75" spans="2:8">
-      <c r="B499" s="14"/>
-      <c r="H499" s="21"/>
+      <c r="B499" s="29"/>
+      <c r="H499" s="35"/>
     </row>
     <row r="500" ht="12.75" spans="2:8">
-      <c r="B500" s="14"/>
-      <c r="H500" s="21"/>
+      <c r="B500" s="29"/>
+      <c r="H500" s="35"/>
     </row>
     <row r="501" ht="12.75" spans="2:8">
-      <c r="B501" s="14"/>
-      <c r="H501" s="21"/>
+      <c r="B501" s="29"/>
+      <c r="H501" s="35"/>
     </row>
     <row r="502" ht="12.75" spans="2:8">
-      <c r="B502" s="14"/>
-      <c r="H502" s="21"/>
+      <c r="B502" s="29"/>
+      <c r="H502" s="35"/>
     </row>
     <row r="503" ht="12.75" spans="2:8">
-      <c r="B503" s="14"/>
-      <c r="H503" s="21"/>
+      <c r="B503" s="29"/>
+      <c r="H503" s="35"/>
     </row>
     <row r="504" ht="12.75" spans="2:8">
-      <c r="B504" s="14"/>
-      <c r="H504" s="21"/>
+      <c r="B504" s="29"/>
+      <c r="H504" s="35"/>
     </row>
     <row r="505" ht="12.75" spans="2:8">
-      <c r="B505" s="14"/>
-      <c r="H505" s="21"/>
+      <c r="B505" s="29"/>
+      <c r="H505" s="35"/>
     </row>
     <row r="506" ht="12.75" spans="2:8">
-      <c r="B506" s="14"/>
-      <c r="H506" s="21"/>
+      <c r="B506" s="29"/>
+      <c r="H506" s="35"/>
     </row>
     <row r="507" ht="12.75" spans="2:8">
-      <c r="B507" s="14"/>
-      <c r="H507" s="21"/>
+      <c r="B507" s="29"/>
+      <c r="H507" s="35"/>
     </row>
     <row r="508" ht="12.75" spans="2:8">
-      <c r="B508" s="14"/>
-      <c r="H508" s="21"/>
+      <c r="B508" s="29"/>
+      <c r="H508" s="35"/>
     </row>
     <row r="509" ht="12.75" spans="2:8">
-      <c r="B509" s="14"/>
-      <c r="H509" s="21"/>
+      <c r="B509" s="29"/>
+      <c r="H509" s="35"/>
     </row>
     <row r="510" ht="12.75" spans="2:8">
-      <c r="B510" s="14"/>
-      <c r="H510" s="21"/>
+      <c r="B510" s="29"/>
+      <c r="H510" s="35"/>
     </row>
     <row r="511" ht="12.75" spans="2:8">
-      <c r="B511" s="14"/>
-      <c r="H511" s="21"/>
+      <c r="B511" s="29"/>
+      <c r="H511" s="35"/>
     </row>
     <row r="512" ht="12.75" spans="2:8">
-      <c r="B512" s="14"/>
-      <c r="H512" s="21"/>
+      <c r="B512" s="29"/>
+      <c r="H512" s="35"/>
     </row>
     <row r="513" ht="12.75" spans="2:8">
-      <c r="B513" s="14"/>
-      <c r="H513" s="21"/>
+      <c r="B513" s="29"/>
+      <c r="H513" s="35"/>
     </row>
     <row r="514" ht="12.75" spans="2:8">
-      <c r="B514" s="14"/>
-      <c r="H514" s="21"/>
+      <c r="B514" s="29"/>
+      <c r="H514" s="35"/>
     </row>
     <row r="515" ht="12.75" spans="2:8">
-      <c r="B515" s="14"/>
-      <c r="H515" s="21"/>
+      <c r="B515" s="29"/>
+      <c r="H515" s="35"/>
     </row>
     <row r="516" ht="12.75" spans="2:8">
-      <c r="B516" s="14"/>
-      <c r="H516" s="21"/>
+      <c r="B516" s="29"/>
+      <c r="H516" s="35"/>
     </row>
     <row r="517" ht="12.75" spans="2:8">
-      <c r="B517" s="14"/>
-      <c r="H517" s="21"/>
+      <c r="B517" s="29"/>
+      <c r="H517" s="35"/>
     </row>
     <row r="518" ht="12.75" spans="2:8">
-      <c r="B518" s="14"/>
-      <c r="H518" s="21"/>
+      <c r="B518" s="29"/>
+      <c r="H518" s="35"/>
     </row>
     <row r="519" ht="12.75" spans="2:8">
-      <c r="B519" s="14"/>
-      <c r="H519" s="21"/>
+      <c r="B519" s="29"/>
+      <c r="H519" s="35"/>
     </row>
     <row r="520" ht="12.75" spans="2:8">
-      <c r="B520" s="14"/>
-      <c r="H520" s="21"/>
+      <c r="B520" s="29"/>
+      <c r="H520" s="35"/>
     </row>
     <row r="521" ht="12.75" spans="2:8">
-      <c r="B521" s="14"/>
-      <c r="H521" s="21"/>
+      <c r="B521" s="29"/>
+      <c r="H521" s="35"/>
     </row>
     <row r="522" ht="12.75" spans="2:8">
-      <c r="B522" s="14"/>
-      <c r="H522" s="21"/>
+      <c r="B522" s="29"/>
+      <c r="H522" s="35"/>
     </row>
     <row r="523" ht="12.75" spans="2:8">
-      <c r="B523" s="14"/>
-      <c r="H523" s="21"/>
+      <c r="B523" s="29"/>
+      <c r="H523" s="35"/>
     </row>
     <row r="524" ht="12.75" spans="2:8">
-      <c r="B524" s="14"/>
-      <c r="H524" s="21"/>
+      <c r="B524" s="29"/>
+      <c r="H524" s="35"/>
     </row>
     <row r="525" ht="12.75" spans="2:8">
-      <c r="B525" s="14"/>
-      <c r="H525" s="21"/>
+      <c r="B525" s="29"/>
+      <c r="H525" s="35"/>
     </row>
     <row r="526" ht="12.75" spans="2:8">
-      <c r="B526" s="14"/>
-      <c r="H526" s="21"/>
+      <c r="B526" s="29"/>
+      <c r="H526" s="35"/>
     </row>
     <row r="527" ht="12.75" spans="2:8">
-      <c r="B527" s="14"/>
-      <c r="H527" s="21"/>
+      <c r="B527" s="29"/>
+      <c r="H527" s="35"/>
     </row>
     <row r="528" ht="12.75" spans="2:8">
-      <c r="B528" s="14"/>
-      <c r="H528" s="21"/>
+      <c r="B528" s="29"/>
+      <c r="H528" s="35"/>
     </row>
     <row r="529" ht="12.75" spans="2:8">
-      <c r="B529" s="14"/>
-      <c r="H529" s="21"/>
+      <c r="B529" s="29"/>
+      <c r="H529" s="35"/>
     </row>
     <row r="530" ht="12.75" spans="2:8">
-      <c r="B530" s="14"/>
-      <c r="H530" s="21"/>
+      <c r="B530" s="29"/>
+      <c r="H530" s="35"/>
     </row>
     <row r="531" ht="12.75" spans="2:8">
-      <c r="B531" s="14"/>
-      <c r="H531" s="21"/>
+      <c r="B531" s="29"/>
+      <c r="H531" s="35"/>
     </row>
     <row r="532" ht="12.75" spans="2:8">
-      <c r="B532" s="14"/>
-      <c r="H532" s="21"/>
+      <c r="B532" s="29"/>
+      <c r="H532" s="35"/>
     </row>
     <row r="533" ht="12.75" spans="2:8">
-      <c r="B533" s="14"/>
-      <c r="H533" s="21"/>
+      <c r="B533" s="29"/>
+      <c r="H533" s="35"/>
     </row>
     <row r="534" ht="12.75" spans="2:8">
-      <c r="B534" s="14"/>
-      <c r="H534" s="21"/>
+      <c r="B534" s="29"/>
+      <c r="H534" s="35"/>
     </row>
     <row r="535" ht="12.75" spans="2:8">
-      <c r="B535" s="14"/>
-      <c r="H535" s="21"/>
+      <c r="B535" s="29"/>
+      <c r="H535" s="35"/>
     </row>
     <row r="536" ht="12.75" spans="2:8">
-      <c r="B536" s="14"/>
-      <c r="H536" s="21"/>
+      <c r="B536" s="29"/>
+      <c r="H536" s="35"/>
     </row>
     <row r="537" ht="12.75" spans="2:8">
-      <c r="B537" s="14"/>
-      <c r="H537" s="21"/>
+      <c r="B537" s="29"/>
+      <c r="H537" s="35"/>
     </row>
     <row r="538" ht="12.75" spans="2:8">
-      <c r="B538" s="14"/>
-      <c r="H538" s="21"/>
+      <c r="B538" s="29"/>
+      <c r="H538" s="35"/>
     </row>
     <row r="539" ht="12.75" spans="2:8">
-      <c r="B539" s="14"/>
-      <c r="H539" s="21"/>
+      <c r="B539" s="29"/>
+      <c r="H539" s="35"/>
     </row>
     <row r="540" ht="12.75" spans="2:8">
-      <c r="B540" s="14"/>
-      <c r="H540" s="21"/>
+      <c r="B540" s="29"/>
+      <c r="H540" s="35"/>
     </row>
     <row r="541" ht="12.75" spans="2:8">
-      <c r="B541" s="14"/>
-      <c r="H541" s="21"/>
+      <c r="B541" s="29"/>
+      <c r="H541" s="35"/>
     </row>
     <row r="542" ht="12.75" spans="2:8">
-      <c r="B542" s="14"/>
-      <c r="H542" s="21"/>
+      <c r="B542" s="29"/>
+      <c r="H542" s="35"/>
     </row>
     <row r="543" ht="12.75" spans="2:8">
-      <c r="B543" s="14"/>
-      <c r="H543" s="21"/>
+      <c r="B543" s="29"/>
+      <c r="H543" s="35"/>
     </row>
     <row r="544" ht="12.75" spans="2:8">
-      <c r="B544" s="14"/>
-      <c r="H544" s="21"/>
+      <c r="B544" s="29"/>
+      <c r="H544" s="35"/>
     </row>
     <row r="545" ht="12.75" spans="2:8">
-      <c r="B545" s="14"/>
-      <c r="H545" s="21"/>
+      <c r="B545" s="29"/>
+      <c r="H545" s="35"/>
     </row>
     <row r="546" ht="12.75" spans="2:8">
-      <c r="B546" s="14"/>
-      <c r="H546" s="21"/>
+      <c r="B546" s="29"/>
+      <c r="H546" s="35"/>
     </row>
     <row r="547" ht="12.75" spans="2:8">
-      <c r="B547" s="14"/>
-      <c r="H547" s="21"/>
+      <c r="B547" s="29"/>
+      <c r="H547" s="35"/>
     </row>
     <row r="548" ht="12.75" spans="2:8">
-      <c r="B548" s="14"/>
-      <c r="H548" s="21"/>
+      <c r="B548" s="29"/>
+      <c r="H548" s="35"/>
     </row>
     <row r="549" ht="12.75" spans="2:8">
-      <c r="B549" s="14"/>
-      <c r="H549" s="21"/>
+      <c r="B549" s="29"/>
+      <c r="H549" s="35"/>
     </row>
     <row r="550" ht="12.75" spans="2:8">
-      <c r="B550" s="14"/>
-      <c r="H550" s="21"/>
+      <c r="B550" s="29"/>
+      <c r="H550" s="35"/>
     </row>
     <row r="551" ht="12.75" spans="2:8">
-      <c r="B551" s="14"/>
-      <c r="H551" s="21"/>
+      <c r="B551" s="29"/>
+      <c r="H551" s="35"/>
     </row>
     <row r="552" ht="12.75" spans="2:8">
-      <c r="B552" s="14"/>
-      <c r="H552" s="21"/>
+      <c r="B552" s="29"/>
+      <c r="H552" s="35"/>
     </row>
     <row r="553" ht="12.75" spans="2:8">
-      <c r="B553" s="14"/>
-      <c r="H553" s="21"/>
+      <c r="B553" s="29"/>
+      <c r="H553" s="35"/>
     </row>
     <row r="554" ht="12.75" spans="2:8">
-      <c r="B554" s="14"/>
-      <c r="H554" s="21"/>
+      <c r="B554" s="29"/>
+      <c r="H554" s="35"/>
     </row>
     <row r="555" ht="12.75" spans="2:8">
-      <c r="B555" s="14"/>
-      <c r="H555" s="21"/>
+      <c r="B555" s="29"/>
+      <c r="H555" s="35"/>
     </row>
     <row r="556" ht="12.75" spans="2:8">
-      <c r="B556" s="14"/>
-      <c r="H556" s="21"/>
+      <c r="B556" s="29"/>
+      <c r="H556" s="35"/>
     </row>
     <row r="557" ht="12.75" spans="2:8">
-      <c r="B557" s="14"/>
-      <c r="H557" s="21"/>
+      <c r="B557" s="29"/>
+      <c r="H557" s="35"/>
     </row>
     <row r="558" ht="12.75" spans="2:8">
-      <c r="B558" s="14"/>
-      <c r="H558" s="21"/>
+      <c r="B558" s="29"/>
+      <c r="H558" s="35"/>
     </row>
     <row r="559" ht="12.75" spans="2:8">
-      <c r="B559" s="14"/>
-      <c r="H559" s="21"/>
+      <c r="B559" s="29"/>
+      <c r="H559" s="35"/>
     </row>
     <row r="560" ht="12.75" spans="2:8">
-      <c r="B560" s="14"/>
-      <c r="H560" s="21"/>
+      <c r="B560" s="29"/>
+      <c r="H560" s="35"/>
     </row>
     <row r="561" ht="12.75" spans="2:8">
-      <c r="B561" s="14"/>
-      <c r="H561" s="21"/>
+      <c r="B561" s="29"/>
+      <c r="H561" s="35"/>
     </row>
     <row r="562" ht="12.75" spans="2:8">
-      <c r="B562" s="14"/>
-      <c r="H562" s="21"/>
+      <c r="B562" s="29"/>
+      <c r="H562" s="35"/>
     </row>
     <row r="563" ht="12.75" spans="2:8">
-      <c r="B563" s="14"/>
-      <c r="H563" s="21"/>
+      <c r="B563" s="29"/>
+      <c r="H563" s="35"/>
     </row>
     <row r="564" ht="12.75" spans="2:8">
-      <c r="B564" s="14"/>
-      <c r="H564" s="21"/>
+      <c r="B564" s="29"/>
+      <c r="H564" s="35"/>
     </row>
     <row r="565" ht="12.75" spans="2:8">
-      <c r="B565" s="14"/>
-      <c r="H565" s="21"/>
+      <c r="B565" s="29"/>
+      <c r="H565" s="35"/>
     </row>
     <row r="566" ht="12.75" spans="2:8">
-      <c r="B566" s="14"/>
-      <c r="H566" s="21"/>
+      <c r="B566" s="29"/>
+      <c r="H566" s="35"/>
     </row>
     <row r="567" ht="12.75" spans="2:8">
-      <c r="B567" s="14"/>
-      <c r="H567" s="21"/>
+      <c r="B567" s="29"/>
+      <c r="H567" s="35"/>
     </row>
     <row r="568" ht="12.75" spans="2:8">
-      <c r="B568" s="14"/>
-      <c r="H568" s="21"/>
+      <c r="B568" s="29"/>
+      <c r="H568" s="35"/>
     </row>
     <row r="569" ht="12.75" spans="2:8">
-      <c r="B569" s="14"/>
-      <c r="H569" s="21"/>
+      <c r="B569" s="29"/>
+      <c r="H569" s="35"/>
     </row>
     <row r="570" ht="12.75" spans="2:8">
-      <c r="B570" s="14"/>
-      <c r="H570" s="21"/>
+      <c r="B570" s="29"/>
+      <c r="H570" s="35"/>
     </row>
     <row r="571" ht="12.75" spans="2:8">
-      <c r="B571" s="14"/>
-      <c r="H571" s="21"/>
+      <c r="B571" s="29"/>
+      <c r="H571" s="35"/>
     </row>
     <row r="572" ht="12.75" spans="2:8">
-      <c r="B572" s="14"/>
-      <c r="H572" s="21"/>
+      <c r="B572" s="29"/>
+      <c r="H572" s="35"/>
     </row>
     <row r="573" ht="12.75" spans="2:8">
-      <c r="B573" s="14"/>
-      <c r="H573" s="21"/>
+      <c r="B573" s="29"/>
+      <c r="H573" s="35"/>
     </row>
     <row r="574" ht="12.75" spans="2:8">
-      <c r="B574" s="14"/>
-      <c r="H574" s="21"/>
+      <c r="B574" s="29"/>
+      <c r="H574" s="35"/>
     </row>
     <row r="575" ht="12.75" spans="2:8">
-      <c r="B575" s="14"/>
-      <c r="H575" s="21"/>
+      <c r="B575" s="29"/>
+      <c r="H575" s="35"/>
     </row>
     <row r="576" ht="12.75" spans="2:8">
-      <c r="B576" s="14"/>
-      <c r="H576" s="21"/>
+      <c r="B576" s="29"/>
+      <c r="H576" s="35"/>
     </row>
     <row r="577" ht="12.75" spans="2:8">
-      <c r="B577" s="14"/>
-      <c r="H577" s="21"/>
+      <c r="B577" s="29"/>
+      <c r="H577" s="35"/>
     </row>
     <row r="578" ht="12.75" spans="2:8">
-      <c r="B578" s="14"/>
-      <c r="H578" s="21"/>
+      <c r="B578" s="29"/>
+      <c r="H578" s="35"/>
     </row>
     <row r="579" ht="12.75" spans="2:8">
-      <c r="B579" s="14"/>
-      <c r="H579" s="21"/>
+      <c r="B579" s="29"/>
+      <c r="H579" s="35"/>
     </row>
     <row r="580" ht="12.75" spans="2:8">
-      <c r="B580" s="14"/>
-      <c r="H580" s="21"/>
+      <c r="B580" s="29"/>
+      <c r="H580" s="35"/>
     </row>
     <row r="581" ht="12.75" spans="2:8">
-      <c r="B581" s="14"/>
-      <c r="H581" s="21"/>
+      <c r="B581" s="29"/>
+      <c r="H581" s="35"/>
     </row>
     <row r="582" ht="12.75" spans="2:8">
-      <c r="B582" s="14"/>
-      <c r="H582" s="21"/>
+      <c r="B582" s="29"/>
+      <c r="H582" s="35"/>
     </row>
     <row r="583" ht="12.75" spans="2:8">
-      <c r="B583" s="14"/>
-      <c r="H583" s="21"/>
+      <c r="B583" s="29"/>
+      <c r="H583" s="35"/>
     </row>
     <row r="584" ht="12.75" spans="2:8">
-      <c r="B584" s="14"/>
-      <c r="H584" s="21"/>
+      <c r="B584" s="29"/>
+      <c r="H584" s="35"/>
     </row>
     <row r="585" ht="12.75" spans="2:8">
-      <c r="B585" s="14"/>
-      <c r="H585" s="21"/>
+      <c r="B585" s="29"/>
+      <c r="H585" s="35"/>
     </row>
     <row r="586" ht="12.75" spans="2:8">
-      <c r="B586" s="14"/>
-      <c r="H586" s="21"/>
+      <c r="B586" s="29"/>
+      <c r="H586" s="35"/>
     </row>
     <row r="587" ht="12.75" spans="2:8">
-      <c r="B587" s="14"/>
-      <c r="H587" s="21"/>
+      <c r="B587" s="29"/>
+      <c r="H587" s="35"/>
     </row>
     <row r="588" ht="12.75" spans="2:8">
-      <c r="B588" s="14"/>
-      <c r="H588" s="21"/>
+      <c r="B588" s="29"/>
+      <c r="H588" s="35"/>
     </row>
     <row r="589" ht="12.75" spans="2:8">
-      <c r="B589" s="14"/>
-      <c r="H589" s="21"/>
+      <c r="B589" s="29"/>
+      <c r="H589" s="35"/>
     </row>
     <row r="590" ht="12.75" spans="2:8">
-      <c r="B590" s="14"/>
-      <c r="H590" s="21"/>
+      <c r="B590" s="29"/>
+      <c r="H590" s="35"/>
     </row>
     <row r="591" ht="12.75" spans="2:8">
-      <c r="B591" s="14"/>
-      <c r="H591" s="21"/>
+      <c r="B591" s="29"/>
+      <c r="H591" s="35"/>
     </row>
     <row r="592" ht="12.75" spans="2:8">
-      <c r="B592" s="14"/>
-      <c r="H592" s="21"/>
+      <c r="B592" s="29"/>
+      <c r="H592" s="35"/>
     </row>
     <row r="593" ht="12.75" spans="2:8">
-      <c r="B593" s="14"/>
-      <c r="H593" s="21"/>
+      <c r="B593" s="29"/>
+      <c r="H593" s="35"/>
     </row>
     <row r="594" ht="12.75" spans="2:8">
-      <c r="B594" s="14"/>
-      <c r="H594" s="21"/>
+      <c r="B594" s="29"/>
+      <c r="H594" s="35"/>
     </row>
     <row r="595" ht="12.75" spans="2:8">
-      <c r="B595" s="14"/>
-      <c r="H595" s="21"/>
+      <c r="B595" s="29"/>
+      <c r="H595" s="35"/>
     </row>
     <row r="596" ht="12.75" spans="2:8">
-      <c r="B596" s="14"/>
-      <c r="H596" s="21"/>
+      <c r="B596" s="29"/>
+      <c r="H596" s="35"/>
     </row>
     <row r="597" ht="12.75" spans="2:8">
-      <c r="B597" s="14"/>
-      <c r="H597" s="21"/>
+      <c r="B597" s="29"/>
+      <c r="H597" s="35"/>
     </row>
     <row r="598" ht="12.75" spans="2:8">
-      <c r="B598" s="14"/>
-      <c r="H598" s="21"/>
+      <c r="B598" s="29"/>
+      <c r="H598" s="35"/>
     </row>
     <row r="599" ht="12.75" spans="2:8">
-      <c r="B599" s="14"/>
-      <c r="H599" s="21"/>
+      <c r="B599" s="29"/>
+      <c r="H599" s="35"/>
     </row>
     <row r="600" ht="12.75" spans="2:8">
-      <c r="B600" s="14"/>
-      <c r="H600" s="21"/>
+      <c r="B600" s="29"/>
+      <c r="H600" s="35"/>
     </row>
     <row r="601" ht="12.75" spans="2:8">
-      <c r="B601" s="14"/>
-      <c r="H601" s="21"/>
+      <c r="B601" s="29"/>
+      <c r="H601" s="35"/>
     </row>
     <row r="602" ht="12.75" spans="2:8">
-      <c r="B602" s="14"/>
-      <c r="H602" s="21"/>
+      <c r="B602" s="29"/>
+      <c r="H602" s="35"/>
     </row>
     <row r="603" ht="12.75" spans="2:8">
-      <c r="B603" s="14"/>
-      <c r="H603" s="21"/>
+      <c r="B603" s="29"/>
+      <c r="H603" s="35"/>
     </row>
     <row r="604" ht="12.75" spans="2:8">
-      <c r="B604" s="14"/>
-      <c r="H604" s="21"/>
+      <c r="B604" s="29"/>
+      <c r="H604" s="35"/>
     </row>
     <row r="605" ht="12.75" spans="2:8">
-      <c r="B605" s="14"/>
-      <c r="H605" s="21"/>
+      <c r="B605" s="29"/>
+      <c r="H605" s="35"/>
     </row>
     <row r="606" ht="12.75" spans="2:8">
-      <c r="B606" s="14"/>
-      <c r="H606" s="21"/>
+      <c r="B606" s="29"/>
+      <c r="H606" s="35"/>
     </row>
     <row r="607" ht="12.75" spans="2:8">
-      <c r="B607" s="14"/>
-      <c r="H607" s="21"/>
+      <c r="B607" s="29"/>
+      <c r="H607" s="35"/>
     </row>
     <row r="608" ht="12.75" spans="2:8">
-      <c r="B608" s="14"/>
-      <c r="H608" s="21"/>
+      <c r="B608" s="29"/>
+      <c r="H608" s="35"/>
     </row>
     <row r="609" ht="12.75" spans="2:8">
-      <c r="B609" s="14"/>
-      <c r="H609" s="21"/>
+      <c r="B609" s="29"/>
+      <c r="H609" s="35"/>
     </row>
     <row r="610" ht="12.75" spans="2:8">
-      <c r="B610" s="14"/>
-      <c r="H610" s="21"/>
+      <c r="B610" s="29"/>
+      <c r="H610" s="35"/>
     </row>
     <row r="611" ht="12.75" spans="2:8">
-      <c r="B611" s="14"/>
-      <c r="H611" s="21"/>
+      <c r="B611" s="29"/>
+      <c r="H611" s="35"/>
     </row>
     <row r="612" ht="12.75" spans="2:8">
-      <c r="B612" s="14"/>
-      <c r="H612" s="21"/>
+      <c r="B612" s="29"/>
+      <c r="H612" s="35"/>
     </row>
     <row r="613" ht="12.75" spans="2:8">
-      <c r="B613" s="14"/>
-      <c r="H613" s="21"/>
+      <c r="B613" s="29"/>
+      <c r="H613" s="35"/>
     </row>
     <row r="614" ht="12.75" spans="2:8">
-      <c r="B614" s="14"/>
-      <c r="H614" s="21"/>
+      <c r="B614" s="29"/>
+      <c r="H614" s="35"/>
     </row>
     <row r="615" ht="12.75" spans="2:8">
-      <c r="B615" s="14"/>
-      <c r="H615" s="21"/>
+      <c r="B615" s="29"/>
+      <c r="H615" s="35"/>
     </row>
     <row r="616" ht="12.75" spans="2:8">
-      <c r="B616" s="14"/>
-      <c r="H616" s="21"/>
+      <c r="B616" s="29"/>
+      <c r="H616" s="35"/>
     </row>
     <row r="617" ht="12.75" spans="2:8">
-      <c r="B617" s="14"/>
-      <c r="H617" s="21"/>
+      <c r="B617" s="29"/>
+      <c r="H617" s="35"/>
     </row>
     <row r="618" ht="12.75" spans="2:8">
-      <c r="B618" s="14"/>
-      <c r="H618" s="21"/>
+      <c r="B618" s="29"/>
+      <c r="H618" s="35"/>
     </row>
     <row r="619" ht="12.75" spans="2:8">
-      <c r="B619" s="14"/>
-      <c r="H619" s="21"/>
+      <c r="B619" s="29"/>
+      <c r="H619" s="35"/>
     </row>
     <row r="620" ht="12.75" spans="2:8">
-      <c r="B620" s="14"/>
-      <c r="H620" s="21"/>
+      <c r="B620" s="29"/>
+      <c r="H620" s="35"/>
     </row>
     <row r="621" ht="12.75" spans="2:8">
-      <c r="B621" s="14"/>
-      <c r="H621" s="21"/>
+      <c r="B621" s="29"/>
+      <c r="H621" s="35"/>
     </row>
     <row r="622" ht="12.75" spans="2:8">
-      <c r="B622" s="14"/>
-      <c r="H622" s="21"/>
+      <c r="B622" s="29"/>
+      <c r="H622" s="35"/>
     </row>
     <row r="623" ht="12.75" spans="2:8">
-      <c r="B623" s="14"/>
-      <c r="H623" s="21"/>
+      <c r="B623" s="29"/>
+      <c r="H623" s="35"/>
     </row>
     <row r="624" ht="12.75" spans="2:8">
-      <c r="B624" s="14"/>
-      <c r="H624" s="21"/>
+      <c r="B624" s="29"/>
+      <c r="H624" s="35"/>
     </row>
     <row r="625" ht="12.75" spans="2:8">
-      <c r="B625" s="14"/>
-      <c r="H625" s="21"/>
+      <c r="B625" s="29"/>
+      <c r="H625" s="35"/>
     </row>
     <row r="626" ht="12.75" spans="2:8">
-      <c r="B626" s="14"/>
-      <c r="H626" s="21"/>
+      <c r="B626" s="29"/>
+      <c r="H626" s="35"/>
     </row>
     <row r="627" ht="12.75" spans="2:8">
-      <c r="B627" s="14"/>
-      <c r="H627" s="21"/>
+      <c r="B627" s="29"/>
+      <c r="H627" s="35"/>
     </row>
     <row r="628" ht="12.75" spans="2:8">
-      <c r="B628" s="14"/>
-      <c r="H628" s="21"/>
+      <c r="B628" s="29"/>
+      <c r="H628" s="35"/>
     </row>
     <row r="629" ht="12.75" spans="2:8">
-      <c r="B629" s="14"/>
-      <c r="H629" s="21"/>
+      <c r="B629" s="29"/>
+      <c r="H629" s="35"/>
     </row>
     <row r="630" ht="12.75" spans="2:8">
-      <c r="B630" s="14"/>
-      <c r="H630" s="21"/>
+      <c r="B630" s="29"/>
+      <c r="H630" s="35"/>
     </row>
     <row r="631" ht="12.75" spans="2:8">
-      <c r="B631" s="14"/>
-      <c r="H631" s="21"/>
+      <c r="B631" s="29"/>
+      <c r="H631" s="35"/>
     </row>
     <row r="632" ht="12.75" spans="2:8">
-      <c r="B632" s="14"/>
-      <c r="H632" s="21"/>
+      <c r="B632" s="29"/>
+      <c r="H632" s="35"/>
     </row>
     <row r="633" ht="12.75" spans="2:8">
-      <c r="B633" s="14"/>
-      <c r="H633" s="21"/>
+      <c r="B633" s="29"/>
+      <c r="H633" s="35"/>
     </row>
     <row r="634" ht="12.75" spans="2:8">
-      <c r="B634" s="14"/>
-      <c r="H634" s="21"/>
+      <c r="B634" s="29"/>
+      <c r="H634" s="35"/>
     </row>
     <row r="635" ht="12.75" spans="2:8">
-      <c r="B635" s="14"/>
-      <c r="H635" s="21"/>
+      <c r="B635" s="29"/>
+      <c r="H635" s="35"/>
     </row>
     <row r="636" ht="12.75" spans="2:8">
-      <c r="B636" s="14"/>
-      <c r="H636" s="21"/>
+      <c r="B636" s="29"/>
+      <c r="H636" s="35"/>
     </row>
     <row r="637" ht="12.75" spans="2:8">
-      <c r="B637" s="14"/>
-      <c r="H637" s="21"/>
+      <c r="B637" s="29"/>
+      <c r="H637" s="35"/>
     </row>
     <row r="638" ht="12.75" spans="2:8">
-      <c r="B638" s="14"/>
-      <c r="H638" s="21"/>
+      <c r="B638" s="29"/>
+      <c r="H638" s="35"/>
     </row>
     <row r="639" ht="12.75" spans="2:8">
-      <c r="B639" s="14"/>
-      <c r="H639" s="21"/>
+      <c r="B639" s="29"/>
+      <c r="H639" s="35"/>
     </row>
     <row r="640" ht="12.75" spans="2:8">
-      <c r="B640" s="14"/>
-      <c r="H640" s="21"/>
+      <c r="B640" s="29"/>
+      <c r="H640" s="35"/>
     </row>
     <row r="641" ht="12.75" spans="2:8">
-      <c r="B641" s="14"/>
-      <c r="H641" s="21"/>
+      <c r="B641" s="29"/>
+      <c r="H641" s="35"/>
     </row>
     <row r="642" ht="12.75" spans="2:8">
-      <c r="B642" s="14"/>
-      <c r="H642" s="21"/>
+      <c r="B642" s="29"/>
+      <c r="H642" s="35"/>
     </row>
     <row r="643" ht="12.75" spans="2:8">
-      <c r="B643" s="14"/>
-      <c r="H643" s="21"/>
+      <c r="B643" s="29"/>
+      <c r="H643" s="35"/>
     </row>
     <row r="644" ht="12.75" spans="2:8">
-      <c r="B644" s="14"/>
-      <c r="H644" s="21"/>
+      <c r="B644" s="29"/>
+      <c r="H644" s="35"/>
     </row>
     <row r="645" ht="12.75" spans="2:8">
-      <c r="B645" s="14"/>
-      <c r="H645" s="21"/>
+      <c r="B645" s="29"/>
+      <c r="H645" s="35"/>
     </row>
     <row r="646" ht="12.75" spans="2:8">
-      <c r="B646" s="14"/>
-      <c r="H646" s="21"/>
+      <c r="B646" s="29"/>
+      <c r="H646" s="35"/>
     </row>
     <row r="647" ht="12.75" spans="2:8">
-      <c r="B647" s="14"/>
-      <c r="H647" s="21"/>
+      <c r="B647" s="29"/>
+      <c r="H647" s="35"/>
     </row>
     <row r="648" ht="12.75" spans="2:8">
-      <c r="B648" s="14"/>
-      <c r="H648" s="21"/>
+      <c r="B648" s="29"/>
+      <c r="H648" s="35"/>
     </row>
     <row r="649" ht="12.75" spans="2:8">
-      <c r="B649" s="14"/>
-      <c r="H649" s="21"/>
+      <c r="B649" s="29"/>
+      <c r="H649" s="35"/>
     </row>
     <row r="650" ht="12.75" spans="2:8">
-      <c r="B650" s="14"/>
-      <c r="H650" s="21"/>
+      <c r="B650" s="29"/>
+      <c r="H650" s="35"/>
     </row>
     <row r="651" ht="12.75" spans="2:8">
-      <c r="B651" s="14"/>
-      <c r="H651" s="21"/>
+      <c r="B651" s="29"/>
+      <c r="H651" s="35"/>
     </row>
     <row r="652" ht="12.75" spans="2:8">
-      <c r="B652" s="14"/>
-      <c r="H652" s="21"/>
+      <c r="B652" s="29"/>
+      <c r="H652" s="35"/>
     </row>
     <row r="653" ht="12.75" spans="2:8">
-      <c r="B653" s="14"/>
-      <c r="H653" s="21"/>
+      <c r="B653" s="29"/>
+      <c r="H653" s="35"/>
     </row>
     <row r="654" ht="12.75" spans="2:8">
-      <c r="B654" s="14"/>
-      <c r="H654" s="21"/>
+      <c r="B654" s="29"/>
+      <c r="H654" s="35"/>
     </row>
     <row r="655" ht="12.75" spans="2:8">
-      <c r="B655" s="14"/>
-      <c r="H655" s="21"/>
+      <c r="B655" s="29"/>
+      <c r="H655" s="35"/>
     </row>
     <row r="656" ht="12.75" spans="2:8">
-      <c r="B656" s="14"/>
-      <c r="H656" s="21"/>
+      <c r="B656" s="29"/>
+      <c r="H656" s="35"/>
     </row>
     <row r="657" ht="12.75" spans="2:8">
-      <c r="B657" s="14"/>
-      <c r="H657" s="21"/>
+      <c r="B657" s="29"/>
+      <c r="H657" s="35"/>
     </row>
     <row r="658" ht="12.75" spans="2:8">
-      <c r="B658" s="14"/>
-      <c r="H658" s="21"/>
+      <c r="B658" s="29"/>
+      <c r="H658" s="35"/>
     </row>
     <row r="659" ht="12.75" spans="2:8">
-      <c r="B659" s="14"/>
-      <c r="H659" s="21"/>
+      <c r="B659" s="29"/>
+      <c r="H659" s="35"/>
     </row>
     <row r="660" ht="12.75" spans="2:8">
-      <c r="B660" s="14"/>
-      <c r="H660" s="21"/>
+      <c r="B660" s="29"/>
+      <c r="H660" s="35"/>
     </row>
     <row r="661" ht="12.75" spans="2:8">
-      <c r="B661" s="14"/>
-      <c r="H661" s="21"/>
+      <c r="B661" s="29"/>
+      <c r="H661" s="35"/>
     </row>
     <row r="662" ht="12.75" spans="2:8">
-      <c r="B662" s="14"/>
-      <c r="H662" s="21"/>
+      <c r="B662" s="29"/>
+      <c r="H662" s="35"/>
     </row>
     <row r="663" ht="12.75" spans="2:8">
-      <c r="B663" s="14"/>
-      <c r="H663" s="21"/>
+      <c r="B663" s="29"/>
+      <c r="H663" s="35"/>
     </row>
     <row r="664" ht="12.75" spans="2:8">
-      <c r="B664" s="14"/>
-      <c r="H664" s="21"/>
+      <c r="B664" s="29"/>
+      <c r="H664" s="35"/>
     </row>
     <row r="665" ht="12.75" spans="2:8">
-      <c r="B665" s="14"/>
-      <c r="H665" s="21"/>
+      <c r="B665" s="29"/>
+      <c r="H665" s="35"/>
     </row>
     <row r="666" ht="12.75" spans="2:8">
-      <c r="B666" s="14"/>
-      <c r="H666" s="21"/>
+      <c r="B666" s="29"/>
+      <c r="H666" s="35"/>
     </row>
     <row r="667" ht="12.75" spans="2:8">
-      <c r="B667" s="14"/>
-      <c r="H667" s="21"/>
+      <c r="B667" s="29"/>
+      <c r="H667" s="35"/>
     </row>
     <row r="668" ht="12.75" spans="2:8">
-      <c r="B668" s="14"/>
-      <c r="H668" s="21"/>
+      <c r="B668" s="29"/>
+      <c r="H668" s="35"/>
     </row>
     <row r="669" ht="12.75" spans="2:8">
-      <c r="B669" s="14"/>
-      <c r="H669" s="21"/>
+      <c r="B669" s="29"/>
+      <c r="H669" s="35"/>
     </row>
     <row r="670" ht="12.75" spans="2:8">
-      <c r="B670" s="14"/>
-      <c r="H670" s="21"/>
+      <c r="B670" s="29"/>
+      <c r="H670" s="35"/>
     </row>
     <row r="671" ht="12.75" spans="2:8">
-      <c r="B671" s="14"/>
-      <c r="H671" s="21"/>
+      <c r="B671" s="29"/>
+      <c r="H671" s="35"/>
     </row>
     <row r="672" ht="12.75" spans="2:8">
-      <c r="B672" s="14"/>
-      <c r="H672" s="21"/>
+      <c r="B672" s="29"/>
+      <c r="H672" s="35"/>
     </row>
     <row r="673" ht="12.75" spans="2:8">
-      <c r="B673" s="14"/>
-      <c r="H673" s="21"/>
+      <c r="B673" s="29"/>
+      <c r="H673" s="35"/>
     </row>
     <row r="674" ht="12.75" spans="2:8">
-      <c r="B674" s="14"/>
-      <c r="H674" s="21"/>
+      <c r="B674" s="29"/>
+      <c r="H674" s="35"/>
     </row>
     <row r="675" ht="12.75" spans="2:8">
-      <c r="B675" s="14"/>
-      <c r="H675" s="21"/>
+      <c r="B675" s="29"/>
+      <c r="H675" s="35"/>
     </row>
     <row r="676" ht="12.75" spans="2:8">
-      <c r="B676" s="14"/>
-      <c r="H676" s="21"/>
+      <c r="B676" s="29"/>
+      <c r="H676" s="35"/>
     </row>
     <row r="677" ht="12.75" spans="2:8">
-      <c r="B677" s="14"/>
-      <c r="H677" s="21"/>
+      <c r="B677" s="29"/>
+      <c r="H677" s="35"/>
     </row>
     <row r="678" ht="12.75" spans="2:8">
-      <c r="B678" s="14"/>
-      <c r="H678" s="21"/>
+      <c r="B678" s="29"/>
+      <c r="H678" s="35"/>
     </row>
     <row r="679" ht="12.75" spans="2:8">
-      <c r="B679" s="14"/>
-      <c r="H679" s="21"/>
+      <c r="B679" s="29"/>
+      <c r="H679" s="35"/>
     </row>
     <row r="680" ht="12.75" spans="2:8">
-      <c r="B680" s="14"/>
-      <c r="H680" s="21"/>
+      <c r="B680" s="29"/>
+      <c r="H680" s="35"/>
     </row>
     <row r="681" ht="12.75" spans="2:8">
-      <c r="B681" s="14"/>
-      <c r="H681" s="21"/>
+      <c r="B681" s="29"/>
+      <c r="H681" s="35"/>
     </row>
     <row r="682" ht="12.75" spans="2:8">
-      <c r="B682" s="14"/>
-      <c r="H682" s="21"/>
+      <c r="B682" s="29"/>
+      <c r="H682" s="35"/>
     </row>
     <row r="683" ht="12.75" spans="2:8">
-      <c r="B683" s="14"/>
-      <c r="H683" s="21"/>
+      <c r="B683" s="29"/>
+      <c r="H683" s="35"/>
     </row>
     <row r="684" ht="12.75" spans="2:8">
-      <c r="B684" s="14"/>
-      <c r="H684" s="21"/>
+      <c r="B684" s="29"/>
+      <c r="H684" s="35"/>
     </row>
     <row r="685" ht="12.75" spans="2:8">
-      <c r="B685" s="14"/>
-      <c r="H685" s="21"/>
+      <c r="B685" s="29"/>
+      <c r="H685" s="35"/>
     </row>
     <row r="686" ht="12.75" spans="2:8">
-      <c r="B686" s="14"/>
-      <c r="H686" s="21"/>
+      <c r="B686" s="29"/>
+      <c r="H686" s="35"/>
     </row>
     <row r="687" ht="12.75" spans="2:8">
-      <c r="B687" s="14"/>
-      <c r="H687" s="21"/>
+      <c r="B687" s="29"/>
+      <c r="H687" s="35"/>
     </row>
     <row r="688" ht="12.75" spans="2:8">
-      <c r="B688" s="14"/>
-      <c r="H688" s="21"/>
+      <c r="B688" s="29"/>
+      <c r="H688" s="35"/>
     </row>
     <row r="689" ht="12.75" spans="2:8">
-      <c r="B689" s="14"/>
-      <c r="H689" s="21"/>
+      <c r="B689" s="29"/>
+      <c r="H689" s="35"/>
     </row>
     <row r="690" ht="12.75" spans="2:8">
-      <c r="B690" s="14"/>
-      <c r="H690" s="21"/>
+      <c r="B690" s="29"/>
+      <c r="H690" s="35"/>
     </row>
     <row r="691" ht="12.75" spans="2:8">
-      <c r="B691" s="14"/>
-      <c r="H691" s="21"/>
+      <c r="B691" s="29"/>
+      <c r="H691" s="35"/>
     </row>
     <row r="692" ht="12.75" spans="2:8">
-      <c r="B692" s="14"/>
-      <c r="H692" s="21"/>
+      <c r="B692" s="29"/>
+      <c r="H692" s="35"/>
     </row>
     <row r="693" ht="12.75" spans="2:8">
-      <c r="B693" s="14"/>
-      <c r="H693" s="21"/>
+      <c r="B693" s="29"/>
+      <c r="H693" s="35"/>
     </row>
     <row r="694" ht="12.75" spans="2:8">
-      <c r="B694" s="14"/>
-      <c r="H694" s="21"/>
+      <c r="B694" s="29"/>
+      <c r="H694" s="35"/>
     </row>
     <row r="695" ht="12.75" spans="2:8">
-      <c r="B695" s="14"/>
-      <c r="H695" s="21"/>
+      <c r="B695" s="29"/>
+      <c r="H695" s="35"/>
     </row>
     <row r="696" ht="12.75" spans="2:8">
-      <c r="B696" s="14"/>
-      <c r="H696" s="21"/>
+      <c r="B696" s="29"/>
+      <c r="H696" s="35"/>
     </row>
     <row r="697" ht="12.75" spans="2:8">
-      <c r="B697" s="14"/>
-      <c r="H697" s="21"/>
+      <c r="B697" s="29"/>
+      <c r="H697" s="35"/>
     </row>
     <row r="698" ht="12.75" spans="2:8">
-      <c r="B698" s="14"/>
-      <c r="H698" s="21"/>
+      <c r="B698" s="29"/>
+      <c r="H698" s="35"/>
     </row>
     <row r="699" ht="12.75" spans="2:8">
-      <c r="B699" s="14"/>
-      <c r="H699" s="21"/>
+      <c r="B699" s="29"/>
+      <c r="H699" s="35"/>
     </row>
     <row r="700" ht="12.75" spans="2:8">
-      <c r="B700" s="14"/>
-      <c r="H700" s="21"/>
+      <c r="B700" s="29"/>
+      <c r="H700" s="35"/>
     </row>
     <row r="701" ht="12.75" spans="2:8">
-      <c r="B701" s="14"/>
-      <c r="H701" s="21"/>
+      <c r="B701" s="29"/>
+      <c r="H701" s="35"/>
     </row>
     <row r="702" ht="12.75" spans="2:8">
-      <c r="B702" s="14"/>
-      <c r="H702" s="21"/>
+      <c r="B702" s="29"/>
+      <c r="H702" s="35"/>
     </row>
     <row r="703" ht="12.75" spans="2:8">
-      <c r="B703" s="14"/>
-      <c r="H703" s="21"/>
+      <c r="B703" s="29"/>
+      <c r="H703" s="35"/>
     </row>
     <row r="704" ht="12.75" spans="2:8">
-      <c r="B704" s="14"/>
-      <c r="H704" s="21"/>
+      <c r="B704" s="29"/>
+      <c r="H704" s="35"/>
     </row>
     <row r="705" ht="12.75" spans="2:8">
-      <c r="B705" s="14"/>
-      <c r="H705" s="21"/>
+      <c r="B705" s="29"/>
+      <c r="H705" s="35"/>
     </row>
     <row r="706" ht="12.75" spans="2:8">
-      <c r="B706" s="14"/>
-      <c r="H706" s="21"/>
+      <c r="B706" s="29"/>
+      <c r="H706" s="35"/>
     </row>
     <row r="707" ht="12.75" spans="2:8">
-      <c r="B707" s="14"/>
-      <c r="H707" s="21"/>
+      <c r="B707" s="29"/>
+      <c r="H707" s="35"/>
     </row>
     <row r="708" ht="12.75" spans="2:8">
-      <c r="B708" s="14"/>
-      <c r="H708" s="21"/>
+      <c r="B708" s="29"/>
+      <c r="H708" s="35"/>
     </row>
     <row r="709" ht="12.75" spans="2:8">
-      <c r="B709" s="14"/>
-      <c r="H709" s="21"/>
+      <c r="B709" s="29"/>
+      <c r="H709" s="35"/>
     </row>
     <row r="710" ht="12.75" spans="2:8">
-      <c r="B710" s="14"/>
-      <c r="H710" s="21"/>
+      <c r="B710" s="29"/>
+      <c r="H710" s="35"/>
     </row>
     <row r="711" ht="12.75" spans="2:8">
-      <c r="B711" s="14"/>
-      <c r="H711" s="21"/>
+      <c r="B711" s="29"/>
+      <c r="H711" s="35"/>
     </row>
     <row r="712" ht="12.75" spans="2:8">
-      <c r="B712" s="14"/>
-      <c r="H712" s="21"/>
+      <c r="B712" s="29"/>
+      <c r="H712" s="35"/>
     </row>
     <row r="713" ht="12.75" spans="2:8">
-      <c r="B713" s="14"/>
-      <c r="H713" s="21"/>
+      <c r="B713" s="29"/>
+      <c r="H713" s="35"/>
     </row>
     <row r="714" ht="12.75" spans="2:8">
-      <c r="B714" s="14"/>
-      <c r="H714" s="21"/>
+      <c r="B714" s="29"/>
+      <c r="H714" s="35"/>
     </row>
     <row r="715" ht="12.75" spans="2:8">
-      <c r="B715" s="14"/>
-      <c r="H715" s="21"/>
+      <c r="B715" s="29"/>
+      <c r="H715" s="35"/>
     </row>
     <row r="716" ht="12.75" spans="2:8">
-      <c r="B716" s="14"/>
-      <c r="H716" s="21"/>
+      <c r="B716" s="29"/>
+      <c r="H716" s="35"/>
     </row>
     <row r="717" ht="12.75" spans="2:8">
-      <c r="B717" s="14"/>
-      <c r="H717" s="21"/>
+      <c r="B717" s="29"/>
+      <c r="H717" s="35"/>
     </row>
     <row r="718" ht="12.75" spans="2:8">
-      <c r="B718" s="14"/>
-      <c r="H718" s="21"/>
+      <c r="B718" s="29"/>
+      <c r="H718" s="35"/>
     </row>
     <row r="719" ht="12.75" spans="2:8">
-      <c r="B719" s="14"/>
-      <c r="H719" s="21"/>
+      <c r="B719" s="29"/>
+      <c r="H719" s="35"/>
     </row>
     <row r="720" ht="12.75" spans="2:8">
-      <c r="B720" s="14"/>
-      <c r="H720" s="21"/>
+      <c r="B720" s="29"/>
+      <c r="H720" s="35"/>
     </row>
     <row r="721" ht="12.75" spans="2:8">
-      <c r="B721" s="14"/>
-      <c r="H721" s="21"/>
+      <c r="B721" s="29"/>
+      <c r="H721" s="35"/>
     </row>
     <row r="722" ht="12.75" spans="2:8">
-      <c r="B722" s="14"/>
-      <c r="H722" s="21"/>
+      <c r="B722" s="29"/>
+      <c r="H722" s="35"/>
     </row>
     <row r="723" ht="12.75" spans="2:8">
-      <c r="B723" s="14"/>
-      <c r="H723" s="21"/>
+      <c r="B723" s="29"/>
+      <c r="H723" s="35"/>
     </row>
     <row r="724" ht="12.75" spans="2:8">
-      <c r="B724" s="14"/>
-      <c r="H724" s="21"/>
+      <c r="B724" s="29"/>
+      <c r="H724" s="35"/>
     </row>
     <row r="725" ht="12.75" spans="2:8">
-      <c r="B725" s="14"/>
-      <c r="H725" s="21"/>
+      <c r="B725" s="29"/>
+      <c r="H725" s="35"/>
     </row>
     <row r="726" ht="12.75" spans="2:8">
-      <c r="B726" s="14"/>
-      <c r="H726" s="21"/>
+      <c r="B726" s="29"/>
+      <c r="H726" s="35"/>
     </row>
     <row r="727" ht="12.75" spans="2:8">
-      <c r="B727" s="14"/>
-      <c r="H727" s="21"/>
+      <c r="B727" s="29"/>
+      <c r="H727" s="35"/>
     </row>
     <row r="728" ht="12.75" spans="2:8">
-      <c r="B728" s="14"/>
-      <c r="H728" s="21"/>
+      <c r="B728" s="29"/>
+      <c r="H728" s="35"/>
     </row>
     <row r="729" ht="12.75" spans="2:8">
-      <c r="B729" s="14"/>
-      <c r="H729" s="21"/>
+      <c r="B729" s="29"/>
+      <c r="H729" s="35"/>
     </row>
     <row r="730" ht="12.75" spans="2:8">
-      <c r="B730" s="14"/>
-      <c r="H730" s="21"/>
+      <c r="B730" s="29"/>
+      <c r="H730" s="35"/>
     </row>
     <row r="731" ht="12.75" spans="2:8">
-      <c r="B731" s="14"/>
-      <c r="H731" s="21"/>
+      <c r="B731" s="29"/>
+      <c r="H731" s="35"/>
     </row>
     <row r="732" ht="12.75" spans="2:8">
-      <c r="B732" s="14"/>
-      <c r="H732" s="21"/>
+      <c r="B732" s="29"/>
+      <c r="H732" s="35"/>
     </row>
     <row r="733" ht="12.75" spans="2:8">
-      <c r="B733" s="14"/>
-      <c r="H733" s="21"/>
+      <c r="B733" s="29"/>
+      <c r="H733" s="35"/>
     </row>
     <row r="734" ht="12.75" spans="2:8">
-      <c r="B734" s="14"/>
-      <c r="H734" s="21"/>
+      <c r="B734" s="29"/>
+      <c r="H734" s="35"/>
     </row>
     <row r="735" ht="12.75" spans="2:8">
-      <c r="B735" s="14"/>
-      <c r="H735" s="21"/>
+      <c r="B735" s="29"/>
+      <c r="H735" s="35"/>
     </row>
     <row r="736" ht="12.75" spans="2:8">
-      <c r="B736" s="14"/>
-      <c r="H736" s="21"/>
+      <c r="B736" s="29"/>
+      <c r="H736" s="35"/>
     </row>
     <row r="737" ht="12.75" spans="2:8">
-      <c r="B737" s="14"/>
-      <c r="H737" s="21"/>
+      <c r="B737" s="29"/>
+      <c r="H737" s="35"/>
     </row>
     <row r="738" ht="12.75" spans="2:8">
-      <c r="B738" s="14"/>
-      <c r="H738" s="21"/>
+      <c r="B738" s="29"/>
+      <c r="H738" s="35"/>
     </row>
     <row r="739" ht="12.75" spans="2:8">
-      <c r="B739" s="14"/>
-      <c r="H739" s="21"/>
+      <c r="B739" s="29"/>
+      <c r="H739" s="35"/>
     </row>
     <row r="740" ht="12.75" spans="2:8">
-      <c r="B740" s="14"/>
-      <c r="H740" s="21"/>
+      <c r="B740" s="29"/>
+      <c r="H740" s="35"/>
     </row>
     <row r="741" ht="12.75" spans="2:8">
-      <c r="B741" s="14"/>
-      <c r="H741" s="21"/>
+      <c r="B741" s="29"/>
+      <c r="H741" s="35"/>
     </row>
     <row r="742" ht="12.75" spans="2:8">
-      <c r="B742" s="14"/>
-      <c r="H742" s="21"/>
+      <c r="B742" s="29"/>
+      <c r="H742" s="35"/>
     </row>
     <row r="743" ht="12.75" spans="2:8">
-      <c r="B743" s="14"/>
-      <c r="H743" s="21"/>
+      <c r="B743" s="29"/>
+      <c r="H743" s="35"/>
     </row>
     <row r="744" ht="12.75" spans="2:8">
-      <c r="B744" s="14"/>
-      <c r="H744" s="21"/>
+      <c r="B744" s="29"/>
+      <c r="H744" s="35"/>
     </row>
     <row r="745" ht="12.75" spans="2:8">
-      <c r="B745" s="14"/>
-      <c r="H745" s="21"/>
+      <c r="B745" s="29"/>
+      <c r="H745" s="35"/>
     </row>
     <row r="746" ht="12.75" spans="2:8">
-      <c r="B746" s="14"/>
-      <c r="H746" s="21"/>
+      <c r="B746" s="29"/>
+      <c r="H746" s="35"/>
     </row>
     <row r="747" ht="12.75" spans="2:8">
-      <c r="B747" s="14"/>
-      <c r="H747" s="21"/>
+      <c r="B747" s="29"/>
+      <c r="H747" s="35"/>
     </row>
     <row r="748" ht="12.75" spans="2:8">
-      <c r="B748" s="14"/>
-      <c r="H748" s="21"/>
+      <c r="B748" s="29"/>
+      <c r="H748" s="35"/>
     </row>
     <row r="749" ht="12.75" spans="2:8">
-      <c r="B749" s="14"/>
-      <c r="H749" s="21"/>
+      <c r="B749" s="29"/>
+      <c r="H749" s="35"/>
     </row>
     <row r="750" ht="12.75" spans="2:8">
-      <c r="B750" s="14"/>
-      <c r="H750" s="21"/>
+      <c r="B750" s="29"/>
+      <c r="H750" s="35"/>
     </row>
     <row r="751" ht="12.75" spans="2:8">
-      <c r="B751" s="14"/>
-      <c r="H751" s="21"/>
+      <c r="B751" s="29"/>
+      <c r="H751" s="35"/>
     </row>
     <row r="752" ht="12.75" spans="2:8">
-      <c r="B752" s="14"/>
-      <c r="H752" s="21"/>
+      <c r="B752" s="29"/>
+      <c r="H752" s="35"/>
     </row>
     <row r="753" ht="12.75" spans="2:8">
-      <c r="B753" s="14"/>
-      <c r="H753" s="21"/>
+      <c r="B753" s="29"/>
+      <c r="H753" s="35"/>
     </row>
     <row r="754" ht="12.75" spans="2:8">
-      <c r="B754" s="14"/>
-      <c r="H754" s="21"/>
+      <c r="B754" s="29"/>
+      <c r="H754" s="35"/>
     </row>
     <row r="755" ht="12.75" spans="2:8">
-      <c r="B755" s="14"/>
-      <c r="H755" s="21"/>
+      <c r="B755" s="29"/>
+      <c r="H755" s="35"/>
     </row>
     <row r="756" ht="12.75" spans="2:8">
-      <c r="B756" s="14"/>
-      <c r="H756" s="21"/>
+      <c r="B756" s="29"/>
+      <c r="H756" s="35"/>
     </row>
     <row r="757" ht="12.75" spans="2:8">
-      <c r="B757" s="14"/>
-      <c r="H757" s="21"/>
+      <c r="B757" s="29"/>
+      <c r="H757" s="35"/>
     </row>
     <row r="758" ht="12.75" spans="2:8">
-      <c r="B758" s="14"/>
-      <c r="H758" s="21"/>
+      <c r="B758" s="29"/>
+      <c r="H758" s="35"/>
     </row>
     <row r="759" ht="12.75" spans="2:8">
-      <c r="B759" s="14"/>
-      <c r="H759" s="21"/>
+      <c r="B759" s="29"/>
+      <c r="H759" s="35"/>
     </row>
     <row r="760" ht="12.75" spans="2:8">
-      <c r="B760" s="14"/>
-      <c r="H760" s="21"/>
+      <c r="B760" s="29"/>
+      <c r="H760" s="35"/>
     </row>
     <row r="761" ht="12.75" spans="2:8">
-      <c r="B761" s="14"/>
-      <c r="H761" s="21"/>
+      <c r="B761" s="29"/>
+      <c r="H761" s="35"/>
     </row>
     <row r="762" ht="12.75" spans="2:8">
-      <c r="B762" s="14"/>
-      <c r="H762" s="21"/>
+      <c r="B762" s="29"/>
+      <c r="H762" s="35"/>
     </row>
     <row r="763" ht="12.75" spans="2:8">
-      <c r="B763" s="14"/>
-      <c r="H763" s="21"/>
+      <c r="B763" s="29"/>
+      <c r="H763" s="35"/>
     </row>
     <row r="764" ht="12.75" spans="2:8">
-      <c r="B764" s="14"/>
-      <c r="H764" s="21"/>
+      <c r="B764" s="29"/>
+      <c r="H764" s="35"/>
     </row>
     <row r="765" ht="12.75" spans="2:8">
-      <c r="B765" s="14"/>
-      <c r="H765" s="21"/>
+      <c r="B765" s="29"/>
+      <c r="H765" s="35"/>
     </row>
     <row r="766" ht="12.75" spans="2:8">
-      <c r="B766" s="14"/>
-      <c r="H766" s="21"/>
+      <c r="B766" s="29"/>
+      <c r="H766" s="35"/>
     </row>
     <row r="767" ht="12.75" spans="2:8">
-      <c r="B767" s="14"/>
-      <c r="H767" s="21"/>
+      <c r="B767" s="29"/>
+      <c r="H767" s="35"/>
     </row>
     <row r="768" ht="12.75" spans="2:8">
-      <c r="B768" s="14"/>
-      <c r="H768" s="21"/>
+      <c r="B768" s="29"/>
+      <c r="H768" s="35"/>
     </row>
     <row r="769" ht="12.75" spans="2:8">
-      <c r="B769" s="14"/>
-      <c r="H769" s="21"/>
+      <c r="B769" s="29"/>
+      <c r="H769" s="35"/>
     </row>
     <row r="770" ht="12.75" spans="2:8">
-      <c r="B770" s="14"/>
-      <c r="H770" s="21"/>
+      <c r="B770" s="29"/>
+      <c r="H770" s="35"/>
     </row>
     <row r="771" ht="12.75" spans="2:8">
-      <c r="B771" s="14"/>
-      <c r="H771" s="21"/>
+      <c r="B771" s="29"/>
+      <c r="H771" s="35"/>
     </row>
     <row r="772" ht="12.75" spans="2:8">
-      <c r="B772" s="14"/>
-      <c r="H772" s="21"/>
+      <c r="B772" s="29"/>
+      <c r="H772" s="35"/>
     </row>
     <row r="773" ht="12.75" spans="2:8">
-      <c r="B773" s="14"/>
-      <c r="H773" s="21"/>
+      <c r="B773" s="29"/>
+      <c r="H773" s="35"/>
     </row>
     <row r="774" ht="12.75" spans="2:8">
-      <c r="B774" s="14"/>
-      <c r="H774" s="21"/>
+      <c r="B774" s="29"/>
+      <c r="H774" s="35"/>
     </row>
     <row r="775" ht="12.75" spans="2:8">
-      <c r="B775" s="14"/>
-      <c r="H775" s="21"/>
+      <c r="B775" s="29"/>
+      <c r="H775" s="35"/>
     </row>
     <row r="776" ht="12.75" spans="2:8">
-      <c r="B776" s="14"/>
-      <c r="H776" s="21"/>
+      <c r="B776" s="29"/>
+      <c r="H776" s="35"/>
     </row>
     <row r="777" ht="12.75" spans="2:8">
-      <c r="B777" s="14"/>
-      <c r="H777" s="21"/>
+      <c r="B777" s="29"/>
+      <c r="H777" s="35"/>
     </row>
     <row r="778" ht="12.75" spans="2:8">
-      <c r="B778" s="14"/>
-      <c r="H778" s="21"/>
+      <c r="B778" s="29"/>
+      <c r="H778" s="35"/>
     </row>
     <row r="779" ht="12.75" spans="2:8">
-      <c r="B779" s="14"/>
-      <c r="H779" s="21"/>
+      <c r="B779" s="29"/>
+      <c r="H779" s="35"/>
     </row>
     <row r="780" ht="12.75" spans="2:8">
-      <c r="B780" s="14"/>
-      <c r="H780" s="21"/>
+      <c r="B780" s="29"/>
+      <c r="H780" s="35"/>
     </row>
     <row r="781" ht="12.75" spans="2:8">
-      <c r="B781" s="14"/>
-      <c r="H781" s="21"/>
+      <c r="B781" s="29"/>
+      <c r="H781" s="35"/>
     </row>
     <row r="782" ht="12.75" spans="2:8">
-      <c r="B782" s="14"/>
-      <c r="H782" s="21"/>
+      <c r="B782" s="29"/>
+      <c r="H782" s="35"/>
     </row>
     <row r="783" ht="12.75" spans="2:8">
-      <c r="B783" s="14"/>
-      <c r="H783" s="21"/>
+      <c r="B783" s="29"/>
+      <c r="H783" s="35"/>
     </row>
     <row r="784" ht="12.75" spans="2:8">
-      <c r="B784" s="14"/>
-      <c r="H784" s="21"/>
+      <c r="B784" s="29"/>
+      <c r="H784" s="35"/>
     </row>
     <row r="785" ht="12.75" spans="2:8">
-      <c r="B785" s="14"/>
-      <c r="H785" s="21"/>
+      <c r="B785" s="29"/>
+      <c r="H785" s="35"/>
     </row>
     <row r="786" ht="12.75" spans="2:8">
-      <c r="B786" s="14"/>
-      <c r="H786" s="21"/>
+      <c r="B786" s="29"/>
+      <c r="H786" s="35"/>
     </row>
     <row r="787" ht="12.75" spans="2:8">
-      <c r="B787" s="14"/>
-      <c r="H787" s="21"/>
+      <c r="B787" s="29"/>
+      <c r="H787" s="35"/>
     </row>
     <row r="788" ht="12.75" spans="2:8">
-      <c r="B788" s="14"/>
-      <c r="H788" s="21"/>
+      <c r="B788" s="29"/>
+      <c r="H788" s="35"/>
     </row>
     <row r="789" ht="12.75" spans="2:8">
-      <c r="B789" s="14"/>
-      <c r="H789" s="21"/>
+      <c r="B789" s="29"/>
+      <c r="H789" s="35"/>
     </row>
     <row r="790" ht="12.75" spans="2:8">
-      <c r="B790" s="14"/>
-      <c r="H790" s="21"/>
+      <c r="B790" s="29"/>
+      <c r="H790" s="35"/>
     </row>
     <row r="791" ht="12.75" spans="2:8">
-      <c r="B791" s="14"/>
-      <c r="H791" s="21"/>
+      <c r="B791" s="29"/>
+      <c r="H791" s="35"/>
     </row>
     <row r="792" ht="12.75" spans="2:8">
-      <c r="B792" s="14"/>
-      <c r="H792" s="21"/>
+      <c r="B792" s="29"/>
+      <c r="H792" s="35"/>
     </row>
     <row r="793" ht="12.75" spans="2:8">
-      <c r="B793" s="14"/>
-      <c r="H793" s="21"/>
+      <c r="B793" s="29"/>
+      <c r="H793" s="35"/>
     </row>
     <row r="794" ht="12.75" spans="2:8">
-      <c r="B794" s="14"/>
-      <c r="H794" s="21"/>
+      <c r="B794" s="29"/>
+      <c r="H794" s="35"/>
     </row>
     <row r="795" ht="12.75" spans="2:8">
-      <c r="B795" s="14"/>
-      <c r="H795" s="21"/>
+      <c r="B795" s="29"/>
+      <c r="H795" s="35"/>
     </row>
     <row r="796" ht="12.75" spans="2:8">
-      <c r="B796" s="14"/>
-      <c r="H796" s="21"/>
+      <c r="B796" s="29"/>
+      <c r="H796" s="35"/>
     </row>
     <row r="797" ht="12.75" spans="2:8">
-      <c r="B797" s="14"/>
-      <c r="H797" s="21"/>
+      <c r="B797" s="29"/>
+      <c r="H797" s="35"/>
     </row>
     <row r="798" ht="12.75" spans="2:8">
-      <c r="B798" s="14"/>
-      <c r="H798" s="21"/>
+      <c r="B798" s="29"/>
+      <c r="H798" s="35"/>
     </row>
     <row r="799" ht="12.75" spans="2:8">
-      <c r="B799" s="14"/>
-      <c r="H799" s="21"/>
+      <c r="B799" s="29"/>
+      <c r="H799" s="35"/>
     </row>
     <row r="800" ht="12.75" spans="2:8">
-      <c r="B800" s="14"/>
-      <c r="H800" s="21"/>
+      <c r="B800" s="29"/>
+      <c r="H800" s="35"/>
     </row>
     <row r="801" ht="12.75" spans="2:8">
-      <c r="B801" s="14"/>
-      <c r="H801" s="21"/>
+      <c r="B801" s="29"/>
+      <c r="H801" s="35"/>
     </row>
     <row r="802" ht="12.75" spans="2:8">
-      <c r="B802" s="14"/>
-      <c r="H802" s="21"/>
+      <c r="B802" s="29"/>
+      <c r="H802" s="35"/>
     </row>
     <row r="803" ht="12.75" spans="2:8">
-      <c r="B803" s="14"/>
-      <c r="H803" s="21"/>
+      <c r="B803" s="29"/>
+      <c r="H803" s="35"/>
     </row>
     <row r="804" ht="12.75" spans="2:8">
-      <c r="B804" s="14"/>
-      <c r="H804" s="21"/>
+      <c r="B804" s="29"/>
+      <c r="H804" s="35"/>
     </row>
     <row r="805" ht="12.75" spans="2:8">
-      <c r="B805" s="14"/>
-      <c r="H805" s="21"/>
+      <c r="B805" s="29"/>
+      <c r="H805" s="35"/>
     </row>
     <row r="806" ht="12.75" spans="2:8">
-      <c r="B806" s="14"/>
-      <c r="H806" s="21"/>
+      <c r="B806" s="29"/>
+      <c r="H806" s="35"/>
     </row>
     <row r="807" ht="12.75" spans="2:8">
-      <c r="B807" s="14"/>
-      <c r="H807" s="21"/>
+      <c r="B807" s="29"/>
+      <c r="H807" s="35"/>
     </row>
     <row r="808" ht="12.75" spans="2:8">
-      <c r="B808" s="14"/>
-      <c r="H808" s="21"/>
+      <c r="B808" s="29"/>
+      <c r="H808" s="35"/>
     </row>
     <row r="809" ht="12.75" spans="2:8">
-      <c r="B809" s="14"/>
-      <c r="H809" s="21"/>
+      <c r="B809" s="29"/>
+      <c r="H809" s="35"/>
     </row>
     <row r="810" ht="12.75" spans="2:8">
-      <c r="B810" s="14"/>
-      <c r="H810" s="21"/>
+      <c r="B810" s="29"/>
+      <c r="H810" s="35"/>
     </row>
     <row r="811" ht="12.75" spans="2:8">
-      <c r="B811" s="14"/>
-      <c r="H811" s="21"/>
+      <c r="B811" s="29"/>
+      <c r="H811" s="35"/>
     </row>
     <row r="812" ht="12.75" spans="2:8">
-      <c r="B812" s="14"/>
-      <c r="H812" s="21"/>
+      <c r="B812" s="29"/>
+      <c r="H812" s="35"/>
     </row>
     <row r="813" ht="12.75" spans="2:8">
-      <c r="B813" s="14"/>
-      <c r="H813" s="21"/>
+      <c r="B813" s="29"/>
+      <c r="H813" s="35"/>
     </row>
     <row r="814" ht="12.75" spans="2:8">
-      <c r="B814" s="14"/>
-      <c r="H814" s="21"/>
+      <c r="B814" s="29"/>
+      <c r="H814" s="35"/>
     </row>
     <row r="815" ht="12.75" spans="2:8">
-      <c r="B815" s="14"/>
-      <c r="H815" s="21"/>
+      <c r="B815" s="29"/>
+      <c r="H815" s="35"/>
     </row>
     <row r="816" ht="12.75" spans="2:8">
-      <c r="B816" s="14"/>
-      <c r="H816" s="21"/>
+      <c r="B816" s="29"/>
+      <c r="H816" s="35"/>
     </row>
     <row r="817" ht="12.75" spans="2:8">
-      <c r="B817" s="14"/>
-      <c r="H817" s="21"/>
+      <c r="B817" s="29"/>
+      <c r="H817" s="35"/>
     </row>
     <row r="818" ht="12.75" spans="2:8">
-      <c r="B818" s="14"/>
-      <c r="H818" s="21"/>
+      <c r="B818" s="29"/>
+      <c r="H818" s="35"/>
     </row>
     <row r="819" ht="12.75" spans="2:8">
-      <c r="B819" s="14"/>
-      <c r="H819" s="21"/>
+      <c r="B819" s="29"/>
+      <c r="H819" s="35"/>
     </row>
     <row r="820" ht="12.75" spans="2:8">
-      <c r="B820" s="14"/>
-      <c r="H820" s="21"/>
+      <c r="B820" s="29"/>
+      <c r="H820" s="35"/>
     </row>
     <row r="821" ht="12.75" spans="2:8">
-      <c r="B821" s="14"/>
-      <c r="H821" s="21"/>
+      <c r="B821" s="29"/>
+      <c r="H821" s="35"/>
     </row>
     <row r="822" ht="12.75" spans="2:8">
-      <c r="B822" s="14"/>
-      <c r="H822" s="21"/>
+      <c r="B822" s="29"/>
+      <c r="H822" s="35"/>
     </row>
     <row r="823" ht="12.75" spans="2:8">
-      <c r="B823" s="14"/>
-      <c r="H823" s="21"/>
+      <c r="B823" s="29"/>
+      <c r="H823" s="35"/>
     </row>
     <row r="824" ht="12.75" spans="2:8">
-      <c r="B824" s="14"/>
-      <c r="H824" s="21"/>
+      <c r="B824" s="29"/>
+      <c r="H824" s="35"/>
     </row>
     <row r="825" ht="12.75" spans="2:8">
-      <c r="B825" s="14"/>
-      <c r="H825" s="21"/>
+      <c r="B825" s="29"/>
+      <c r="H825" s="35"/>
     </row>
     <row r="826" ht="12.75" spans="2:8">
-      <c r="B826" s="14"/>
-      <c r="H826" s="21"/>
+      <c r="B826" s="29"/>
+      <c r="H826" s="35"/>
     </row>
     <row r="827" ht="12.75" spans="2:8">
-      <c r="B827" s="14"/>
-      <c r="H827" s="21"/>
+      <c r="B827" s="29"/>
+      <c r="H827" s="35"/>
     </row>
     <row r="828" ht="12.75" spans="2:8">
-      <c r="B828" s="14"/>
-      <c r="H828" s="21"/>
+      <c r="B828" s="29"/>
+      <c r="H828" s="35"/>
     </row>
     <row r="829" ht="12.75" spans="2:8">
-      <c r="B829" s="14"/>
-      <c r="H829" s="21"/>
+      <c r="B829" s="29"/>
+      <c r="H829" s="35"/>
     </row>
     <row r="830" ht="12.75" spans="2:8">
-      <c r="B830" s="14"/>
-      <c r="H830" s="21"/>
+      <c r="B830" s="29"/>
+      <c r="H830" s="35"/>
     </row>
     <row r="831" ht="12.75" spans="2:8">
-      <c r="B831" s="14"/>
-      <c r="H831" s="21"/>
+      <c r="B831" s="29"/>
+      <c r="H831" s="35"/>
     </row>
     <row r="832" ht="12.75" spans="2:8">
-      <c r="B832" s="14"/>
-      <c r="H832" s="21"/>
+      <c r="B832" s="29"/>
+      <c r="H832" s="35"/>
     </row>
     <row r="833" ht="12.75" spans="2:8">
-      <c r="B833" s="14"/>
-      <c r="H833" s="21"/>
+      <c r="B833" s="29"/>
+      <c r="H833" s="35"/>
     </row>
     <row r="834" ht="12.75" spans="2:8">
-      <c r="B834" s="14"/>
-      <c r="H834" s="21"/>
+      <c r="B834" s="29"/>
+      <c r="H834" s="35"/>
     </row>
     <row r="835" ht="12.75" spans="2:8">
-      <c r="B835" s="14"/>
-      <c r="H835" s="21"/>
+      <c r="B835" s="29"/>
+      <c r="H835" s="35"/>
     </row>
     <row r="836" ht="12.75" spans="2:8">
-      <c r="B836" s="14"/>
-      <c r="H836" s="21"/>
+      <c r="B836" s="29"/>
+      <c r="H836" s="35"/>
     </row>
     <row r="837" ht="12.75" spans="2:8">
-      <c r="B837" s="14"/>
-      <c r="H837" s="21"/>
+      <c r="B837" s="29"/>
+      <c r="H837" s="35"/>
     </row>
     <row r="838" ht="12.75" spans="2:8">
-      <c r="B838" s="14"/>
-      <c r="H838" s="21"/>
+      <c r="B838" s="29"/>
+      <c r="H838" s="35"/>
     </row>
     <row r="839" ht="12.75" spans="2:8">
-      <c r="B839" s="14"/>
-      <c r="H839" s="21"/>
+      <c r="B839" s="29"/>
+      <c r="H839" s="35"/>
     </row>
     <row r="840" ht="12.75" spans="2:8">
-      <c r="B840" s="14"/>
-      <c r="H840" s="21"/>
+      <c r="B840" s="29"/>
+      <c r="H840" s="35"/>
     </row>
     <row r="841" ht="12.75" spans="2:8">
-      <c r="B841" s="14"/>
-      <c r="H841" s="21"/>
+      <c r="B841" s="29"/>
+      <c r="H841" s="35"/>
     </row>
     <row r="842" ht="12.75" spans="2:8">
-      <c r="B842" s="14"/>
-      <c r="H842" s="21"/>
+      <c r="B842" s="29"/>
+      <c r="H842" s="35"/>
     </row>
     <row r="843" ht="12.75" spans="2:8">
-      <c r="B843" s="14"/>
-      <c r="H843" s="21"/>
+      <c r="B843" s="29"/>
+      <c r="H843" s="35"/>
     </row>
     <row r="844" ht="12.75" spans="2:8">
-      <c r="B844" s="14"/>
-      <c r="H844" s="21"/>
+      <c r="B844" s="29"/>
+      <c r="H844" s="35"/>
     </row>
     <row r="845" ht="12.75" spans="2:8">
-      <c r="B845" s="14"/>
-      <c r="H845" s="21"/>
+      <c r="B845" s="29"/>
+      <c r="H845" s="35"/>
     </row>
     <row r="846" ht="12.75" spans="2:8">
-      <c r="B846" s="14"/>
-      <c r="H846" s="21"/>
+      <c r="B846" s="29"/>
+      <c r="H846" s="35"/>
     </row>
     <row r="847" ht="12.75" spans="2:8">
-      <c r="B847" s="14"/>
-      <c r="H847" s="21"/>
+      <c r="B847" s="29"/>
+      <c r="H847" s="35"/>
     </row>
     <row r="848" ht="12.75" spans="2:8">
-      <c r="B848" s="14"/>
-      <c r="H848" s="21"/>
+      <c r="B848" s="29"/>
+      <c r="H848" s="35"/>
     </row>
     <row r="849" ht="12.75" spans="2:8">
-      <c r="B849" s="14"/>
-      <c r="H849" s="21"/>
+      <c r="B849" s="29"/>
+      <c r="H849" s="35"/>
     </row>
     <row r="850" ht="12.75" spans="2:8">
-      <c r="B850" s="14"/>
-      <c r="H850" s="21"/>
+      <c r="B850" s="29"/>
+      <c r="H850" s="35"/>
     </row>
     <row r="851" ht="12.75" spans="2:8">
-      <c r="B851" s="14"/>
-      <c r="H851" s="21"/>
+      <c r="B851" s="29"/>
+      <c r="H851" s="35"/>
     </row>
     <row r="852" ht="12.75" spans="2:8">
-      <c r="B852" s="14"/>
-      <c r="H852" s="21"/>
+      <c r="B852" s="29"/>
+      <c r="H852" s="35"/>
     </row>
     <row r="853" ht="12.75" spans="2:8">
-      <c r="B853" s="14"/>
-      <c r="H853" s="21"/>
+      <c r="B853" s="29"/>
+      <c r="H853" s="35"/>
     </row>
     <row r="854" ht="12.75" spans="2:8">
-      <c r="B854" s="14"/>
-      <c r="H854" s="21"/>
+      <c r="B854" s="29"/>
+      <c r="H854" s="35"/>
     </row>
     <row r="855" ht="12.75" spans="2:8">
-      <c r="B855" s="14"/>
-      <c r="H855" s="21"/>
+      <c r="B855" s="29"/>
+      <c r="H855" s="35"/>
     </row>
     <row r="856" ht="12.75" spans="2:8">
-      <c r="B856" s="14"/>
-      <c r="H856" s="21"/>
+      <c r="B856" s="29"/>
+      <c r="H856" s="35"/>
     </row>
     <row r="857" ht="12.75" spans="2:8">
-      <c r="B857" s="14"/>
-      <c r="H857" s="21"/>
+      <c r="B857" s="29"/>
+      <c r="H857" s="35"/>
     </row>
     <row r="858" ht="12.75" spans="2:8">
-      <c r="B858" s="14"/>
-      <c r="H858" s="21"/>
+      <c r="B858" s="29"/>
+      <c r="H858" s="35"/>
     </row>
     <row r="859" ht="12.75" spans="2:8">
-      <c r="B859" s="14"/>
-      <c r="H859" s="21"/>
+      <c r="B859" s="29"/>
+      <c r="H859" s="35"/>
     </row>
     <row r="860" ht="12.75" spans="2:8">
-      <c r="B860" s="14"/>
-      <c r="H860" s="21"/>
+      <c r="B860" s="29"/>
+      <c r="H860" s="35"/>
     </row>
     <row r="861" ht="12.75" spans="2:8">
-      <c r="B861" s="14"/>
-      <c r="H861" s="21"/>
+      <c r="B861" s="29"/>
+      <c r="H861" s="35"/>
     </row>
     <row r="862" ht="12.75" spans="2:8">
-      <c r="B862" s="14"/>
-      <c r="H862" s="21"/>
+      <c r="B862" s="29"/>
+      <c r="H862" s="35"/>
     </row>
     <row r="863" ht="12.75" spans="2:8">
-      <c r="B863" s="14"/>
-      <c r="H863" s="21"/>
+      <c r="B863" s="29"/>
+      <c r="H863" s="35"/>
     </row>
     <row r="864" ht="12.75" spans="2:8">
-      <c r="B864" s="14"/>
-      <c r="H864" s="21"/>
+      <c r="B864" s="29"/>
+      <c r="H864" s="35"/>
     </row>
     <row r="865" ht="12.75" spans="2:8">
-      <c r="B865" s="14"/>
-      <c r="H865" s="21"/>
+      <c r="B865" s="29"/>
+      <c r="H865" s="35"/>
     </row>
     <row r="866" ht="12.75" spans="2:8">
-      <c r="B866" s="14"/>
-      <c r="H866" s="21"/>
+      <c r="B866" s="29"/>
+      <c r="H866" s="35"/>
     </row>
     <row r="867" ht="12.75" spans="2:8">
-      <c r="B867" s="14"/>
-      <c r="H867" s="21"/>
+      <c r="B867" s="29"/>
+      <c r="H867" s="35"/>
     </row>
     <row r="868" ht="12.75" spans="2:8">
-      <c r="B868" s="14"/>
-      <c r="H868" s="21"/>
+      <c r="B868" s="29"/>
+      <c r="H868" s="35"/>
     </row>
     <row r="869" ht="12.75" spans="2:8">
-      <c r="B869" s="14"/>
-      <c r="H869" s="21"/>
+      <c r="B869" s="29"/>
+      <c r="H869" s="35"/>
     </row>
     <row r="870" ht="12.75" spans="2:8">
-      <c r="B870" s="14"/>
-      <c r="H870" s="21"/>
+      <c r="B870" s="29"/>
+      <c r="H870" s="35"/>
     </row>
     <row r="871" ht="12.75" spans="2:8">
-      <c r="B871" s="14"/>
-      <c r="H871" s="21"/>
+      <c r="B871" s="29"/>
+      <c r="H871" s="35"/>
     </row>
     <row r="872" ht="12.75" spans="2:8">
-      <c r="B872" s="14"/>
-      <c r="H872" s="21"/>
+      <c r="B872" s="29"/>
+      <c r="H872" s="35"/>
     </row>
     <row r="873" ht="12.75" spans="2:8">
-      <c r="B873" s="14"/>
-      <c r="H873" s="21"/>
+      <c r="B873" s="29"/>
+      <c r="H873" s="35"/>
     </row>
     <row r="874" ht="12.75" spans="2:8">
-      <c r="B874" s="14"/>
-      <c r="H874" s="21"/>
+      <c r="B874" s="29"/>
+      <c r="H874" s="35"/>
     </row>
     <row r="875" ht="12.75" spans="2:8">
-      <c r="B875" s="14"/>
-      <c r="H875" s="21"/>
+      <c r="B875" s="29"/>
+      <c r="H875" s="35"/>
     </row>
     <row r="876" ht="12.75" spans="2:8">
-      <c r="B876" s="14"/>
-      <c r="H876" s="21"/>
+      <c r="B876" s="29"/>
+      <c r="H876" s="35"/>
     </row>
     <row r="877" ht="12.75" spans="2:8">
-      <c r="B877" s="14"/>
-      <c r="H877" s="21"/>
+      <c r="B877" s="29"/>
+      <c r="H877" s="35"/>
     </row>
     <row r="878" ht="12.75" spans="2:8">
-      <c r="B878" s="14"/>
-      <c r="H878" s="21"/>
+      <c r="B878" s="29"/>
+      <c r="H878" s="35"/>
     </row>
     <row r="879" ht="12.75" spans="2:8">
-      <c r="B879" s="14"/>
-      <c r="H879" s="21"/>
+      <c r="B879" s="29"/>
+      <c r="H879" s="35"/>
     </row>
     <row r="880" ht="12.75" spans="2:8">
-      <c r="B880" s="14"/>
-      <c r="H880" s="21"/>
+      <c r="B880" s="29"/>
+      <c r="H880" s="35"/>
     </row>
     <row r="881" ht="12.75" spans="2:8">
-      <c r="B881" s="14"/>
-      <c r="H881" s="21"/>
+      <c r="B881" s="29"/>
+      <c r="H881" s="35"/>
     </row>
     <row r="882" ht="12.75" spans="2:8">
-      <c r="B882" s="14"/>
-      <c r="H882" s="21"/>
+      <c r="B882" s="29"/>
+      <c r="H882" s="35"/>
     </row>
     <row r="883" ht="12.75" spans="2:8">
-      <c r="B883" s="14"/>
-      <c r="H883" s="21"/>
+      <c r="B883" s="29"/>
+      <c r="H883" s="35"/>
     </row>
     <row r="884" ht="12.75" spans="2:8">
-      <c r="B884" s="14"/>
-      <c r="H884" s="21"/>
+      <c r="B884" s="29"/>
+      <c r="H884" s="35"/>
     </row>
     <row r="885" ht="12.75" spans="2:8">
-      <c r="B885" s="14"/>
-      <c r="H885" s="21"/>
+      <c r="B885" s="29"/>
+      <c r="H885" s="35"/>
     </row>
     <row r="886" ht="12.75" spans="2:8">
-      <c r="B886" s="14"/>
-      <c r="H886" s="21"/>
+      <c r="B886" s="29"/>
+      <c r="H886" s="35"/>
     </row>
     <row r="887" ht="12.75" spans="2:8">
-      <c r="B887" s="14"/>
-      <c r="H887" s="21"/>
+      <c r="B887" s="29"/>
+      <c r="H887" s="35"/>
     </row>
     <row r="888" ht="12.75" spans="2:8">
-      <c r="B888" s="14"/>
-      <c r="H888" s="21"/>
+      <c r="B888" s="29"/>
+      <c r="H888" s="35"/>
     </row>
     <row r="889" ht="12.75" spans="2:8">
-      <c r="B889" s="14"/>
-      <c r="H889" s="21"/>
+      <c r="B889" s="29"/>
+      <c r="H889" s="35"/>
     </row>
     <row r="890" ht="12.75" spans="2:8">
-      <c r="B890" s="14"/>
-      <c r="H890" s="21"/>
+      <c r="B890" s="29"/>
+      <c r="H890" s="35"/>
     </row>
     <row r="891" ht="12.75" spans="2:8">
-      <c r="B891" s="14"/>
-      <c r="H891" s="21"/>
+      <c r="B891" s="29"/>
+      <c r="H891" s="35"/>
     </row>
     <row r="892" ht="12.75" spans="2:8">
-      <c r="B892" s="14"/>
-      <c r="H892" s="21"/>
+      <c r="B892" s="29"/>
+      <c r="H892" s="35"/>
     </row>
     <row r="893" ht="12.75" spans="2:8">
-      <c r="B893" s="14"/>
-      <c r="H893" s="21"/>
+      <c r="B893" s="29"/>
+      <c r="H893" s="35"/>
     </row>
     <row r="894" ht="12.75" spans="2:8">
-      <c r="B894" s="14"/>
-      <c r="H894" s="21"/>
+      <c r="B894" s="29"/>
+      <c r="H894" s="35"/>
     </row>
     <row r="895" ht="12.75" spans="2:8">
-      <c r="B895" s="14"/>
-      <c r="H895" s="21"/>
+      <c r="B895" s="29"/>
+      <c r="H895" s="35"/>
     </row>
     <row r="896" ht="12.75" spans="2:8">
-      <c r="B896" s="14"/>
-      <c r="H896" s="21"/>
+      <c r="B896" s="29"/>
+      <c r="H896" s="35"/>
     </row>
     <row r="897" ht="12.75" spans="2:8">
-      <c r="B897" s="14"/>
-      <c r="H897" s="21"/>
+      <c r="B897" s="29"/>
+      <c r="H897" s="35"/>
     </row>
     <row r="898" ht="12.75" spans="2:8">
-      <c r="B898" s="14"/>
-      <c r="H898" s="21"/>
+      <c r="B898" s="29"/>
+      <c r="H898" s="35"/>
     </row>
     <row r="899" ht="12.75" spans="2:8">
-      <c r="B899" s="14"/>
-      <c r="H899" s="21"/>
+      <c r="B899" s="29"/>
+      <c r="H899" s="35"/>
     </row>
     <row r="900" ht="12.75" spans="2:8">
-      <c r="B900" s="14"/>
-      <c r="H900" s="21"/>
+      <c r="B900" s="29"/>
+      <c r="H900" s="35"/>
     </row>
     <row r="901" ht="12.75" spans="2:8">
-      <c r="B901" s="14"/>
-      <c r="H901" s="21"/>
+      <c r="B901" s="29"/>
+      <c r="H901" s="35"/>
     </row>
     <row r="902" ht="12.75" spans="2:8">
-      <c r="B902" s="14"/>
-      <c r="H902" s="21"/>
+      <c r="B902" s="29"/>
+      <c r="H902" s="35"/>
     </row>
     <row r="903" ht="12.75" spans="2:8">
-      <c r="B903" s="14"/>
-      <c r="H903" s="21"/>
+      <c r="B903" s="29"/>
+      <c r="H903" s="35"/>
     </row>
     <row r="904" ht="12.75" spans="2:8">
-      <c r="B904" s="14"/>
-      <c r="H904" s="21"/>
+      <c r="B904" s="29"/>
+      <c r="H904" s="35"/>
     </row>
     <row r="905" ht="12.75" spans="2:8">
-      <c r="B905" s="14"/>
-      <c r="H905" s="21"/>
+      <c r="B905" s="29"/>
+      <c r="H905" s="35"/>
     </row>
     <row r="906" ht="12.75" spans="2:8">
-      <c r="B906" s="14"/>
-      <c r="H906" s="21"/>
+      <c r="B906" s="29"/>
+      <c r="H906" s="35"/>
     </row>
     <row r="907" ht="12.75" spans="2:8">
-      <c r="B907" s="14"/>
-      <c r="H907" s="21"/>
+      <c r="B907" s="29"/>
+      <c r="H907" s="35"/>
     </row>
     <row r="908" ht="12.75" spans="2:8">
-      <c r="B908" s="14"/>
-      <c r="H908" s="21"/>
+      <c r="B908" s="29"/>
+      <c r="H908" s="35"/>
     </row>
     <row r="909" ht="12.75" spans="2:8">
-      <c r="B909" s="14"/>
-      <c r="H909" s="21"/>
+      <c r="B909" s="29"/>
+      <c r="H909" s="35"/>
     </row>
     <row r="910" ht="12.75" spans="2:8">
-      <c r="B910" s="14"/>
-      <c r="H910" s="21"/>
+      <c r="B910" s="29"/>
+      <c r="H910" s="35"/>
     </row>
     <row r="911" ht="12.75" spans="2:8">
-      <c r="B911" s="14"/>
-      <c r="H911" s="21"/>
+      <c r="B911" s="29"/>
+      <c r="H911" s="35"/>
     </row>
     <row r="912" ht="12.75" spans="2:8">
-      <c r="B912" s="14"/>
-      <c r="H912" s="21"/>
+      <c r="B912" s="29"/>
+      <c r="H912" s="35"/>
     </row>
     <row r="913" ht="12.75" spans="2:8">
-      <c r="B913" s="14"/>
-      <c r="H913" s="21"/>
+      <c r="B913" s="29"/>
+      <c r="H913" s="35"/>
     </row>
     <row r="914" ht="12.75" spans="2:8">
-      <c r="B914" s="14"/>
-      <c r="H914" s="21"/>
+      <c r="B914" s="29"/>
+      <c r="H914" s="35"/>
     </row>
     <row r="915" ht="12.75" spans="2:8">
-      <c r="B915" s="14"/>
-      <c r="H915" s="21"/>
+      <c r="B915" s="29"/>
+      <c r="H915" s="35"/>
     </row>
     <row r="916" ht="12.75" spans="2:8">
-      <c r="B916" s="14"/>
-      <c r="H916" s="21"/>
+      <c r="B916" s="29"/>
+      <c r="H916" s="35"/>
     </row>
     <row r="917" ht="12.75" spans="2:8">
-      <c r="B917" s="14"/>
-      <c r="H917" s="21"/>
+      <c r="B917" s="29"/>
+      <c r="H917" s="35"/>
     </row>
     <row r="918" ht="12.75" spans="2:8">
-      <c r="B918" s="14"/>
-      <c r="H918" s="21"/>
+      <c r="B918" s="29"/>
+      <c r="H918" s="35"/>
     </row>
     <row r="919" ht="12.75" spans="2:8">
-      <c r="B919" s="14"/>
-      <c r="H919" s="21"/>
+      <c r="B919" s="29"/>
+      <c r="H919" s="35"/>
     </row>
     <row r="920" ht="12.75" spans="2:8">
-      <c r="B920" s="14"/>
-      <c r="H920" s="21"/>
+      <c r="B920" s="29"/>
+      <c r="H920" s="35"/>
     </row>
     <row r="921" ht="12.75" spans="2:8">
-      <c r="B921" s="14"/>
-      <c r="H921" s="21"/>
+      <c r="B921" s="29"/>
+      <c r="H921" s="35"/>
     </row>
     <row r="922" ht="12.75" spans="2:8">
-      <c r="B922" s="14"/>
-      <c r="H922" s="21"/>
+      <c r="B922" s="29"/>
+      <c r="H922" s="35"/>
     </row>
     <row r="923" ht="12.75" spans="2:8">
-      <c r="B923" s="14"/>
-      <c r="H923" s="21"/>
+      <c r="B923" s="29"/>
+      <c r="H923" s="35"/>
     </row>
     <row r="924" ht="12.75" spans="2:8">
-      <c r="B924" s="14"/>
-      <c r="H924" s="21"/>
+      <c r="B924" s="29"/>
+      <c r="H924" s="35"/>
     </row>
     <row r="925" ht="12.75" spans="2:8">
-      <c r="B925" s="14"/>
-      <c r="H925" s="21"/>
+      <c r="B925" s="29"/>
+      <c r="H925" s="35"/>
     </row>
     <row r="926" ht="12.75" spans="2:8">
-      <c r="B926" s="14"/>
-      <c r="H926" s="21"/>
+      <c r="B926" s="29"/>
+      <c r="H926" s="35"/>
     </row>
     <row r="927" ht="12.75" spans="2:8">
-      <c r="B927" s="14"/>
-      <c r="H927" s="21"/>
+      <c r="B927" s="29"/>
+      <c r="H927" s="35"/>
     </row>
     <row r="928" ht="12.75" spans="2:8">
-      <c r="B928" s="14"/>
-      <c r="H928" s="21"/>
+      <c r="B928" s="29"/>
+      <c r="H928" s="35"/>
     </row>
     <row r="929" ht="12.75" spans="2:8">
-      <c r="B929" s="14"/>
-      <c r="H929" s="21"/>
+      <c r="B929" s="29"/>
+      <c r="H929" s="35"/>
     </row>
     <row r="930" ht="12.75" spans="2:8">
-      <c r="B930" s="14"/>
-      <c r="H930" s="21"/>
+      <c r="B930" s="29"/>
+      <c r="H930" s="35"/>
     </row>
     <row r="931" ht="12.75" spans="2:8">
-      <c r="B931" s="14"/>
-      <c r="H931" s="21"/>
+      <c r="B931" s="29"/>
+      <c r="H931" s="35"/>
     </row>
     <row r="932" ht="12.75" spans="2:8">
-      <c r="B932" s="14"/>
-      <c r="H932" s="21"/>
+      <c r="B932" s="29"/>
+      <c r="H932" s="35"/>
     </row>
     <row r="933" ht="12.75" spans="2:8">
-      <c r="B933" s="14"/>
-      <c r="H933" s="21"/>
+      <c r="B933" s="29"/>
+      <c r="H933" s="35"/>
     </row>
     <row r="934" ht="12.75" spans="2:8">
-      <c r="B934" s="14"/>
-      <c r="H934" s="21"/>
+      <c r="B934" s="29"/>
+      <c r="H934" s="35"/>
     </row>
     <row r="935" ht="12.75" spans="2:8">
-      <c r="B935" s="14"/>
-      <c r="H935" s="21"/>
+      <c r="B935" s="29"/>
+      <c r="H935" s="35"/>
     </row>
     <row r="936" ht="12.75" spans="2:8">
-      <c r="B936" s="14"/>
-      <c r="H936" s="21"/>
+      <c r="B936" s="29"/>
+      <c r="H936" s="35"/>
     </row>
     <row r="937" ht="12.75" spans="2:8">
-      <c r="B937" s="14"/>
-      <c r="H937" s="21"/>
+      <c r="B937" s="29"/>
+      <c r="H937" s="35"/>
     </row>
     <row r="938" ht="12.75" spans="2:8">
-      <c r="B938" s="14"/>
-      <c r="H938" s="21"/>
+      <c r="B938" s="29"/>
+      <c r="H938" s="35"/>
     </row>
     <row r="939" ht="12.75" spans="2:8">
-      <c r="B939" s="14"/>
-      <c r="H939" s="21"/>
+      <c r="B939" s="29"/>
+      <c r="H939" s="35"/>
     </row>
     <row r="940" ht="12.75" spans="2:8">
-      <c r="B940" s="14"/>
-      <c r="H940" s="21"/>
+      <c r="B940" s="29"/>
+      <c r="H940" s="35"/>
     </row>
     <row r="941" ht="12.75" spans="2:8">
-      <c r="B941" s="14"/>
-      <c r="H941" s="21"/>
+      <c r="B941" s="29"/>
+      <c r="H941" s="35"/>
     </row>
     <row r="942" ht="12.75" spans="2:8">
-      <c r="B942" s="14"/>
-      <c r="H942" s="21"/>
+      <c r="B942" s="29"/>
+      <c r="H942" s="35"/>
     </row>
     <row r="943" ht="12.75" spans="2:8">
-      <c r="B943" s="14"/>
-      <c r="H943" s="21"/>
+      <c r="B943" s="29"/>
+      <c r="H943" s="35"/>
     </row>
     <row r="944" ht="12.75" spans="2:8">
-      <c r="B944" s="14"/>
-      <c r="H944" s="21"/>
+      <c r="B944" s="29"/>
+      <c r="H944" s="35"/>
     </row>
     <row r="945" ht="12.75" spans="2:8">
-      <c r="B945" s="14"/>
-      <c r="H945" s="21"/>
+      <c r="B945" s="29"/>
+      <c r="H945" s="35"/>
     </row>
     <row r="946" ht="12.75" spans="2:8">
-      <c r="B946" s="14"/>
-      <c r="H946" s="21"/>
+      <c r="B946" s="29"/>
+      <c r="H946" s="35"/>
     </row>
     <row r="947" ht="12.75" spans="2:8">
-      <c r="B947" s="14"/>
-      <c r="H947" s="21"/>
+      <c r="B947" s="29"/>
+      <c r="H947" s="35"/>
     </row>
     <row r="948" ht="12.75" spans="2:8">
-      <c r="B948" s="14"/>
-      <c r="H948" s="21"/>
+      <c r="B948" s="29"/>
+      <c r="H948" s="35"/>
     </row>
     <row r="949" ht="12.75" spans="2:8">
-      <c r="B949" s="14"/>
-      <c r="H949" s="21"/>
+      <c r="B949" s="29"/>
+      <c r="H949" s="35"/>
     </row>
     <row r="950" ht="12.75" spans="2:8">
-      <c r="B950" s="14"/>
-      <c r="H950" s="21"/>
+      <c r="B950" s="29"/>
+      <c r="H950" s="35"/>
     </row>
     <row r="951" ht="12.75" spans="2:8">
-      <c r="B951" s="14"/>
-      <c r="H951" s="21"/>
+      <c r="B951" s="29"/>
+      <c r="H951" s="35"/>
     </row>
     <row r="952" ht="12.75" spans="2:8">
-      <c r="B952" s="14"/>
-      <c r="H952" s="21"/>
+      <c r="B952" s="29"/>
+      <c r="H952" s="35"/>
     </row>
     <row r="953" ht="12.75" spans="2:8">
-      <c r="B953" s="14"/>
-      <c r="H953" s="21"/>
+      <c r="B953" s="29"/>
+      <c r="H953" s="35"/>
     </row>
     <row r="954" ht="12.75" spans="2:8">
-      <c r="B954" s="14"/>
-      <c r="H954" s="21"/>
+      <c r="B954" s="29"/>
+      <c r="H954" s="35"/>
     </row>
     <row r="955" ht="12.75" spans="2:8">
-      <c r="B955" s="14"/>
-      <c r="H955" s="21"/>
+      <c r="B955" s="29"/>
+      <c r="H955" s="35"/>
     </row>
     <row r="956" ht="12.75" spans="2:8">
-      <c r="B956" s="14"/>
-      <c r="H956" s="21"/>
+      <c r="B956" s="29"/>
+      <c r="H956" s="35"/>
     </row>
     <row r="957" ht="12.75" spans="2:8">
-      <c r="B957" s="14"/>
-      <c r="H957" s="21"/>
+      <c r="B957" s="29"/>
+      <c r="H957" s="35"/>
     </row>
     <row r="958" ht="12.75" spans="2:8">
-      <c r="B958" s="14"/>
-      <c r="H958" s="21"/>
+      <c r="B958" s="29"/>
+      <c r="H958" s="35"/>
     </row>
     <row r="959" ht="12.75" spans="2:8">
-      <c r="B959" s="14"/>
-      <c r="H959" s="21"/>
+      <c r="B959" s="29"/>
+      <c r="H959" s="35"/>
     </row>
     <row r="960" ht="12.75" spans="2:8">
-      <c r="B960" s="14"/>
-      <c r="H960" s="21"/>
+      <c r="B960" s="29"/>
+      <c r="H960" s="35"/>
     </row>
     <row r="961" ht="12.75" spans="2:8">
-      <c r="B961" s="14"/>
-      <c r="H961" s="21"/>
+      <c r="B961" s="29"/>
+      <c r="H961" s="35"/>
     </row>
     <row r="962" ht="12.75" spans="2:8">
-      <c r="B962" s="14"/>
-      <c r="H962" s="21"/>
+      <c r="B962" s="29"/>
+      <c r="H962" s="35"/>
     </row>
     <row r="963" ht="12.75" spans="2:8">
-      <c r="B963" s="14"/>
-      <c r="H963" s="21"/>
+      <c r="B963" s="29"/>
+      <c r="H963" s="35"/>
     </row>
     <row r="964" ht="12.75" spans="8:8">
-      <c r="H964" s="21"/>
+      <c r="H964" s="35"/>
     </row>
     <row r="965" ht="12.75" spans="8:8">
-      <c r="H965" s="21"/>
+      <c r="H965" s="35"/>
     </row>
     <row r="966" ht="12.75" spans="8:8">
-      <c r="H966" s="21"/>
+      <c r="H966" s="35"/>
     </row>
     <row r="967" ht="12.75" spans="8:8">
-      <c r="H967" s="21"/>
+      <c r="H967" s="35"/>
     </row>
     <row r="968" ht="12.75" spans="8:8">
-      <c r="H968" s="21"/>
+      <c r="H968" s="35"/>
     </row>
     <row r="969" ht="12.75" spans="8:8">
-      <c r="H969" s="21"/>
+      <c r="H969" s="35"/>
     </row>
     <row r="970" ht="12.75" spans="8:8">
-      <c r="H970" s="21"/>
+      <c r="H970" s="35"/>
     </row>
     <row r="971" ht="12.75" spans="8:8">
-      <c r="H971" s="21"/>
+      <c r="H971" s="35"/>
     </row>
     <row r="972" ht="12.75" spans="8:8">
-      <c r="H972" s="21"/>
+      <c r="H972" s="35"/>
     </row>
     <row r="973" ht="12.75" spans="8:8">
-      <c r="H973" s="21"/>
+      <c r="H973" s="35"/>
     </row>
     <row r="974" ht="12.75" spans="8:8">
-      <c r="H974" s="21"/>
+      <c r="H974" s="35"/>
     </row>
     <row r="975" ht="12.75" spans="8:8">
-      <c r="H975" s="21"/>
+      <c r="H975" s="35"/>
     </row>
     <row r="976" ht="12.75" spans="8:8">
-      <c r="H976" s="21"/>
+      <c r="H976" s="35"/>
     </row>
     <row r="977" ht="12.75" spans="8:8">
-      <c r="H977" s="21"/>
+      <c r="H977" s="35"/>
     </row>
     <row r="978" ht="12.75" spans="8:8">
-      <c r="H978" s="21"/>
+      <c r="H978" s="35"/>
     </row>
     <row r="979" ht="12.75" spans="8:8">
-      <c r="H979" s="21"/>
+      <c r="H979" s="35"/>
     </row>
     <row r="980" ht="12.75" spans="8:8">
-      <c r="H980" s="21"/>
+      <c r="H980" s="35"/>
     </row>
     <row r="981" ht="12.75" spans="8:8">
-      <c r="H981" s="21"/>
+      <c r="H981" s="35"/>
     </row>
     <row r="982" ht="12.75" spans="8:8">
-      <c r="H982" s="21"/>
+      <c r="H982" s="35"/>
     </row>
     <row r="983" ht="12.75" spans="8:8">
-      <c r="H983" s="21"/>
+      <c r="H983" s="35"/>
     </row>
     <row r="984" ht="12.75" spans="8:8">
-      <c r="H984" s="21"/>
+      <c r="H984" s="35"/>
     </row>
     <row r="985" ht="12.75" spans="8:8">
-      <c r="H985" s="21"/>
+      <c r="H985" s="35"/>
     </row>
     <row r="986" ht="12.75" spans="8:8">
-      <c r="H986" s="21"/>
+      <c r="H986" s="35"/>
     </row>
     <row r="987" ht="12.75" spans="8:8">
-      <c r="H987" s="21"/>
+      <c r="H987" s="35"/>
     </row>
     <row r="988" ht="12.75" spans="8:8">
-      <c r="H988" s="21"/>
+      <c r="H988" s="35"/>
     </row>
     <row r="989" ht="12.75" spans="8:8">
-      <c r="H989" s="21"/>
+      <c r="H989" s="35"/>
     </row>
     <row r="990" ht="12.75" spans="8:8">
-      <c r="H990" s="21"/>
+      <c r="H990" s="35"/>
     </row>
     <row r="991" ht="12.75" spans="8:8">
-      <c r="H991" s="21"/>
+      <c r="H991" s="35"/>
     </row>
     <row r="992" ht="12.75" spans="8:8">
-      <c r="H992" s="21"/>
+      <c r="H992" s="35"/>
     </row>
     <row r="993" ht="12.75" spans="8:8">
-      <c r="H993" s="21"/>
+      <c r="H993" s="35"/>
     </row>
     <row r="994" ht="12.75" spans="8:8">
-      <c r="H994" s="21"/>
+      <c r="H994" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B30 B32:B963">
